--- a/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
+++ b/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="US+_GTY_tx_rx" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7034" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7044" uniqueCount="1607">
   <si>
     <t xml:space="preserve">// path</t>
   </si>
@@ -2573,13 +2573,13 @@
     <t xml:space="preserve">s</t>
   </si>
   <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">out</t>
   </si>
   <si>
     <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">c</t>
@@ -11618,8 +11618,8 @@
   </sheetPr>
   <dimension ref="A1:M292"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11787,6 +11787,9 @@
       <c r="E8" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="J8" s="4" t="s">
+        <v>848</v>
+      </c>
       <c r="L8" s="0"/>
       <c r="M8" s="5"/>
     </row>
@@ -11795,7 +11798,7 @@
         <v>739</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>847</v>
@@ -11804,10 +11807,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="5"/>
@@ -11817,7 +11820,7 @@
         <v>740</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>847</v>
@@ -11826,10 +11829,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="5"/>
@@ -11848,7 +11851,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L11" s="0"/>
       <c r="M11" s="5"/>
@@ -11870,7 +11873,7 @@
         <v>852</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="5"/>
@@ -11889,10 +11892,10 @@
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="5"/>
@@ -11902,7 +11905,7 @@
         <v>741</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>847</v>
@@ -11911,10 +11914,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L14" s="0"/>
       <c r="M14" s="5"/>
@@ -11936,7 +11939,7 @@
         <v>853</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L15" s="0"/>
       <c r="M15" s="5"/>
@@ -11997,7 +12000,7 @@
         <v>742</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>0</v>
@@ -12006,7 +12009,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L19" s="0"/>
       <c r="M19" s="5"/>
@@ -12016,7 +12019,7 @@
         <v>743</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>0</v>
@@ -12025,7 +12028,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L20" s="0"/>
       <c r="M20" s="5"/>
@@ -12095,7 +12098,7 @@
         <v>744</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>854</v>
@@ -12110,7 +12113,7 @@
         <v>855</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L24" s="0"/>
       <c r="M24" s="5"/>
@@ -12142,7 +12145,7 @@
         <v>745</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>854</v>
@@ -12157,7 +12160,7 @@
         <v>855</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L26" s="0"/>
       <c r="M26" s="5"/>
@@ -12205,7 +12208,7 @@
         <v>746</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>847</v>
@@ -12214,7 +12217,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="5"/>
@@ -12233,7 +12236,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L30" s="0"/>
       <c r="M30" s="5"/>
@@ -12287,7 +12290,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L33" s="0"/>
       <c r="M33" s="5"/>
@@ -12306,7 +12309,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L34" s="0"/>
       <c r="M34" s="5"/>
@@ -12325,7 +12328,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L35" s="0"/>
       <c r="M35" s="5"/>
@@ -12335,7 +12338,7 @@
         <v>747</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>847</v>
@@ -12344,7 +12347,10 @@
         <v>1</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>848</v>
       </c>
       <c r="L36" s="0"/>
       <c r="M36" s="5"/>
@@ -12363,7 +12369,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L37" s="0"/>
       <c r="M37" s="5"/>
@@ -12382,7 +12388,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L38" s="0"/>
       <c r="M38" s="5"/>
@@ -12392,16 +12398,16 @@
         <v>748</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>848</v>
-      </c>
-      <c r="C39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>850</v>
       </c>
       <c r="L39" s="0"/>
       <c r="M39" s="5"/>
@@ -12420,7 +12426,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L40" s="0"/>
       <c r="M40" s="5"/>
@@ -12439,7 +12445,10 @@
         <v>1</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>848</v>
       </c>
       <c r="L41" s="0"/>
       <c r="M41" s="5"/>
@@ -12458,7 +12467,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L42" s="0"/>
       <c r="M42" s="5"/>
@@ -12477,7 +12486,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L43" s="0"/>
       <c r="M43" s="5"/>
@@ -12496,7 +12505,10 @@
         <v>1</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>848</v>
       </c>
       <c r="L44" s="0"/>
       <c r="M44" s="5"/>
@@ -12515,7 +12527,10 @@
         <v>1</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>848</v>
       </c>
       <c r="L45" s="0"/>
       <c r="M45" s="5"/>
@@ -12591,7 +12606,7 @@
         <v>3</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L49" s="0"/>
       <c r="M49" s="5"/>
@@ -12601,7 +12616,7 @@
         <v>749</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>856</v>
@@ -12620,7 +12635,7 @@
         <v>750</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>856</v>
@@ -12639,7 +12654,7 @@
         <v>759</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C52" s="4" t="n">
         <v>0</v>
@@ -12655,7 +12670,7 @@
         <v>760</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>0</v>
@@ -12680,10 +12695,10 @@
         <v>1</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L54" s="0"/>
       <c r="M54" s="5"/>
@@ -12702,10 +12717,10 @@
         <v>1</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L55" s="0"/>
       <c r="M55" s="5"/>
@@ -12724,10 +12739,10 @@
         <v>1</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L56" s="0"/>
       <c r="M56" s="5"/>
@@ -12746,10 +12761,10 @@
         <v>1</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L57" s="0"/>
       <c r="M57" s="5"/>
@@ -12759,7 +12774,7 @@
         <v>763</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>0</v>
@@ -12783,6 +12798,9 @@
       <c r="E59" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="J59" s="4" t="s">
+        <v>848</v>
+      </c>
       <c r="L59" s="0"/>
       <c r="M59" s="5"/>
     </row>
@@ -12845,7 +12863,7 @@
         <v>764</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>847</v>
@@ -12857,7 +12875,7 @@
         <v>3</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L63" s="0"/>
       <c r="M63" s="5"/>
@@ -12867,7 +12885,7 @@
         <v>765</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>847</v>
@@ -12879,7 +12897,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L64" s="0"/>
       <c r="M64" s="5"/>
@@ -12889,7 +12907,7 @@
         <v>766</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>0</v>
@@ -12901,7 +12919,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L65" s="0"/>
       <c r="M65" s="5"/>
@@ -12943,7 +12961,7 @@
         <v>767</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>0</v>
@@ -12978,7 +12996,7 @@
         <v>768</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>0</v>
@@ -13013,7 +13031,7 @@
         <v>769</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C72" s="4" t="n">
         <v>0</v>
@@ -13032,7 +13050,7 @@
         <v>770</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C73" s="4" t="n">
         <v>0</v>
@@ -13051,7 +13069,7 @@
         <v>771</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C74" s="4" t="n">
         <v>0</v>
@@ -13146,7 +13164,7 @@
         <v>772</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>0</v>
@@ -13184,7 +13202,7 @@
         <v>773</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C81" s="4" t="n">
         <v>0</v>
@@ -13232,7 +13250,7 @@
         <v>774</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C84" s="4" t="n">
         <v>0</v>
@@ -13251,7 +13269,7 @@
         <v>775</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C85" s="4" t="n">
         <v>0</v>
@@ -13270,7 +13288,7 @@
         <v>776</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C86" s="4" t="n">
         <v>0</v>
@@ -13282,7 +13300,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L86" s="0"/>
       <c r="M86" s="5"/>
@@ -13311,7 +13329,7 @@
         <v>777</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>0</v>
@@ -13330,7 +13348,7 @@
         <v>778</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C89" s="4" t="n">
         <v>0</v>
@@ -13349,7 +13367,7 @@
         <v>779</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>856</v>
@@ -13364,7 +13382,7 @@
         <v>857</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L90" s="0"/>
       <c r="M90" s="5"/>
@@ -13374,7 +13392,7 @@
         <v>780</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>856</v>
@@ -13389,7 +13407,7 @@
         <v>857</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L91" s="0"/>
       <c r="M91" s="5"/>
@@ -13399,7 +13417,7 @@
         <v>781</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>856</v>
@@ -13414,7 +13432,7 @@
         <v>857</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L92" s="0"/>
       <c r="M92" s="5"/>
@@ -13424,7 +13442,7 @@
         <v>782</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>856</v>
@@ -13439,7 +13457,7 @@
         <v>857</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L93" s="0"/>
       <c r="M93" s="5"/>
@@ -13449,7 +13467,7 @@
         <v>783</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>856</v>
@@ -13464,7 +13482,7 @@
         <v>857</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L94" s="0"/>
       <c r="M94" s="5"/>
@@ -13474,7 +13492,7 @@
         <v>784</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C95" s="4" t="n">
         <v>0</v>
@@ -13493,7 +13511,7 @@
         <v>785</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>856</v>
@@ -13508,7 +13526,7 @@
         <v>857</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L96" s="0"/>
       <c r="M96" s="5"/>
@@ -13736,7 +13754,7 @@
         <v>1</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L108" s="0"/>
       <c r="M108" s="2"/>
@@ -14437,7 +14455,7 @@
         <v>786</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>847</v>
@@ -14446,7 +14464,7 @@
         <v>1</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L146" s="0"/>
       <c r="M146" s="5"/>
@@ -14456,7 +14474,7 @@
         <v>787</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C147" s="4" t="n">
         <v>0</v>
@@ -14503,7 +14521,7 @@
         <v>857</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L149" s="0"/>
       <c r="M149" s="5"/>
@@ -14513,7 +14531,7 @@
         <v>788</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>856</v>
@@ -14528,7 +14546,7 @@
         <v>857</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L150" s="0"/>
       <c r="M150" s="5"/>
@@ -14538,7 +14556,7 @@
         <v>789</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>856</v>
@@ -14553,7 +14571,7 @@
         <v>857</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L151" s="0"/>
       <c r="M151" s="5"/>
@@ -14769,7 +14787,7 @@
         <v>793</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C163" s="4" t="n">
         <v>0</v>
@@ -14829,7 +14847,7 @@
         <v>1</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L166" s="5"/>
       <c r="M166" s="5"/>
@@ -14858,7 +14876,7 @@
         <v>794</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C168" s="4" t="n">
         <v>0</v>
@@ -14874,7 +14892,7 @@
         <v>795</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C169" s="4" t="n">
         <v>0</v>
@@ -14890,7 +14908,7 @@
         <v>796</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C170" s="4" t="n">
         <v>0</v>
@@ -14906,7 +14924,7 @@
         <v>797</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C171" s="4" t="n">
         <v>0</v>
@@ -14941,7 +14959,7 @@
         <v>798</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>851</v>
@@ -14953,7 +14971,7 @@
         <v>857</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="I173" s="4" t="s">
         <v>861</v>
@@ -14966,7 +14984,7 @@
         <v>799</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C174" s="4" t="n">
         <v>0</v>
@@ -14975,7 +14993,7 @@
         <v>1</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L174" s="5"/>
       <c r="M174" s="8"/>
@@ -14985,7 +15003,7 @@
         <v>800</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C175" s="4" t="n">
         <v>0</v>
@@ -14994,7 +15012,7 @@
         <v>1</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L175" s="5"/>
       <c r="M175" s="0"/>
@@ -15048,7 +15066,7 @@
         <v>1</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L178" s="2"/>
       <c r="M178" s="0"/>
@@ -15070,7 +15088,7 @@
         <v>862</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L179" s="5"/>
       <c r="M179" s="0"/>
@@ -15096,7 +15114,7 @@
         <v>801</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>856</v>
@@ -15105,7 +15123,7 @@
         <v>1</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L181" s="5"/>
       <c r="M181" s="0"/>
@@ -15131,7 +15149,7 @@
         <v>802</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>847</v>
@@ -15140,7 +15158,7 @@
         <v>1</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L183" s="5"/>
       <c r="M183" s="0"/>
@@ -15191,10 +15209,10 @@
         <v>2</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L186" s="5"/>
       <c r="M186" s="0"/>
@@ -15213,7 +15231,7 @@
         <v>1</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L187" s="5"/>
       <c r="M187" s="0"/>
@@ -15223,7 +15241,7 @@
         <v>803</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>847</v>
@@ -15232,7 +15250,7 @@
         <v>1</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L188" s="5"/>
       <c r="M188" s="0"/>
@@ -15277,7 +15295,7 @@
         <v>804</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>847</v>
@@ -15289,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L191" s="5"/>
       <c r="M191" s="0"/>
@@ -15299,7 +15317,7 @@
         <v>805</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>847</v>
@@ -15311,7 +15329,7 @@
         <v>1</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L192" s="5"/>
       <c r="M192" s="0"/>
@@ -15340,7 +15358,7 @@
         <v>806</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>847</v>
@@ -15349,7 +15367,7 @@
         <v>1</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L194" s="5"/>
       <c r="M194" s="0"/>
@@ -15391,7 +15409,7 @@
         <v>807</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C197" s="4" t="n">
         <v>0</v>
@@ -15403,7 +15421,7 @@
         <v>1</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L197" s="5"/>
       <c r="M197" s="0"/>
@@ -15429,7 +15447,7 @@
         <v>809</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>847</v>
@@ -15438,7 +15456,7 @@
         <v>1</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L199" s="5"/>
       <c r="M199" s="0"/>
@@ -15502,7 +15520,7 @@
         <v>814</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>856</v>
@@ -15517,7 +15535,7 @@
         <v>857</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L203" s="5"/>
       <c r="M203" s="0"/>
@@ -15527,7 +15545,7 @@
         <v>815</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C204" s="4" t="n">
         <v>0</v>
@@ -15555,7 +15573,7 @@
         <v>816</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>847</v>
@@ -15564,7 +15582,7 @@
         <v>1</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15600,7 +15618,7 @@
         <v>817</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>847</v>
@@ -15609,7 +15627,7 @@
         <v>1</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15626,10 +15644,10 @@
         <v>2</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J210" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15663,7 +15681,7 @@
         <v>1</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15680,7 +15698,7 @@
         <v>1</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15697,7 +15715,7 @@
         <v>1</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15717,7 +15735,7 @@
         <v>8</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L215" s="0"/>
       <c r="M215" s="0"/>
@@ -15739,7 +15757,7 @@
         <v>1</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L216" s="0"/>
       <c r="M216" s="0"/>
@@ -15749,7 +15767,7 @@
         <v>819</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>847</v>
@@ -15761,7 +15779,7 @@
         <v>2</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15769,7 +15787,7 @@
         <v>820</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C218" s="4" t="n">
         <v>0</v>
@@ -15840,7 +15858,7 @@
         <v>858</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15863,7 +15881,7 @@
         <v>858</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15886,7 +15904,7 @@
         <v>858</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15909,7 +15927,7 @@
         <v>858</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15931,7 +15949,7 @@
         <v>821</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C227" s="4" t="n">
         <v>0</v>
@@ -15945,7 +15963,7 @@
         <v>675</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C228" s="4" t="n">
         <v>0</v>
@@ -15959,7 +15977,7 @@
         <v>676</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C229" s="4" t="n">
         <v>0</v>
@@ -16088,7 +16106,7 @@
         <v>822</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>847</v>
@@ -16097,7 +16115,7 @@
         <v>1</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16154,7 +16172,7 @@
         <v>858</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16221,7 +16239,7 @@
         <v>823</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>851</v>
@@ -16233,7 +16251,7 @@
         <v>858</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16241,7 +16259,7 @@
         <v>824</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C247" s="4" t="n">
         <v>0</v>
@@ -16255,7 +16273,7 @@
         <v>825</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C248" s="4" t="n">
         <v>0</v>
@@ -16292,7 +16310,10 @@
         <v>1</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
+      </c>
+      <c r="J250" s="4" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16312,7 +16333,7 @@
         <v>862</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16348,7 +16369,7 @@
         <v>826</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>847</v>
@@ -16357,7 +16378,7 @@
         <v>1</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16441,7 +16462,7 @@
         <v>827</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>847</v>
@@ -16450,7 +16471,7 @@
         <v>1</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16568,10 +16589,10 @@
         <v>2</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J268" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16588,7 +16609,10 @@
         <v>1</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
+      </c>
+      <c r="J269" s="4" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16596,7 +16620,7 @@
         <v>828</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>847</v>
@@ -16605,7 +16629,10 @@
         <v>1</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
+      </c>
+      <c r="J270" s="4" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16692,7 +16719,7 @@
         <v>829</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>847</v>
@@ -16734,7 +16761,7 @@
         <v>830</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>847</v>
@@ -16743,7 +16770,7 @@
         <v>1</v>
       </c>
       <c r="H279" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16765,7 +16792,7 @@
         <v>831</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>847</v>
@@ -16777,7 +16804,7 @@
         <v>1</v>
       </c>
       <c r="H281" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16800,7 +16827,7 @@
         <v>858</v>
       </c>
       <c r="H282" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16836,7 +16863,7 @@
         <v>832</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>847</v>
@@ -16845,7 +16872,7 @@
         <v>1</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16881,7 +16908,7 @@
         <v>833</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>847</v>
@@ -16890,7 +16917,7 @@
         <v>1</v>
       </c>
       <c r="H288" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16907,10 +16934,10 @@
         <v>2</v>
       </c>
       <c r="H289" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J289" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16927,7 +16954,10 @@
         <v>1</v>
       </c>
       <c r="H290" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
+      </c>
+      <c r="J290" s="4" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16944,7 +16974,7 @@
         <v>1</v>
       </c>
       <c r="H291" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16961,7 +16991,7 @@
         <v>1</v>
       </c>
       <c r="H292" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -16982,7 +17012,7 @@
   </sheetPr>
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -17094,7 +17124,7 @@
         <v>853</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17114,7 +17144,7 @@
         <v>853</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17131,7 +17161,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17148,7 +17178,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17165,7 +17195,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17182,7 +17212,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17199,10 +17229,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17219,10 +17249,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17239,10 +17269,10 @@
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17259,10 +17289,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17279,7 +17309,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17296,7 +17326,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17313,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17330,7 +17360,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17338,7 +17368,7 @@
         <v>879</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>851</v>
@@ -17347,10 +17377,10 @@
         <v>1</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17358,7 +17388,7 @@
         <v>880</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>851</v>
@@ -17367,10 +17397,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17378,7 +17408,7 @@
         <v>881</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>851</v>
@@ -17387,10 +17417,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17398,7 +17428,7 @@
         <v>882</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>851</v>
@@ -17407,10 +17437,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17418,19 +17448,19 @@
         <v>883</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>848</v>
-      </c>
-      <c r="C23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17438,19 +17468,19 @@
         <v>884</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>848</v>
-      </c>
-      <c r="C24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17458,19 +17488,19 @@
         <v>885</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>848</v>
-      </c>
-      <c r="C25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17478,19 +17508,19 @@
         <v>886</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>848</v>
-      </c>
-      <c r="C26" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17507,7 +17537,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17524,7 +17554,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17541,7 +17571,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17558,7 +17588,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17566,7 +17596,7 @@
         <v>891</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>847</v>
@@ -17578,10 +17608,10 @@
         <v>1</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17589,7 +17619,7 @@
         <v>893</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>847</v>
@@ -17601,10 +17631,10 @@
         <v>1</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17612,7 +17642,7 @@
         <v>895</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>847</v>
@@ -17621,10 +17651,10 @@
         <v>1</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17632,7 +17662,7 @@
         <v>896</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>847</v>
@@ -17641,10 +17671,10 @@
         <v>1</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17661,7 +17691,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17678,7 +17708,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17698,7 +17728,7 @@
         <v>852</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17718,7 +17748,7 @@
         <v>852</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17735,7 +17765,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17752,7 +17782,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17760,7 +17790,7 @@
         <v>901</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>847</v>
@@ -17772,10 +17802,10 @@
         <v>1</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17783,7 +17813,7 @@
         <v>902</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>847</v>
@@ -17795,10 +17825,10 @@
         <v>1</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17815,7 +17845,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17832,7 +17862,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17849,7 +17879,7 @@
         <v>8</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17866,7 +17896,7 @@
         <v>5</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17883,7 +17913,7 @@
         <v>5</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17900,7 +17930,7 @@
         <v>8</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17920,7 +17950,7 @@
         <v>852</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17940,7 +17970,7 @@
         <v>852</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17960,7 +17990,7 @@
         <v>852</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17980,7 +18010,7 @@
         <v>913</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18000,7 +18030,7 @@
         <v>852</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18020,7 +18050,7 @@
         <v>852</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18037,7 +18067,7 @@
         <v>8</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18054,7 +18084,7 @@
         <v>8</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18071,7 +18101,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18088,7 +18118,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18105,7 +18135,7 @@
         <v>25</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18122,7 +18152,7 @@
         <v>25</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18139,7 +18169,7 @@
         <v>2</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18156,7 +18186,7 @@
         <v>2</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18176,7 +18206,7 @@
         <v>925</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18196,7 +18226,7 @@
         <v>925</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18213,7 +18243,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18230,7 +18260,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18238,7 +18268,7 @@
         <v>929</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>0</v>
@@ -18247,10 +18277,10 @@
         <v>4</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18258,7 +18288,7 @@
         <v>930</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>0</v>
@@ -18267,10 +18297,10 @@
         <v>4</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18278,7 +18308,7 @@
         <v>931</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>0</v>
@@ -18287,10 +18317,10 @@
         <v>15</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18298,7 +18328,7 @@
         <v>932</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>0</v>
@@ -18307,10 +18337,10 @@
         <v>15</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18333,7 +18363,7 @@
         <v>855</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18350,7 +18380,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18373,7 +18403,7 @@
         <v>855</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18381,7 +18411,7 @@
         <v>744</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>854</v>
@@ -18396,10 +18426,10 @@
         <v>855</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18422,7 +18452,7 @@
         <v>855</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18430,7 +18460,7 @@
         <v>745</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>854</v>
@@ -18445,10 +18475,10 @@
         <v>855</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18471,7 +18501,7 @@
         <v>855</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -33223,8 +33253,8 @@
   </sheetPr>
   <dimension ref="A1:G709"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A125" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D140" activeCellId="0" sqref="D140"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A328" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I335" activeCellId="0" sqref="I335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
+++ b/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="US+_GTY_tx_rx" sheetId="1" state="visible" r:id="rId2"/>
@@ -11618,7 +11618,7 @@
   </sheetPr>
   <dimension ref="A1:M292"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -33253,8 +33253,8 @@
   </sheetPr>
   <dimension ref="A1:G709"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A328" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I335" activeCellId="0" sqref="I335"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A519" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H546" activeCellId="0" sqref="H546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39460,7 +39460,7 @@
         <v>1209</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>968</v>
+        <v>1001</v>
       </c>
       <c r="C546" s="3" t="s">
         <v>942</v>

--- a/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
+++ b/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="US+_GTY_tx_rx" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="xcku15p-ffva1760_GTY_placement" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="US+_GTY_quad_connections" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="US+_GTY_mgt_config" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="refclk_buf" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7044" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7063" uniqueCount="1621">
   <si>
     <t xml:space="preserve">// path</t>
   </si>
@@ -4848,6 +4849,48 @@
   </si>
   <si>
     <t xml:space="preserve">name of QPLL power down port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refclk_buf_inst.sv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBUFDS_GTE4 #</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.REFCLK_EN_TX_PATH  (1'b0),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.REFCLK_HROW_CK_SEL (2'b00),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.REFCLK_ICNTL_RX    (2'b00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">refclk_buf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.I     (refclk_p [gi]),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.IB    (refclk_n [gi]),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.CEB   (1'b0),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.O     (refclk   [gi]),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.ODIV2 ()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">);</t>
   </si>
 </sst>
 </file>
@@ -4858,7 +4901,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4891,6 +4934,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -4936,7 +4985,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4981,6 +5030,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -5000,7 +5053,7 @@
   </sheetPr>
   <dimension ref="A1:F829"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -11618,7 +11671,7 @@
   </sheetPr>
   <dimension ref="A1:M292"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -17012,7 +17065,7 @@
   </sheetPr>
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -18522,7 +18575,7 @@
   </sheetPr>
   <dimension ref="A1:G901"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A262" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A262" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D278" activeCellId="0" sqref="D278"/>
     </sheetView>
   </sheetViews>
@@ -33253,7 +33306,7 @@
   </sheetPr>
   <dimension ref="A1:G709"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A519" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A519" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H546" activeCellId="0" sqref="H546"/>
     </sheetView>
   </sheetViews>
@@ -41333,7 +41386,7 @@
   </sheetPr>
   <dimension ref="A1:Q132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -44654,7 +44707,7 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -45013,8 +45066,8 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -45313,4 +45366,129 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="4.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="31.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="11" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="11" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="11" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="11" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="11" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="11" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="11" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="11" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="11" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="11" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="11" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="11" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="11" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="11" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
+++ b/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="US+_GTY_tx_rx" sheetId="1" state="visible" r:id="rId2"/>
@@ -5053,7 +5053,7 @@
   </sheetPr>
   <dimension ref="A1:F829"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -11671,7 +11671,7 @@
   </sheetPr>
   <dimension ref="A1:M292"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -17065,7 +17065,7 @@
   </sheetPr>
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -18575,7 +18575,7 @@
   </sheetPr>
   <dimension ref="A1:G901"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A262" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A262" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D278" activeCellId="0" sqref="D278"/>
     </sheetView>
   </sheetViews>
@@ -33306,7 +33306,7 @@
   </sheetPr>
   <dimension ref="A1:G709"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A519" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A519" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H546" activeCellId="0" sqref="H546"/>
     </sheetView>
   </sheetViews>
@@ -41386,13 +41386,18 @@
   </sheetPr>
   <dimension ref="A1:Q132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H121" activeCellId="0" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="5" style="0" width="8.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41516,12 +41521,12 @@
         <f aca="false">CONCATENATE($O5,"_0")</f>
         <v>120_0</v>
       </c>
+      <c r="H5" s="0" t="str">
+        <f aca="false">CONCATENATE($Q5,"_1")</f>
+        <v>121_1</v>
+      </c>
       <c r="O5" s="0" t="n">
         <v>120</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <f aca="false">O5-1</f>
-        <v>119</v>
       </c>
       <c r="Q5" s="0" t="n">
         <f aca="false">O5+1</f>
@@ -41545,14 +41550,14 @@
         <f aca="false">CONCATENATE($O6,"_0")</f>
         <v>120_0</v>
       </c>
+      <c r="H6" s="0" t="str">
+        <f aca="false">CONCATENATE($Q6,"_1")</f>
+        <v>121_1</v>
+      </c>
       <c r="O6" s="0" t="n">
         <f aca="false">O5</f>
         <v>120</v>
       </c>
-      <c r="P6" s="0" t="n">
-        <f aca="false">O6-1</f>
-        <v>119</v>
-      </c>
       <c r="Q6" s="0" t="n">
         <f aca="false">O6+1</f>
         <v>121</v>
@@ -41575,14 +41580,14 @@
         <f aca="false">CONCATENATE($O7,"_0")</f>
         <v>120_0</v>
       </c>
+      <c r="H7" s="0" t="str">
+        <f aca="false">CONCATENATE($Q7,"_1")</f>
+        <v>121_1</v>
+      </c>
       <c r="O7" s="0" t="n">
         <f aca="false">O6</f>
         <v>120</v>
       </c>
-      <c r="P7" s="0" t="n">
-        <f aca="false">O7-1</f>
-        <v>119</v>
-      </c>
       <c r="Q7" s="0" t="n">
         <f aca="false">O7+1</f>
         <v>121</v>
@@ -41605,14 +41610,14 @@
         <f aca="false">CONCATENATE($O8,"_0")</f>
         <v>120_0</v>
       </c>
+      <c r="H8" s="0" t="str">
+        <f aca="false">CONCATENATE($Q8,"_1")</f>
+        <v>121_1</v>
+      </c>
       <c r="O8" s="0" t="n">
         <f aca="false">O7</f>
         <v>120</v>
       </c>
-      <c r="P8" s="0" t="n">
-        <f aca="false">O8-1</f>
-        <v>119</v>
-      </c>
       <c r="Q8" s="0" t="n">
         <f aca="false">O8+1</f>
         <v>121</v>
@@ -41636,6 +41641,14 @@
         <f aca="false">CONCATENATE($O9,"_0")</f>
         <v>121_0</v>
       </c>
+      <c r="F9" s="0" t="str">
+        <f aca="false">CONCATENATE($O9,"_1")</f>
+        <v>121_1</v>
+      </c>
+      <c r="H9" s="0" t="str">
+        <f aca="false">CONCATENATE($Q9,"_1")</f>
+        <v>122_1</v>
+      </c>
       <c r="O9" s="0" t="n">
         <f aca="false">O5+1</f>
         <v>121</v>
@@ -41667,6 +41680,14 @@
         <f aca="false">CONCATENATE($O10,"_0")</f>
         <v>121_0</v>
       </c>
+      <c r="F10" s="0" t="str">
+        <f aca="false">CONCATENATE($O10,"_1")</f>
+        <v>121_1</v>
+      </c>
+      <c r="H10" s="0" t="str">
+        <f aca="false">CONCATENATE($Q10,"_1")</f>
+        <v>122_1</v>
+      </c>
       <c r="O10" s="0" t="n">
         <f aca="false">O6+1</f>
         <v>121</v>
@@ -41698,6 +41719,14 @@
         <f aca="false">CONCATENATE($O11,"_0")</f>
         <v>121_0</v>
       </c>
+      <c r="F11" s="0" t="str">
+        <f aca="false">CONCATENATE($O11,"_1")</f>
+        <v>121_1</v>
+      </c>
+      <c r="H11" s="0" t="str">
+        <f aca="false">CONCATENATE($Q11,"_1")</f>
+        <v>122_1</v>
+      </c>
       <c r="O11" s="0" t="n">
         <f aca="false">O7+1</f>
         <v>121</v>
@@ -41729,6 +41758,14 @@
         <f aca="false">CONCATENATE($O12,"_0")</f>
         <v>121_0</v>
       </c>
+      <c r="F12" s="0" t="str">
+        <f aca="false">CONCATENATE($O12,"_1")</f>
+        <v>121_1</v>
+      </c>
+      <c r="H12" s="0" t="str">
+        <f aca="false">CONCATENATE($Q12,"_1")</f>
+        <v>122_1</v>
+      </c>
       <c r="O12" s="0" t="n">
         <f aca="false">O8+1</f>
         <v>121</v>
@@ -41760,6 +41797,14 @@
         <f aca="false">CONCATENATE($O13,"_0")</f>
         <v>122_0</v>
       </c>
+      <c r="F13" s="0" t="str">
+        <f aca="false">CONCATENATE($O13,"_1")</f>
+        <v>122_1</v>
+      </c>
+      <c r="G13" s="0" t="str">
+        <f aca="false">CONCATENATE($P13,"_1")</f>
+        <v>121_1</v>
+      </c>
       <c r="O13" s="0" t="n">
         <f aca="false">O9+1</f>
         <v>122</v>
@@ -41791,6 +41836,14 @@
         <f aca="false">CONCATENATE($O14,"_0")</f>
         <v>122_0</v>
       </c>
+      <c r="F14" s="0" t="str">
+        <f aca="false">CONCATENATE($O14,"_1")</f>
+        <v>122_1</v>
+      </c>
+      <c r="G14" s="0" t="str">
+        <f aca="false">CONCATENATE($P14,"_1")</f>
+        <v>121_1</v>
+      </c>
       <c r="O14" s="0" t="n">
         <f aca="false">O10+1</f>
         <v>122</v>
@@ -41822,6 +41875,14 @@
         <f aca="false">CONCATENATE($O15,"_0")</f>
         <v>122_0</v>
       </c>
+      <c r="F15" s="0" t="str">
+        <f aca="false">CONCATENATE($O15,"_1")</f>
+        <v>122_1</v>
+      </c>
+      <c r="G15" s="0" t="str">
+        <f aca="false">CONCATENATE($P15,"_1")</f>
+        <v>121_1</v>
+      </c>
       <c r="O15" s="0" t="n">
         <f aca="false">O11+1</f>
         <v>122</v>
@@ -41853,6 +41914,14 @@
         <f aca="false">CONCATENATE($O16,"_0")</f>
         <v>122_0</v>
       </c>
+      <c r="F16" s="0" t="str">
+        <f aca="false">CONCATENATE($O16,"_1")</f>
+        <v>122_1</v>
+      </c>
+      <c r="G16" s="0" t="str">
+        <f aca="false">CONCATENATE($P16,"_1")</f>
+        <v>121_1</v>
+      </c>
       <c r="O16" s="0" t="n">
         <f aca="false">O12+1</f>
         <v>122</v>
@@ -41884,6 +41953,10 @@
         <f aca="false">CONCATENATE($O17,"_0")</f>
         <v>123_0</v>
       </c>
+      <c r="G17" s="0" t="str">
+        <f aca="false">CONCATENATE($P17,"_1")</f>
+        <v>122_1</v>
+      </c>
       <c r="O17" s="0" t="n">
         <f aca="false">O13+1</f>
         <v>123</v>
@@ -41915,6 +41988,10 @@
         <f aca="false">CONCATENATE($O18,"_0")</f>
         <v>123_0</v>
       </c>
+      <c r="G18" s="0" t="str">
+        <f aca="false">CONCATENATE($P18,"_1")</f>
+        <v>122_1</v>
+      </c>
       <c r="O18" s="0" t="n">
         <f aca="false">O14+1</f>
         <v>123</v>
@@ -41946,6 +42023,10 @@
         <f aca="false">CONCATENATE($O19,"_0")</f>
         <v>123_0</v>
       </c>
+      <c r="G19" s="0" t="str">
+        <f aca="false">CONCATENATE($P19,"_1")</f>
+        <v>122_1</v>
+      </c>
       <c r="O19" s="0" t="n">
         <f aca="false">O15+1</f>
         <v>123</v>
@@ -41977,6 +42058,10 @@
         <f aca="false">CONCATENATE($O20,"_0")</f>
         <v>123_0</v>
       </c>
+      <c r="G20" s="0" t="str">
+        <f aca="false">CONCATENATE($P20,"_1")</f>
+        <v>122_1</v>
+      </c>
       <c r="O20" s="0" t="n">
         <f aca="false">O16+1</f>
         <v>123</v>
@@ -42008,6 +42093,10 @@
         <f aca="false">CONCATENATE($O21,"_0")</f>
         <v>124_0</v>
       </c>
+      <c r="H21" s="0" t="str">
+        <f aca="false">CONCATENATE($Q21,"_1")</f>
+        <v>125_1</v>
+      </c>
       <c r="O21" s="0" t="n">
         <f aca="false">O17+1</f>
         <v>124</v>
@@ -42039,6 +42128,10 @@
         <f aca="false">CONCATENATE($O22,"_0")</f>
         <v>124_0</v>
       </c>
+      <c r="H22" s="0" t="str">
+        <f aca="false">CONCATENATE($Q22,"_1")</f>
+        <v>125_1</v>
+      </c>
       <c r="O22" s="0" t="n">
         <f aca="false">O18+1</f>
         <v>124</v>
@@ -42070,6 +42163,10 @@
         <f aca="false">CONCATENATE($O23,"_0")</f>
         <v>124_0</v>
       </c>
+      <c r="H23" s="0" t="str">
+        <f aca="false">CONCATENATE($Q23,"_1")</f>
+        <v>125_1</v>
+      </c>
       <c r="O23" s="0" t="n">
         <f aca="false">O19+1</f>
         <v>124</v>
@@ -42101,6 +42198,10 @@
         <f aca="false">CONCATENATE($O24,"_0")</f>
         <v>124_0</v>
       </c>
+      <c r="H24" s="0" t="str">
+        <f aca="false">CONCATENATE($Q24,"_1")</f>
+        <v>125_1</v>
+      </c>
       <c r="O24" s="0" t="n">
         <f aca="false">O20+1</f>
         <v>124</v>
@@ -42132,6 +42233,14 @@
         <f aca="false">CONCATENATE($O25,"_0")</f>
         <v>125_0</v>
       </c>
+      <c r="F25" s="0" t="str">
+        <f aca="false">CONCATENATE($O25,"_1")</f>
+        <v>125_1</v>
+      </c>
+      <c r="H25" s="0" t="str">
+        <f aca="false">CONCATENATE($Q25,"_1")</f>
+        <v>126_1</v>
+      </c>
       <c r="O25" s="0" t="n">
         <f aca="false">O21+1</f>
         <v>125</v>
@@ -42163,6 +42272,14 @@
         <f aca="false">CONCATENATE($O26,"_0")</f>
         <v>125_0</v>
       </c>
+      <c r="F26" s="0" t="str">
+        <f aca="false">CONCATENATE($O26,"_1")</f>
+        <v>125_1</v>
+      </c>
+      <c r="H26" s="0" t="str">
+        <f aca="false">CONCATENATE($Q26,"_1")</f>
+        <v>126_1</v>
+      </c>
       <c r="O26" s="0" t="n">
         <f aca="false">O22+1</f>
         <v>125</v>
@@ -42194,6 +42311,14 @@
         <f aca="false">CONCATENATE($O27,"_0")</f>
         <v>125_0</v>
       </c>
+      <c r="F27" s="0" t="str">
+        <f aca="false">CONCATENATE($O27,"_1")</f>
+        <v>125_1</v>
+      </c>
+      <c r="H27" s="0" t="str">
+        <f aca="false">CONCATENATE($Q27,"_1")</f>
+        <v>126_1</v>
+      </c>
       <c r="O27" s="0" t="n">
         <f aca="false">O23+1</f>
         <v>125</v>
@@ -42225,6 +42350,14 @@
         <f aca="false">CONCATENATE($O28,"_0")</f>
         <v>125_0</v>
       </c>
+      <c r="F28" s="0" t="str">
+        <f aca="false">CONCATENATE($O28,"_1")</f>
+        <v>125_1</v>
+      </c>
+      <c r="H28" s="0" t="str">
+        <f aca="false">CONCATENATE($Q28,"_1")</f>
+        <v>126_1</v>
+      </c>
       <c r="O28" s="0" t="n">
         <f aca="false">O24+1</f>
         <v>125</v>
@@ -42256,6 +42389,14 @@
         <f aca="false">CONCATENATE($O29,"_0")</f>
         <v>126_0</v>
       </c>
+      <c r="F29" s="0" t="str">
+        <f aca="false">CONCATENATE($O29,"_1")</f>
+        <v>126_1</v>
+      </c>
+      <c r="G29" s="0" t="str">
+        <f aca="false">CONCATENATE($P29,"_1")</f>
+        <v>125_1</v>
+      </c>
       <c r="O29" s="0" t="n">
         <f aca="false">O25+1</f>
         <v>126</v>
@@ -42287,6 +42428,14 @@
         <f aca="false">CONCATENATE($O30,"_0")</f>
         <v>126_0</v>
       </c>
+      <c r="F30" s="0" t="str">
+        <f aca="false">CONCATENATE($O30,"_1")</f>
+        <v>126_1</v>
+      </c>
+      <c r="G30" s="0" t="str">
+        <f aca="false">CONCATENATE($P30,"_1")</f>
+        <v>125_1</v>
+      </c>
       <c r="O30" s="0" t="n">
         <f aca="false">O26+1</f>
         <v>126</v>
@@ -42318,6 +42467,14 @@
         <f aca="false">CONCATENATE($O31,"_0")</f>
         <v>126_0</v>
       </c>
+      <c r="F31" s="0" t="str">
+        <f aca="false">CONCATENATE($O31,"_1")</f>
+        <v>126_1</v>
+      </c>
+      <c r="G31" s="0" t="str">
+        <f aca="false">CONCATENATE($P31,"_1")</f>
+        <v>125_1</v>
+      </c>
       <c r="O31" s="0" t="n">
         <f aca="false">O27+1</f>
         <v>126</v>
@@ -42349,6 +42506,14 @@
         <f aca="false">CONCATENATE($O32,"_0")</f>
         <v>126_0</v>
       </c>
+      <c r="F32" s="0" t="str">
+        <f aca="false">CONCATENATE($O32,"_1")</f>
+        <v>126_1</v>
+      </c>
+      <c r="G32" s="0" t="str">
+        <f aca="false">CONCATENATE($P32,"_1")</f>
+        <v>125_1</v>
+      </c>
       <c r="O32" s="0" t="n">
         <f aca="false">O28+1</f>
         <v>126</v>
@@ -42380,6 +42545,10 @@
         <f aca="false">CONCATENATE($O33,"_0")</f>
         <v>127_0</v>
       </c>
+      <c r="G33" s="0" t="str">
+        <f aca="false">CONCATENATE($P33,"_1")</f>
+        <v>126_1</v>
+      </c>
       <c r="O33" s="0" t="n">
         <f aca="false">O29+1</f>
         <v>127</v>
@@ -42388,10 +42557,6 @@
         <f aca="false">O33-1</f>
         <v>126</v>
       </c>
-      <c r="Q33" s="0" t="n">
-        <f aca="false">O33+1</f>
-        <v>128</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
@@ -42411,6 +42576,10 @@
         <f aca="false">CONCATENATE($O34,"_0")</f>
         <v>127_0</v>
       </c>
+      <c r="G34" s="0" t="str">
+        <f aca="false">CONCATENATE($P34,"_1")</f>
+        <v>126_1</v>
+      </c>
       <c r="O34" s="0" t="n">
         <f aca="false">O30+1</f>
         <v>127</v>
@@ -42419,10 +42588,6 @@
         <f aca="false">O34-1</f>
         <v>126</v>
       </c>
-      <c r="Q34" s="0" t="n">
-        <f aca="false">O34+1</f>
-        <v>128</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
@@ -42442,6 +42607,10 @@
         <f aca="false">CONCATENATE($O35,"_0")</f>
         <v>127_0</v>
       </c>
+      <c r="G35" s="0" t="str">
+        <f aca="false">CONCATENATE($P35,"_1")</f>
+        <v>126_1</v>
+      </c>
       <c r="O35" s="0" t="n">
         <f aca="false">O31+1</f>
         <v>127</v>
@@ -42450,10 +42619,6 @@
         <f aca="false">O35-1</f>
         <v>126</v>
       </c>
-      <c r="Q35" s="0" t="n">
-        <f aca="false">O35+1</f>
-        <v>128</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
@@ -42473,6 +42638,10 @@
         <f aca="false">CONCATENATE($O36,"_0")</f>
         <v>127_0</v>
       </c>
+      <c r="G36" s="0" t="str">
+        <f aca="false">CONCATENATE($P36,"_1")</f>
+        <v>126_1</v>
+      </c>
       <c r="O36" s="0" t="n">
         <f aca="false">O32+1</f>
         <v>127</v>
@@ -42481,10 +42650,6 @@
         <f aca="false">O36-1</f>
         <v>126</v>
       </c>
-      <c r="Q36" s="0" t="n">
-        <f aca="false">O36+1</f>
-        <v>128</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
@@ -42504,10 +42669,18 @@
         <f aca="false">CONCATENATE($O37,"_0")</f>
         <v>128_0</v>
       </c>
+      <c r="H37" s="0" t="str">
+        <f aca="false">CONCATENATE($Q37,"_1")</f>
+        <v>129_1</v>
+      </c>
       <c r="O37" s="0" t="n">
         <f aca="false">O33+1</f>
         <v>128</v>
       </c>
+      <c r="Q37" s="0" t="n">
+        <f aca="false">O37+1</f>
+        <v>129</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
@@ -42527,10 +42700,18 @@
         <f aca="false">CONCATENATE($O38,"_0")</f>
         <v>128_0</v>
       </c>
+      <c r="H38" s="0" t="str">
+        <f aca="false">CONCATENATE($Q38,"_1")</f>
+        <v>129_1</v>
+      </c>
       <c r="O38" s="0" t="n">
         <f aca="false">O34+1</f>
         <v>128</v>
       </c>
+      <c r="Q38" s="0" t="n">
+        <f aca="false">O38+1</f>
+        <v>129</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
@@ -42550,10 +42731,18 @@
         <f aca="false">CONCATENATE($O39,"_0")</f>
         <v>128_0</v>
       </c>
+      <c r="H39" s="0" t="str">
+        <f aca="false">CONCATENATE($Q39,"_1")</f>
+        <v>129_1</v>
+      </c>
       <c r="O39" s="0" t="n">
         <f aca="false">O35+1</f>
         <v>128</v>
       </c>
+      <c r="Q39" s="0" t="n">
+        <f aca="false">O39+1</f>
+        <v>129</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
@@ -42573,10 +42762,18 @@
         <f aca="false">CONCATENATE($O40,"_0")</f>
         <v>128_0</v>
       </c>
+      <c r="H40" s="0" t="str">
+        <f aca="false">CONCATENATE($Q40,"_1")</f>
+        <v>129_1</v>
+      </c>
       <c r="O40" s="0" t="n">
         <f aca="false">O36+1</f>
         <v>128</v>
       </c>
+      <c r="Q40" s="0" t="n">
+        <f aca="false">O40+1</f>
+        <v>129</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
@@ -42596,10 +42793,26 @@
         <f aca="false">CONCATENATE($O41,"_0")</f>
         <v>129_0</v>
       </c>
+      <c r="F41" s="0" t="str">
+        <f aca="false">CONCATENATE($O41,"_1")</f>
+        <v>129_1</v>
+      </c>
+      <c r="H41" s="0" t="str">
+        <f aca="false">CONCATENATE($Q41,"_1")</f>
+        <v>130_1</v>
+      </c>
       <c r="O41" s="0" t="n">
         <f aca="false">O37+1</f>
         <v>129</v>
       </c>
+      <c r="P41" s="0" t="n">
+        <f aca="false">O41-1</f>
+        <v>128</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <f aca="false">O41+1</f>
+        <v>130</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
@@ -42619,10 +42832,26 @@
         <f aca="false">CONCATENATE($O42,"_0")</f>
         <v>129_0</v>
       </c>
+      <c r="F42" s="0" t="str">
+        <f aca="false">CONCATENATE($O42,"_1")</f>
+        <v>129_1</v>
+      </c>
+      <c r="H42" s="0" t="str">
+        <f aca="false">CONCATENATE($Q42,"_1")</f>
+        <v>130_1</v>
+      </c>
       <c r="O42" s="0" t="n">
         <f aca="false">O38+1</f>
         <v>129</v>
       </c>
+      <c r="P42" s="0" t="n">
+        <f aca="false">O42-1</f>
+        <v>128</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <f aca="false">O42+1</f>
+        <v>130</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
@@ -42642,10 +42871,26 @@
         <f aca="false">CONCATENATE($O43,"_0")</f>
         <v>129_0</v>
       </c>
+      <c r="F43" s="0" t="str">
+        <f aca="false">CONCATENATE($O43,"_1")</f>
+        <v>129_1</v>
+      </c>
+      <c r="H43" s="0" t="str">
+        <f aca="false">CONCATENATE($Q43,"_1")</f>
+        <v>130_1</v>
+      </c>
       <c r="O43" s="0" t="n">
         <f aca="false">O39+1</f>
         <v>129</v>
       </c>
+      <c r="P43" s="0" t="n">
+        <f aca="false">O43-1</f>
+        <v>128</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <f aca="false">O43+1</f>
+        <v>130</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
@@ -42665,10 +42910,26 @@
         <f aca="false">CONCATENATE($O44,"_0")</f>
         <v>129_0</v>
       </c>
+      <c r="F44" s="0" t="str">
+        <f aca="false">CONCATENATE($O44,"_1")</f>
+        <v>129_1</v>
+      </c>
+      <c r="H44" s="0" t="str">
+        <f aca="false">CONCATENATE($Q44,"_1")</f>
+        <v>130_1</v>
+      </c>
       <c r="O44" s="0" t="n">
         <f aca="false">O40+1</f>
         <v>129</v>
       </c>
+      <c r="P44" s="0" t="n">
+        <f aca="false">O44-1</f>
+        <v>128</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <f aca="false">O44+1</f>
+        <v>130</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
@@ -42688,10 +42949,26 @@
         <f aca="false">CONCATENATE($O45,"_0")</f>
         <v>130_0</v>
       </c>
+      <c r="F45" s="0" t="str">
+        <f aca="false">CONCATENATE($O45,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="G45" s="0" t="str">
+        <f aca="false">CONCATENATE($P45,"_1")</f>
+        <v>129_1</v>
+      </c>
       <c r="O45" s="0" t="n">
         <f aca="false">O41+1</f>
         <v>130</v>
       </c>
+      <c r="P45" s="0" t="n">
+        <f aca="false">O45-1</f>
+        <v>129</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <f aca="false">O45+1</f>
+        <v>131</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="n">
@@ -42711,10 +42988,26 @@
         <f aca="false">CONCATENATE($O46,"_0")</f>
         <v>130_0</v>
       </c>
+      <c r="F46" s="0" t="str">
+        <f aca="false">CONCATENATE($O46,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="G46" s="0" t="str">
+        <f aca="false">CONCATENATE($P46,"_1")</f>
+        <v>129_1</v>
+      </c>
       <c r="O46" s="0" t="n">
         <f aca="false">O42+1</f>
         <v>130</v>
       </c>
+      <c r="P46" s="0" t="n">
+        <f aca="false">O46-1</f>
+        <v>129</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <f aca="false">O46+1</f>
+        <v>131</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
@@ -42734,10 +43027,26 @@
         <f aca="false">CONCATENATE($O47,"_0")</f>
         <v>130_0</v>
       </c>
+      <c r="F47" s="0" t="str">
+        <f aca="false">CONCATENATE($O47,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="G47" s="0" t="str">
+        <f aca="false">CONCATENATE($P47,"_1")</f>
+        <v>129_1</v>
+      </c>
       <c r="O47" s="0" t="n">
         <f aca="false">O43+1</f>
         <v>130</v>
       </c>
+      <c r="P47" s="0" t="n">
+        <f aca="false">O47-1</f>
+        <v>129</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <f aca="false">O47+1</f>
+        <v>131</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="n">
@@ -42757,10 +43066,26 @@
         <f aca="false">CONCATENATE($O48,"_0")</f>
         <v>130_0</v>
       </c>
+      <c r="F48" s="0" t="str">
+        <f aca="false">CONCATENATE($O48,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="G48" s="0" t="str">
+        <f aca="false">CONCATENATE($P48,"_1")</f>
+        <v>129_1</v>
+      </c>
       <c r="O48" s="0" t="n">
         <f aca="false">O44+1</f>
         <v>130</v>
       </c>
+      <c r="P48" s="0" t="n">
+        <f aca="false">O48-1</f>
+        <v>129</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <f aca="false">O48+1</f>
+        <v>131</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="n">
@@ -42780,10 +43105,26 @@
         <f aca="false">CONCATENATE($O49,"_0")</f>
         <v>131_0</v>
       </c>
+      <c r="G49" s="0" t="str">
+        <f aca="false">CONCATENATE($P49,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="H49" s="0" t="str">
+        <f aca="false">CONCATENATE($Q49,"_1")</f>
+        <v>132_1</v>
+      </c>
       <c r="O49" s="0" t="n">
         <f aca="false">O45+1</f>
         <v>131</v>
       </c>
+      <c r="P49" s="0" t="n">
+        <f aca="false">O49-1</f>
+        <v>130</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <f aca="false">O49+1</f>
+        <v>132</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="n">
@@ -42803,10 +43144,26 @@
         <f aca="false">CONCATENATE($O50,"_0")</f>
         <v>131_0</v>
       </c>
+      <c r="G50" s="0" t="str">
+        <f aca="false">CONCATENATE($P50,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="H50" s="0" t="str">
+        <f aca="false">CONCATENATE($Q50,"_1")</f>
+        <v>132_1</v>
+      </c>
       <c r="O50" s="0" t="n">
         <f aca="false">O46+1</f>
         <v>131</v>
       </c>
+      <c r="P50" s="0" t="n">
+        <f aca="false">O50-1</f>
+        <v>130</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <f aca="false">O50+1</f>
+        <v>132</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="n">
@@ -42826,10 +43183,26 @@
         <f aca="false">CONCATENATE($O51,"_0")</f>
         <v>131_0</v>
       </c>
+      <c r="G51" s="0" t="str">
+        <f aca="false">CONCATENATE($P51,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="H51" s="0" t="str">
+        <f aca="false">CONCATENATE($Q51,"_1")</f>
+        <v>132_1</v>
+      </c>
       <c r="O51" s="0" t="n">
         <f aca="false">O47+1</f>
         <v>131</v>
       </c>
+      <c r="P51" s="0" t="n">
+        <f aca="false">O51-1</f>
+        <v>130</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <f aca="false">O51+1</f>
+        <v>132</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="n">
@@ -42849,10 +43222,26 @@
         <f aca="false">CONCATENATE($O52,"_0")</f>
         <v>131_0</v>
       </c>
+      <c r="G52" s="0" t="str">
+        <f aca="false">CONCATENATE($P52,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="H52" s="0" t="str">
+        <f aca="false">CONCATENATE($Q52,"_1")</f>
+        <v>132_1</v>
+      </c>
       <c r="O52" s="0" t="n">
         <f aca="false">O48+1</f>
         <v>131</v>
       </c>
+      <c r="P52" s="0" t="n">
+        <f aca="false">O52-1</f>
+        <v>130</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <f aca="false">O52+1</f>
+        <v>132</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="n">
@@ -42872,10 +43261,26 @@
         <f aca="false">CONCATENATE($O53,"_0")</f>
         <v>132_0</v>
       </c>
+      <c r="F53" s="0" t="str">
+        <f aca="false">CONCATENATE($O53,"_1")</f>
+        <v>132_1</v>
+      </c>
+      <c r="H53" s="0" t="str">
+        <f aca="false">CONCATENATE($Q53,"_1")</f>
+        <v>133_1</v>
+      </c>
       <c r="O53" s="0" t="n">
         <f aca="false">O49+1</f>
         <v>132</v>
       </c>
+      <c r="P53" s="0" t="n">
+        <f aca="false">O53-1</f>
+        <v>131</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <f aca="false">O53+1</f>
+        <v>133</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="n">
@@ -42895,10 +43300,26 @@
         <f aca="false">CONCATENATE($O54,"_0")</f>
         <v>132_0</v>
       </c>
+      <c r="F54" s="0" t="str">
+        <f aca="false">CONCATENATE($O54,"_1")</f>
+        <v>132_1</v>
+      </c>
+      <c r="H54" s="0" t="str">
+        <f aca="false">CONCATENATE($Q54,"_1")</f>
+        <v>133_1</v>
+      </c>
       <c r="O54" s="0" t="n">
         <f aca="false">O50+1</f>
         <v>132</v>
       </c>
+      <c r="P54" s="0" t="n">
+        <f aca="false">O54-1</f>
+        <v>131</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <f aca="false">O54+1</f>
+        <v>133</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="n">
@@ -42918,10 +43339,26 @@
         <f aca="false">CONCATENATE($O55,"_0")</f>
         <v>132_0</v>
       </c>
+      <c r="F55" s="0" t="str">
+        <f aca="false">CONCATENATE($O55,"_1")</f>
+        <v>132_1</v>
+      </c>
+      <c r="H55" s="0" t="str">
+        <f aca="false">CONCATENATE($Q55,"_1")</f>
+        <v>133_1</v>
+      </c>
       <c r="O55" s="0" t="n">
         <f aca="false">O51+1</f>
         <v>132</v>
       </c>
+      <c r="P55" s="0" t="n">
+        <f aca="false">O55-1</f>
+        <v>131</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <f aca="false">O55+1</f>
+        <v>133</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="n">
@@ -42941,10 +43378,26 @@
         <f aca="false">CONCATENATE($O56,"_0")</f>
         <v>132_0</v>
       </c>
+      <c r="F56" s="0" t="str">
+        <f aca="false">CONCATENATE($O56,"_1")</f>
+        <v>132_1</v>
+      </c>
+      <c r="H56" s="0" t="str">
+        <f aca="false">CONCATENATE($Q56,"_1")</f>
+        <v>133_1</v>
+      </c>
       <c r="O56" s="0" t="n">
         <f aca="false">O52+1</f>
         <v>132</v>
       </c>
+      <c r="P56" s="0" t="n">
+        <f aca="false">O56-1</f>
+        <v>131</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <f aca="false">O56+1</f>
+        <v>133</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="n">
@@ -42964,10 +43417,26 @@
         <f aca="false">CONCATENATE($O57,"_0")</f>
         <v>133_0</v>
       </c>
+      <c r="F57" s="0" t="str">
+        <f aca="false">CONCATENATE($O57,"_1")</f>
+        <v>133_1</v>
+      </c>
+      <c r="G57" s="0" t="str">
+        <f aca="false">CONCATENATE($P57,"_1")</f>
+        <v>132_1</v>
+      </c>
       <c r="O57" s="0" t="n">
         <f aca="false">O53+1</f>
         <v>133</v>
       </c>
+      <c r="P57" s="0" t="n">
+        <f aca="false">O57-1</f>
+        <v>132</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <f aca="false">O57+1</f>
+        <v>134</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="n">
@@ -42987,10 +43456,26 @@
         <f aca="false">CONCATENATE($O58,"_0")</f>
         <v>133_0</v>
       </c>
+      <c r="F58" s="0" t="str">
+        <f aca="false">CONCATENATE($O58,"_1")</f>
+        <v>133_1</v>
+      </c>
+      <c r="G58" s="0" t="str">
+        <f aca="false">CONCATENATE($P58,"_1")</f>
+        <v>132_1</v>
+      </c>
       <c r="O58" s="0" t="n">
         <f aca="false">O54+1</f>
         <v>133</v>
       </c>
+      <c r="P58" s="0" t="n">
+        <f aca="false">O58-1</f>
+        <v>132</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <f aca="false">O58+1</f>
+        <v>134</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="n">
@@ -43010,10 +43495,26 @@
         <f aca="false">CONCATENATE($O59,"_0")</f>
         <v>133_0</v>
       </c>
+      <c r="F59" s="0" t="str">
+        <f aca="false">CONCATENATE($O59,"_1")</f>
+        <v>133_1</v>
+      </c>
+      <c r="G59" s="0" t="str">
+        <f aca="false">CONCATENATE($P59,"_1")</f>
+        <v>132_1</v>
+      </c>
       <c r="O59" s="0" t="n">
         <f aca="false">O55+1</f>
         <v>133</v>
       </c>
+      <c r="P59" s="0" t="n">
+        <f aca="false">O59-1</f>
+        <v>132</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <f aca="false">O59+1</f>
+        <v>134</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="n">
@@ -43033,10 +43534,26 @@
         <f aca="false">CONCATENATE($O60,"_0")</f>
         <v>133_0</v>
       </c>
+      <c r="F60" s="0" t="str">
+        <f aca="false">CONCATENATE($O60,"_1")</f>
+        <v>133_1</v>
+      </c>
+      <c r="G60" s="0" t="str">
+        <f aca="false">CONCATENATE($P60,"_1")</f>
+        <v>132_1</v>
+      </c>
       <c r="O60" s="0" t="n">
         <f aca="false">O56+1</f>
         <v>133</v>
       </c>
+      <c r="P60" s="0" t="n">
+        <f aca="false">O60-1</f>
+        <v>132</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <f aca="false">O60+1</f>
+        <v>134</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="n">
@@ -43056,10 +43573,22 @@
         <f aca="false">CONCATENATE($O61,"_0")</f>
         <v>134_0</v>
       </c>
+      <c r="G61" s="0" t="str">
+        <f aca="false">CONCATENATE($P61,"_1")</f>
+        <v>133_1</v>
+      </c>
       <c r="O61" s="0" t="n">
         <f aca="false">O57+1</f>
         <v>134</v>
       </c>
+      <c r="P61" s="0" t="n">
+        <f aca="false">O61-1</f>
+        <v>133</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <f aca="false">O61+1</f>
+        <v>135</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="n">
@@ -43079,10 +43608,22 @@
         <f aca="false">CONCATENATE($O62,"_0")</f>
         <v>134_0</v>
       </c>
+      <c r="G62" s="0" t="str">
+        <f aca="false">CONCATENATE($P62,"_1")</f>
+        <v>133_1</v>
+      </c>
       <c r="O62" s="0" t="n">
         <f aca="false">O58+1</f>
         <v>134</v>
       </c>
+      <c r="P62" s="0" t="n">
+        <f aca="false">O62-1</f>
+        <v>133</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <f aca="false">O62+1</f>
+        <v>135</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="n">
@@ -43102,10 +43643,22 @@
         <f aca="false">CONCATENATE($O63,"_0")</f>
         <v>134_0</v>
       </c>
+      <c r="G63" s="0" t="str">
+        <f aca="false">CONCATENATE($P63,"_1")</f>
+        <v>133_1</v>
+      </c>
       <c r="O63" s="0" t="n">
         <f aca="false">O59+1</f>
         <v>134</v>
       </c>
+      <c r="P63" s="0" t="n">
+        <f aca="false">O63-1</f>
+        <v>133</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <f aca="false">O63+1</f>
+        <v>135</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="n">
@@ -43125,10 +43678,22 @@
         <f aca="false">CONCATENATE($O64,"_0")</f>
         <v>134_0</v>
       </c>
+      <c r="G64" s="0" t="str">
+        <f aca="false">CONCATENATE($P64,"_1")</f>
+        <v>133_1</v>
+      </c>
       <c r="O64" s="0" t="n">
         <f aca="false">O60+1</f>
         <v>134</v>
       </c>
+      <c r="P64" s="0" t="n">
+        <f aca="false">O64-1</f>
+        <v>133</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <f aca="false">O64+1</f>
+        <v>135</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="n">
@@ -43152,6 +43717,10 @@
         <f aca="false">O61+1</f>
         <v>135</v>
       </c>
+      <c r="P65" s="0" t="n">
+        <f aca="false">O65-1</f>
+        <v>134</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="n">
@@ -43175,6 +43744,10 @@
         <f aca="false">O62+1</f>
         <v>135</v>
       </c>
+      <c r="P66" s="0" t="n">
+        <f aca="false">O66-1</f>
+        <v>134</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="n">
@@ -43198,6 +43771,10 @@
         <f aca="false">O63+1</f>
         <v>135</v>
       </c>
+      <c r="P67" s="0" t="n">
+        <f aca="false">O67-1</f>
+        <v>134</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
@@ -43221,6 +43798,10 @@
         <f aca="false">O64+1</f>
         <v>135</v>
       </c>
+      <c r="P68" s="0" t="n">
+        <f aca="false">O68-1</f>
+        <v>134</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="n">
@@ -43239,8 +43820,16 @@
         <f aca="false">CONCATENATE($O69,"_0")</f>
         <v>220_0</v>
       </c>
+      <c r="H69" s="0" t="str">
+        <f aca="false">CONCATENATE($Q69,"_1")</f>
+        <v>221_1</v>
+      </c>
       <c r="O69" s="0" t="n">
         <v>220</v>
+      </c>
+      <c r="Q69" s="0" t="n">
+        <f aca="false">O69+1</f>
+        <v>221</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43260,10 +43849,18 @@
         <f aca="false">CONCATENATE($O70,"_0")</f>
         <v>220_0</v>
       </c>
+      <c r="H70" s="0" t="str">
+        <f aca="false">CONCATENATE($Q70,"_1")</f>
+        <v>221_1</v>
+      </c>
       <c r="O70" s="0" t="n">
         <f aca="false">O69</f>
         <v>220</v>
       </c>
+      <c r="Q70" s="0" t="n">
+        <f aca="false">O70+1</f>
+        <v>221</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="n">
@@ -43282,10 +43879,18 @@
         <f aca="false">CONCATENATE($O71,"_0")</f>
         <v>220_0</v>
       </c>
+      <c r="H71" s="0" t="str">
+        <f aca="false">CONCATENATE($Q71,"_1")</f>
+        <v>221_1</v>
+      </c>
       <c r="O71" s="0" t="n">
         <f aca="false">O70</f>
         <v>220</v>
       </c>
+      <c r="Q71" s="0" t="n">
+        <f aca="false">O71+1</f>
+        <v>221</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
@@ -43304,10 +43909,18 @@
         <f aca="false">CONCATENATE($O72,"_0")</f>
         <v>220_0</v>
       </c>
+      <c r="H72" s="0" t="str">
+        <f aca="false">CONCATENATE($Q72,"_1")</f>
+        <v>221_1</v>
+      </c>
       <c r="O72" s="0" t="n">
         <f aca="false">O71</f>
         <v>220</v>
       </c>
+      <c r="Q72" s="0" t="n">
+        <f aca="false">O72+1</f>
+        <v>221</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="n">
@@ -43327,10 +43940,26 @@
         <f aca="false">CONCATENATE($O73,"_0")</f>
         <v>221_0</v>
       </c>
+      <c r="F73" s="0" t="str">
+        <f aca="false">CONCATENATE($O73,"_1")</f>
+        <v>221_1</v>
+      </c>
+      <c r="H73" s="0" t="str">
+        <f aca="false">CONCATENATE($Q73,"_1")</f>
+        <v>222_1</v>
+      </c>
       <c r="O73" s="0" t="n">
         <f aca="false">O69+1</f>
         <v>221</v>
       </c>
+      <c r="P73" s="0" t="n">
+        <f aca="false">O73-1</f>
+        <v>220</v>
+      </c>
+      <c r="Q73" s="0" t="n">
+        <f aca="false">O73+1</f>
+        <v>222</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
@@ -43350,10 +43979,26 @@
         <f aca="false">CONCATENATE($O74,"_0")</f>
         <v>221_0</v>
       </c>
+      <c r="F74" s="0" t="str">
+        <f aca="false">CONCATENATE($O74,"_1")</f>
+        <v>221_1</v>
+      </c>
+      <c r="H74" s="0" t="str">
+        <f aca="false">CONCATENATE($Q74,"_1")</f>
+        <v>222_1</v>
+      </c>
       <c r="O74" s="0" t="n">
         <f aca="false">O70+1</f>
         <v>221</v>
       </c>
+      <c r="P74" s="0" t="n">
+        <f aca="false">O74-1</f>
+        <v>220</v>
+      </c>
+      <c r="Q74" s="0" t="n">
+        <f aca="false">O74+1</f>
+        <v>222</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="n">
@@ -43373,10 +44018,26 @@
         <f aca="false">CONCATENATE($O75,"_0")</f>
         <v>221_0</v>
       </c>
+      <c r="F75" s="0" t="str">
+        <f aca="false">CONCATENATE($O75,"_1")</f>
+        <v>221_1</v>
+      </c>
+      <c r="H75" s="0" t="str">
+        <f aca="false">CONCATENATE($Q75,"_1")</f>
+        <v>222_1</v>
+      </c>
       <c r="O75" s="0" t="n">
         <f aca="false">O71+1</f>
         <v>221</v>
       </c>
+      <c r="P75" s="0" t="n">
+        <f aca="false">O75-1</f>
+        <v>220</v>
+      </c>
+      <c r="Q75" s="0" t="n">
+        <f aca="false">O75+1</f>
+        <v>222</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="n">
@@ -43396,10 +44057,26 @@
         <f aca="false">CONCATENATE($O76,"_0")</f>
         <v>221_0</v>
       </c>
+      <c r="F76" s="0" t="str">
+        <f aca="false">CONCATENATE($O76,"_1")</f>
+        <v>221_1</v>
+      </c>
+      <c r="H76" s="0" t="str">
+        <f aca="false">CONCATENATE($Q76,"_1")</f>
+        <v>222_1</v>
+      </c>
       <c r="O76" s="0" t="n">
         <f aca="false">O72+1</f>
         <v>221</v>
       </c>
+      <c r="P76" s="0" t="n">
+        <f aca="false">O76-1</f>
+        <v>220</v>
+      </c>
+      <c r="Q76" s="0" t="n">
+        <f aca="false">O76+1</f>
+        <v>222</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
@@ -43419,10 +44096,26 @@
         <f aca="false">CONCATENATE($O77,"_0")</f>
         <v>222_0</v>
       </c>
+      <c r="F77" s="0" t="str">
+        <f aca="false">CONCATENATE($O77,"_1")</f>
+        <v>222_1</v>
+      </c>
+      <c r="G77" s="0" t="str">
+        <f aca="false">CONCATENATE($P77,"_1")</f>
+        <v>221_1</v>
+      </c>
       <c r="O77" s="0" t="n">
         <f aca="false">O73+1</f>
         <v>222</v>
       </c>
+      <c r="P77" s="0" t="n">
+        <f aca="false">O77-1</f>
+        <v>221</v>
+      </c>
+      <c r="Q77" s="0" t="n">
+        <f aca="false">O77+1</f>
+        <v>223</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="n">
@@ -43442,10 +44135,26 @@
         <f aca="false">CONCATENATE($O78,"_0")</f>
         <v>222_0</v>
       </c>
+      <c r="F78" s="0" t="str">
+        <f aca="false">CONCATENATE($O78,"_1")</f>
+        <v>222_1</v>
+      </c>
+      <c r="G78" s="0" t="str">
+        <f aca="false">CONCATENATE($P78,"_1")</f>
+        <v>221_1</v>
+      </c>
       <c r="O78" s="0" t="n">
         <f aca="false">O74+1</f>
         <v>222</v>
       </c>
+      <c r="P78" s="0" t="n">
+        <f aca="false">O78-1</f>
+        <v>221</v>
+      </c>
+      <c r="Q78" s="0" t="n">
+        <f aca="false">O78+1</f>
+        <v>223</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="n">
@@ -43465,10 +44174,26 @@
         <f aca="false">CONCATENATE($O79,"_0")</f>
         <v>222_0</v>
       </c>
+      <c r="F79" s="0" t="str">
+        <f aca="false">CONCATENATE($O79,"_1")</f>
+        <v>222_1</v>
+      </c>
+      <c r="G79" s="0" t="str">
+        <f aca="false">CONCATENATE($P79,"_1")</f>
+        <v>221_1</v>
+      </c>
       <c r="O79" s="0" t="n">
         <f aca="false">O75+1</f>
         <v>222</v>
       </c>
+      <c r="P79" s="0" t="n">
+        <f aca="false">O79-1</f>
+        <v>221</v>
+      </c>
+      <c r="Q79" s="0" t="n">
+        <f aca="false">O79+1</f>
+        <v>223</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
@@ -43488,10 +44213,26 @@
         <f aca="false">CONCATENATE($O80,"_0")</f>
         <v>222_0</v>
       </c>
+      <c r="F80" s="0" t="str">
+        <f aca="false">CONCATENATE($O80,"_1")</f>
+        <v>222_1</v>
+      </c>
+      <c r="G80" s="0" t="str">
+        <f aca="false">CONCATENATE($P80,"_1")</f>
+        <v>221_1</v>
+      </c>
       <c r="O80" s="0" t="n">
         <f aca="false">O76+1</f>
         <v>222</v>
       </c>
+      <c r="P80" s="0" t="n">
+        <f aca="false">O80-1</f>
+        <v>221</v>
+      </c>
+      <c r="Q80" s="0" t="n">
+        <f aca="false">O80+1</f>
+        <v>223</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="n">
@@ -43511,10 +44252,22 @@
         <f aca="false">CONCATENATE($O81,"_0")</f>
         <v>223_0</v>
       </c>
+      <c r="G81" s="0" t="str">
+        <f aca="false">CONCATENATE($P81,"_1")</f>
+        <v>222_1</v>
+      </c>
       <c r="O81" s="0" t="n">
         <f aca="false">O77+1</f>
         <v>223</v>
       </c>
+      <c r="P81" s="0" t="n">
+        <f aca="false">O81-1</f>
+        <v>222</v>
+      </c>
+      <c r="Q81" s="0" t="n">
+        <f aca="false">O81+1</f>
+        <v>224</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="n">
@@ -43534,10 +44287,22 @@
         <f aca="false">CONCATENATE($O82,"_0")</f>
         <v>223_0</v>
       </c>
+      <c r="G82" s="0" t="str">
+        <f aca="false">CONCATENATE($P82,"_1")</f>
+        <v>222_1</v>
+      </c>
       <c r="O82" s="0" t="n">
         <f aca="false">O78+1</f>
         <v>223</v>
       </c>
+      <c r="P82" s="0" t="n">
+        <f aca="false">O82-1</f>
+        <v>222</v>
+      </c>
+      <c r="Q82" s="0" t="n">
+        <f aca="false">O82+1</f>
+        <v>224</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="n">
@@ -43557,10 +44322,22 @@
         <f aca="false">CONCATENATE($O83,"_0")</f>
         <v>223_0</v>
       </c>
+      <c r="G83" s="0" t="str">
+        <f aca="false">CONCATENATE($P83,"_1")</f>
+        <v>222_1</v>
+      </c>
       <c r="O83" s="0" t="n">
         <f aca="false">O79+1</f>
         <v>223</v>
       </c>
+      <c r="P83" s="0" t="n">
+        <f aca="false">O83-1</f>
+        <v>222</v>
+      </c>
+      <c r="Q83" s="0" t="n">
+        <f aca="false">O83+1</f>
+        <v>224</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="n">
@@ -43580,10 +44357,22 @@
         <f aca="false">CONCATENATE($O84,"_0")</f>
         <v>223_0</v>
       </c>
+      <c r="G84" s="0" t="str">
+        <f aca="false">CONCATENATE($P84,"_1")</f>
+        <v>222_1</v>
+      </c>
       <c r="O84" s="0" t="n">
         <f aca="false">O80+1</f>
         <v>223</v>
       </c>
+      <c r="P84" s="0" t="n">
+        <f aca="false">O84-1</f>
+        <v>222</v>
+      </c>
+      <c r="Q84" s="0" t="n">
+        <f aca="false">O84+1</f>
+        <v>224</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
@@ -43603,10 +44392,22 @@
         <f aca="false">CONCATENATE($O85,"_0")</f>
         <v>224_0</v>
       </c>
+      <c r="H85" s="0" t="str">
+        <f aca="false">CONCATENATE($Q85,"_1")</f>
+        <v>225_1</v>
+      </c>
       <c r="O85" s="0" t="n">
         <f aca="false">O81+1</f>
         <v>224</v>
       </c>
+      <c r="P85" s="0" t="n">
+        <f aca="false">O85-1</f>
+        <v>223</v>
+      </c>
+      <c r="Q85" s="0" t="n">
+        <f aca="false">O85+1</f>
+        <v>225</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
@@ -43626,10 +44427,22 @@
         <f aca="false">CONCATENATE($O86,"_0")</f>
         <v>224_0</v>
       </c>
+      <c r="H86" s="0" t="str">
+        <f aca="false">CONCATENATE($Q86,"_1")</f>
+        <v>225_1</v>
+      </c>
       <c r="O86" s="0" t="n">
         <f aca="false">O82+1</f>
         <v>224</v>
       </c>
+      <c r="P86" s="0" t="n">
+        <f aca="false">O86-1</f>
+        <v>223</v>
+      </c>
+      <c r="Q86" s="0" t="n">
+        <f aca="false">O86+1</f>
+        <v>225</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
@@ -43649,10 +44462,22 @@
         <f aca="false">CONCATENATE($O87,"_0")</f>
         <v>224_0</v>
       </c>
+      <c r="H87" s="0" t="str">
+        <f aca="false">CONCATENATE($Q87,"_1")</f>
+        <v>225_1</v>
+      </c>
       <c r="O87" s="0" t="n">
         <f aca="false">O83+1</f>
         <v>224</v>
       </c>
+      <c r="P87" s="0" t="n">
+        <f aca="false">O87-1</f>
+        <v>223</v>
+      </c>
+      <c r="Q87" s="0" t="n">
+        <f aca="false">O87+1</f>
+        <v>225</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
@@ -43672,10 +44497,22 @@
         <f aca="false">CONCATENATE($O88,"_0")</f>
         <v>224_0</v>
       </c>
+      <c r="H88" s="0" t="str">
+        <f aca="false">CONCATENATE($Q88,"_1")</f>
+        <v>225_1</v>
+      </c>
       <c r="O88" s="0" t="n">
         <f aca="false">O84+1</f>
         <v>224</v>
       </c>
+      <c r="P88" s="0" t="n">
+        <f aca="false">O88-1</f>
+        <v>223</v>
+      </c>
+      <c r="Q88" s="0" t="n">
+        <f aca="false">O88+1</f>
+        <v>225</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="n">
@@ -43695,10 +44532,26 @@
         <f aca="false">CONCATENATE($O89,"_0")</f>
         <v>225_0</v>
       </c>
+      <c r="F89" s="0" t="str">
+        <f aca="false">CONCATENATE($O89,"_1")</f>
+        <v>225_1</v>
+      </c>
+      <c r="H89" s="0" t="str">
+        <f aca="false">CONCATENATE($Q89,"_1")</f>
+        <v>226_1</v>
+      </c>
       <c r="O89" s="0" t="n">
         <f aca="false">O85+1</f>
         <v>225</v>
       </c>
+      <c r="P89" s="0" t="n">
+        <f aca="false">O89-1</f>
+        <v>224</v>
+      </c>
+      <c r="Q89" s="0" t="n">
+        <f aca="false">O89+1</f>
+        <v>226</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
@@ -43718,10 +44571,26 @@
         <f aca="false">CONCATENATE($O90,"_0")</f>
         <v>225_0</v>
       </c>
+      <c r="F90" s="0" t="str">
+        <f aca="false">CONCATENATE($O90,"_1")</f>
+        <v>225_1</v>
+      </c>
+      <c r="H90" s="0" t="str">
+        <f aca="false">CONCATENATE($Q90,"_1")</f>
+        <v>226_1</v>
+      </c>
       <c r="O90" s="0" t="n">
         <f aca="false">O86+1</f>
         <v>225</v>
       </c>
+      <c r="P90" s="0" t="n">
+        <f aca="false">O90-1</f>
+        <v>224</v>
+      </c>
+      <c r="Q90" s="0" t="n">
+        <f aca="false">O90+1</f>
+        <v>226</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
@@ -43741,10 +44610,26 @@
         <f aca="false">CONCATENATE($O91,"_0")</f>
         <v>225_0</v>
       </c>
+      <c r="F91" s="0" t="str">
+        <f aca="false">CONCATENATE($O91,"_1")</f>
+        <v>225_1</v>
+      </c>
+      <c r="H91" s="0" t="str">
+        <f aca="false">CONCATENATE($Q91,"_1")</f>
+        <v>226_1</v>
+      </c>
       <c r="O91" s="0" t="n">
         <f aca="false">O87+1</f>
         <v>225</v>
       </c>
+      <c r="P91" s="0" t="n">
+        <f aca="false">O91-1</f>
+        <v>224</v>
+      </c>
+      <c r="Q91" s="0" t="n">
+        <f aca="false">O91+1</f>
+        <v>226</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="n">
@@ -43764,10 +44649,26 @@
         <f aca="false">CONCATENATE($O92,"_0")</f>
         <v>225_0</v>
       </c>
+      <c r="F92" s="0" t="str">
+        <f aca="false">CONCATENATE($O92,"_1")</f>
+        <v>225_1</v>
+      </c>
+      <c r="H92" s="0" t="str">
+        <f aca="false">CONCATENATE($Q92,"_1")</f>
+        <v>226_1</v>
+      </c>
       <c r="O92" s="0" t="n">
         <f aca="false">O88+1</f>
         <v>225</v>
       </c>
+      <c r="P92" s="0" t="n">
+        <f aca="false">O92-1</f>
+        <v>224</v>
+      </c>
+      <c r="Q92" s="0" t="n">
+        <f aca="false">O92+1</f>
+        <v>226</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="n">
@@ -43787,10 +44688,26 @@
         <f aca="false">CONCATENATE($O93,"_0")</f>
         <v>226_0</v>
       </c>
+      <c r="F93" s="0" t="str">
+        <f aca="false">CONCATENATE($O93,"_1")</f>
+        <v>226_1</v>
+      </c>
+      <c r="G93" s="0" t="str">
+        <f aca="false">CONCATENATE($P93,"_1")</f>
+        <v>225_1</v>
+      </c>
       <c r="O93" s="0" t="n">
         <f aca="false">O89+1</f>
         <v>226</v>
       </c>
+      <c r="P93" s="0" t="n">
+        <f aca="false">O93-1</f>
+        <v>225</v>
+      </c>
+      <c r="Q93" s="0" t="n">
+        <f aca="false">O93+1</f>
+        <v>227</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="n">
@@ -43810,10 +44727,26 @@
         <f aca="false">CONCATENATE($O94,"_0")</f>
         <v>226_0</v>
       </c>
+      <c r="F94" s="0" t="str">
+        <f aca="false">CONCATENATE($O94,"_1")</f>
+        <v>226_1</v>
+      </c>
+      <c r="G94" s="0" t="str">
+        <f aca="false">CONCATENATE($P94,"_1")</f>
+        <v>225_1</v>
+      </c>
       <c r="O94" s="0" t="n">
         <f aca="false">O90+1</f>
         <v>226</v>
       </c>
+      <c r="P94" s="0" t="n">
+        <f aca="false">O94-1</f>
+        <v>225</v>
+      </c>
+      <c r="Q94" s="0" t="n">
+        <f aca="false">O94+1</f>
+        <v>227</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="n">
@@ -43833,10 +44766,26 @@
         <f aca="false">CONCATENATE($O95,"_0")</f>
         <v>226_0</v>
       </c>
+      <c r="F95" s="0" t="str">
+        <f aca="false">CONCATENATE($O95,"_1")</f>
+        <v>226_1</v>
+      </c>
+      <c r="G95" s="0" t="str">
+        <f aca="false">CONCATENATE($P95,"_1")</f>
+        <v>225_1</v>
+      </c>
       <c r="O95" s="0" t="n">
         <f aca="false">O91+1</f>
         <v>226</v>
       </c>
+      <c r="P95" s="0" t="n">
+        <f aca="false">O95-1</f>
+        <v>225</v>
+      </c>
+      <c r="Q95" s="0" t="n">
+        <f aca="false">O95+1</f>
+        <v>227</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="n">
@@ -43856,10 +44805,26 @@
         <f aca="false">CONCATENATE($O96,"_0")</f>
         <v>226_0</v>
       </c>
+      <c r="F96" s="0" t="str">
+        <f aca="false">CONCATENATE($O96,"_1")</f>
+        <v>226_1</v>
+      </c>
+      <c r="G96" s="0" t="str">
+        <f aca="false">CONCATENATE($P96,"_1")</f>
+        <v>225_1</v>
+      </c>
       <c r="O96" s="0" t="n">
         <f aca="false">O92+1</f>
         <v>226</v>
       </c>
+      <c r="P96" s="0" t="n">
+        <f aca="false">O96-1</f>
+        <v>225</v>
+      </c>
+      <c r="Q96" s="0" t="n">
+        <f aca="false">O96+1</f>
+        <v>227</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="n">
@@ -43879,10 +44844,18 @@
         <f aca="false">CONCATENATE($O97,"_0")</f>
         <v>227_0</v>
       </c>
+      <c r="G97" s="0" t="str">
+        <f aca="false">CONCATENATE($P97,"_1")</f>
+        <v>226_1</v>
+      </c>
       <c r="O97" s="0" t="n">
         <f aca="false">O93+1</f>
         <v>227</v>
       </c>
+      <c r="P97" s="0" t="n">
+        <f aca="false">O97-1</f>
+        <v>226</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="n">
@@ -43902,10 +44875,18 @@
         <f aca="false">CONCATENATE($O98,"_0")</f>
         <v>227_0</v>
       </c>
+      <c r="G98" s="0" t="str">
+        <f aca="false">CONCATENATE($P98,"_1")</f>
+        <v>226_1</v>
+      </c>
       <c r="O98" s="0" t="n">
         <f aca="false">O94+1</f>
         <v>227</v>
       </c>
+      <c r="P98" s="0" t="n">
+        <f aca="false">O98-1</f>
+        <v>226</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="n">
@@ -43925,10 +44906,18 @@
         <f aca="false">CONCATENATE($O99,"_0")</f>
         <v>227_0</v>
       </c>
+      <c r="G99" s="0" t="str">
+        <f aca="false">CONCATENATE($P99,"_1")</f>
+        <v>226_1</v>
+      </c>
       <c r="O99" s="0" t="n">
         <f aca="false">O95+1</f>
         <v>227</v>
       </c>
+      <c r="P99" s="0" t="n">
+        <f aca="false">O99-1</f>
+        <v>226</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="n">
@@ -43948,10 +44937,18 @@
         <f aca="false">CONCATENATE($O100,"_0")</f>
         <v>227_0</v>
       </c>
+      <c r="G100" s="0" t="str">
+        <f aca="false">CONCATENATE($P100,"_1")</f>
+        <v>226_1</v>
+      </c>
       <c r="O100" s="0" t="n">
         <f aca="false">O96+1</f>
         <v>227</v>
       </c>
+      <c r="P100" s="0" t="n">
+        <f aca="false">O100-1</f>
+        <v>226</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="n">
@@ -43971,10 +44968,18 @@
         <f aca="false">CONCATENATE($O101,"_0")</f>
         <v>228_0</v>
       </c>
+      <c r="H101" s="0" t="str">
+        <f aca="false">CONCATENATE($Q101,"_1")</f>
+        <v>229_1</v>
+      </c>
       <c r="O101" s="0" t="n">
         <f aca="false">O97+1</f>
         <v>228</v>
       </c>
+      <c r="Q101" s="0" t="n">
+        <f aca="false">O101+1</f>
+        <v>229</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="n">
@@ -43994,10 +44999,18 @@
         <f aca="false">CONCATENATE($O102,"_0")</f>
         <v>228_0</v>
       </c>
+      <c r="H102" s="0" t="str">
+        <f aca="false">CONCATENATE($Q102,"_1")</f>
+        <v>229_1</v>
+      </c>
       <c r="O102" s="0" t="n">
         <f aca="false">O98+1</f>
         <v>228</v>
       </c>
+      <c r="Q102" s="0" t="n">
+        <f aca="false">O102+1</f>
+        <v>229</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="n">
@@ -44017,10 +45030,18 @@
         <f aca="false">CONCATENATE($O103,"_0")</f>
         <v>228_0</v>
       </c>
+      <c r="H103" s="0" t="str">
+        <f aca="false">CONCATENATE($Q103,"_1")</f>
+        <v>229_1</v>
+      </c>
       <c r="O103" s="0" t="n">
         <f aca="false">O99+1</f>
         <v>228</v>
       </c>
+      <c r="Q103" s="0" t="n">
+        <f aca="false">O103+1</f>
+        <v>229</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="n">
@@ -44040,10 +45061,18 @@
         <f aca="false">CONCATENATE($O104,"_0")</f>
         <v>228_0</v>
       </c>
+      <c r="H104" s="0" t="str">
+        <f aca="false">CONCATENATE($Q104,"_1")</f>
+        <v>229_1</v>
+      </c>
       <c r="O104" s="0" t="n">
         <f aca="false">O100+1</f>
         <v>228</v>
       </c>
+      <c r="Q104" s="0" t="n">
+        <f aca="false">O104+1</f>
+        <v>229</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="n">
@@ -44063,10 +45092,26 @@
         <f aca="false">CONCATENATE($O105,"_0")</f>
         <v>229_0</v>
       </c>
+      <c r="F105" s="0" t="str">
+        <f aca="false">CONCATENATE($O105,"_1")</f>
+        <v>229_1</v>
+      </c>
+      <c r="H105" s="0" t="str">
+        <f aca="false">CONCATENATE($Q105,"_1")</f>
+        <v>230_1</v>
+      </c>
       <c r="O105" s="0" t="n">
         <f aca="false">O101+1</f>
         <v>229</v>
       </c>
+      <c r="P105" s="0" t="n">
+        <f aca="false">O105-1</f>
+        <v>228</v>
+      </c>
+      <c r="Q105" s="0" t="n">
+        <f aca="false">O105+1</f>
+        <v>230</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="n">
@@ -44086,10 +45131,26 @@
         <f aca="false">CONCATENATE($O106,"_0")</f>
         <v>229_0</v>
       </c>
+      <c r="F106" s="0" t="str">
+        <f aca="false">CONCATENATE($O106,"_1")</f>
+        <v>229_1</v>
+      </c>
+      <c r="H106" s="0" t="str">
+        <f aca="false">CONCATENATE($Q106,"_1")</f>
+        <v>230_1</v>
+      </c>
       <c r="O106" s="0" t="n">
         <f aca="false">O102+1</f>
         <v>229</v>
       </c>
+      <c r="P106" s="0" t="n">
+        <f aca="false">O106-1</f>
+        <v>228</v>
+      </c>
+      <c r="Q106" s="0" t="n">
+        <f aca="false">O106+1</f>
+        <v>230</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="n">
@@ -44109,10 +45170,26 @@
         <f aca="false">CONCATENATE($O107,"_0")</f>
         <v>229_0</v>
       </c>
+      <c r="F107" s="0" t="str">
+        <f aca="false">CONCATENATE($O107,"_1")</f>
+        <v>229_1</v>
+      </c>
+      <c r="H107" s="0" t="str">
+        <f aca="false">CONCATENATE($Q107,"_1")</f>
+        <v>230_1</v>
+      </c>
       <c r="O107" s="0" t="n">
         <f aca="false">O103+1</f>
         <v>229</v>
       </c>
+      <c r="P107" s="0" t="n">
+        <f aca="false">O107-1</f>
+        <v>228</v>
+      </c>
+      <c r="Q107" s="0" t="n">
+        <f aca="false">O107+1</f>
+        <v>230</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="n">
@@ -44132,10 +45209,26 @@
         <f aca="false">CONCATENATE($O108,"_0")</f>
         <v>229_0</v>
       </c>
+      <c r="F108" s="0" t="str">
+        <f aca="false">CONCATENATE($O108,"_1")</f>
+        <v>229_1</v>
+      </c>
+      <c r="H108" s="0" t="str">
+        <f aca="false">CONCATENATE($Q108,"_1")</f>
+        <v>230_1</v>
+      </c>
       <c r="O108" s="0" t="n">
         <f aca="false">O104+1</f>
         <v>229</v>
       </c>
+      <c r="P108" s="0" t="n">
+        <f aca="false">O108-1</f>
+        <v>228</v>
+      </c>
+      <c r="Q108" s="0" t="n">
+        <f aca="false">O108+1</f>
+        <v>230</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="n">
@@ -44155,10 +45248,26 @@
         <f aca="false">CONCATENATE($O109,"_0")</f>
         <v>230_0</v>
       </c>
+      <c r="F109" s="0" t="str">
+        <f aca="false">CONCATENATE($O109,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="G109" s="0" t="str">
+        <f aca="false">CONCATENATE($P109,"_1")</f>
+        <v>229_1</v>
+      </c>
       <c r="O109" s="0" t="n">
         <f aca="false">O105+1</f>
         <v>230</v>
       </c>
+      <c r="P109" s="0" t="n">
+        <f aca="false">O109-1</f>
+        <v>229</v>
+      </c>
+      <c r="Q109" s="0" t="n">
+        <f aca="false">O109+1</f>
+        <v>231</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="n">
@@ -44178,10 +45287,26 @@
         <f aca="false">CONCATENATE($O110,"_0")</f>
         <v>230_0</v>
       </c>
+      <c r="F110" s="0" t="str">
+        <f aca="false">CONCATENATE($O110,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="G110" s="0" t="str">
+        <f aca="false">CONCATENATE($P110,"_1")</f>
+        <v>229_1</v>
+      </c>
       <c r="O110" s="0" t="n">
         <f aca="false">O106+1</f>
         <v>230</v>
       </c>
+      <c r="P110" s="0" t="n">
+        <f aca="false">O110-1</f>
+        <v>229</v>
+      </c>
+      <c r="Q110" s="0" t="n">
+        <f aca="false">O110+1</f>
+        <v>231</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="n">
@@ -44201,10 +45326,26 @@
         <f aca="false">CONCATENATE($O111,"_0")</f>
         <v>230_0</v>
       </c>
+      <c r="F111" s="0" t="str">
+        <f aca="false">CONCATENATE($O111,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="G111" s="0" t="str">
+        <f aca="false">CONCATENATE($P111,"_1")</f>
+        <v>229_1</v>
+      </c>
       <c r="O111" s="0" t="n">
         <f aca="false">O107+1</f>
         <v>230</v>
       </c>
+      <c r="P111" s="0" t="n">
+        <f aca="false">O111-1</f>
+        <v>229</v>
+      </c>
+      <c r="Q111" s="0" t="n">
+        <f aca="false">O111+1</f>
+        <v>231</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="n">
@@ -44224,10 +45365,26 @@
         <f aca="false">CONCATENATE($O112,"_0")</f>
         <v>230_0</v>
       </c>
+      <c r="F112" s="0" t="str">
+        <f aca="false">CONCATENATE($O112,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="G112" s="0" t="str">
+        <f aca="false">CONCATENATE($P112,"_1")</f>
+        <v>229_1</v>
+      </c>
       <c r="O112" s="0" t="n">
         <f aca="false">O108+1</f>
         <v>230</v>
       </c>
+      <c r="P112" s="0" t="n">
+        <f aca="false">O112-1</f>
+        <v>229</v>
+      </c>
+      <c r="Q112" s="0" t="n">
+        <f aca="false">O112+1</f>
+        <v>231</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="n">
@@ -44247,10 +45404,26 @@
         <f aca="false">CONCATENATE($O113,"_0")</f>
         <v>231_0</v>
       </c>
+      <c r="G113" s="0" t="str">
+        <f aca="false">CONCATENATE($P113,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="H113" s="0" t="str">
+        <f aca="false">CONCATENATE($Q113,"_1")</f>
+        <v>232_1</v>
+      </c>
       <c r="O113" s="0" t="n">
         <f aca="false">O109+1</f>
         <v>231</v>
       </c>
+      <c r="P113" s="0" t="n">
+        <f aca="false">O113-1</f>
+        <v>230</v>
+      </c>
+      <c r="Q113" s="0" t="n">
+        <f aca="false">O113+1</f>
+        <v>232</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="n">
@@ -44270,10 +45443,26 @@
         <f aca="false">CONCATENATE($O114,"_0")</f>
         <v>231_0</v>
       </c>
+      <c r="G114" s="0" t="str">
+        <f aca="false">CONCATENATE($P114,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="H114" s="0" t="str">
+        <f aca="false">CONCATENATE($Q114,"_1")</f>
+        <v>232_1</v>
+      </c>
       <c r="O114" s="0" t="n">
         <f aca="false">O110+1</f>
         <v>231</v>
       </c>
+      <c r="P114" s="0" t="n">
+        <f aca="false">O114-1</f>
+        <v>230</v>
+      </c>
+      <c r="Q114" s="0" t="n">
+        <f aca="false">O114+1</f>
+        <v>232</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="n">
@@ -44293,10 +45482,26 @@
         <f aca="false">CONCATENATE($O115,"_0")</f>
         <v>231_0</v>
       </c>
+      <c r="G115" s="0" t="str">
+        <f aca="false">CONCATENATE($P115,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="H115" s="0" t="str">
+        <f aca="false">CONCATENATE($Q115,"_1")</f>
+        <v>232_1</v>
+      </c>
       <c r="O115" s="0" t="n">
         <f aca="false">O111+1</f>
         <v>231</v>
       </c>
+      <c r="P115" s="0" t="n">
+        <f aca="false">O115-1</f>
+        <v>230</v>
+      </c>
+      <c r="Q115" s="0" t="n">
+        <f aca="false">O115+1</f>
+        <v>232</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="n">
@@ -44316,10 +45521,26 @@
         <f aca="false">CONCATENATE($O116,"_0")</f>
         <v>231_0</v>
       </c>
+      <c r="G116" s="0" t="str">
+        <f aca="false">CONCATENATE($P116,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="H116" s="0" t="str">
+        <f aca="false">CONCATENATE($Q116,"_1")</f>
+        <v>232_1</v>
+      </c>
       <c r="O116" s="0" t="n">
         <f aca="false">O112+1</f>
         <v>231</v>
       </c>
+      <c r="P116" s="0" t="n">
+        <f aca="false">O116-1</f>
+        <v>230</v>
+      </c>
+      <c r="Q116" s="0" t="n">
+        <f aca="false">O116+1</f>
+        <v>232</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="n">
@@ -44339,10 +45560,26 @@
         <f aca="false">CONCATENATE($O117,"_0")</f>
         <v>232_0</v>
       </c>
+      <c r="F117" s="0" t="str">
+        <f aca="false">CONCATENATE($O117,"_1")</f>
+        <v>232_1</v>
+      </c>
+      <c r="H117" s="0" t="str">
+        <f aca="false">CONCATENATE($Q117,"_1")</f>
+        <v>233_1</v>
+      </c>
       <c r="O117" s="0" t="n">
         <f aca="false">O113+1</f>
         <v>232</v>
       </c>
+      <c r="P117" s="0" t="n">
+        <f aca="false">O117-1</f>
+        <v>231</v>
+      </c>
+      <c r="Q117" s="0" t="n">
+        <f aca="false">O117+1</f>
+        <v>233</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="n">
@@ -44362,10 +45599,26 @@
         <f aca="false">CONCATENATE($O118,"_0")</f>
         <v>232_0</v>
       </c>
+      <c r="F118" s="0" t="str">
+        <f aca="false">CONCATENATE($O118,"_1")</f>
+        <v>232_1</v>
+      </c>
+      <c r="H118" s="0" t="str">
+        <f aca="false">CONCATENATE($Q118,"_1")</f>
+        <v>233_1</v>
+      </c>
       <c r="O118" s="0" t="n">
         <f aca="false">O114+1</f>
         <v>232</v>
       </c>
+      <c r="P118" s="0" t="n">
+        <f aca="false">O118-1</f>
+        <v>231</v>
+      </c>
+      <c r="Q118" s="0" t="n">
+        <f aca="false">O118+1</f>
+        <v>233</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="n">
@@ -44385,10 +45638,26 @@
         <f aca="false">CONCATENATE($O119,"_0")</f>
         <v>232_0</v>
       </c>
+      <c r="F119" s="0" t="str">
+        <f aca="false">CONCATENATE($O119,"_1")</f>
+        <v>232_1</v>
+      </c>
+      <c r="H119" s="0" t="str">
+        <f aca="false">CONCATENATE($Q119,"_1")</f>
+        <v>233_1</v>
+      </c>
       <c r="O119" s="0" t="n">
         <f aca="false">O115+1</f>
         <v>232</v>
       </c>
+      <c r="P119" s="0" t="n">
+        <f aca="false">O119-1</f>
+        <v>231</v>
+      </c>
+      <c r="Q119" s="0" t="n">
+        <f aca="false">O119+1</f>
+        <v>233</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="n">
@@ -44408,10 +45677,26 @@
         <f aca="false">CONCATENATE($O120,"_0")</f>
         <v>232_0</v>
       </c>
+      <c r="F120" s="0" t="str">
+        <f aca="false">CONCATENATE($O120,"_1")</f>
+        <v>232_1</v>
+      </c>
+      <c r="H120" s="0" t="str">
+        <f aca="false">CONCATENATE($Q120,"_1")</f>
+        <v>233_1</v>
+      </c>
       <c r="O120" s="0" t="n">
         <f aca="false">O116+1</f>
         <v>232</v>
       </c>
+      <c r="P120" s="0" t="n">
+        <f aca="false">O120-1</f>
+        <v>231</v>
+      </c>
+      <c r="Q120" s="0" t="n">
+        <f aca="false">O120+1</f>
+        <v>233</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="n">
@@ -44431,10 +45716,26 @@
         <f aca="false">CONCATENATE($O121,"_0")</f>
         <v>233_0</v>
       </c>
+      <c r="F121" s="0" t="str">
+        <f aca="false">CONCATENATE($O121,"_1")</f>
+        <v>233_1</v>
+      </c>
+      <c r="G121" s="0" t="str">
+        <f aca="false">CONCATENATE($P121,"_1")</f>
+        <v>232_1</v>
+      </c>
       <c r="O121" s="0" t="n">
         <f aca="false">O117+1</f>
         <v>233</v>
       </c>
+      <c r="P121" s="0" t="n">
+        <f aca="false">O121-1</f>
+        <v>232</v>
+      </c>
+      <c r="Q121" s="0" t="n">
+        <f aca="false">O121+1</f>
+        <v>234</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="n">
@@ -44454,10 +45755,26 @@
         <f aca="false">CONCATENATE($O122,"_0")</f>
         <v>233_0</v>
       </c>
+      <c r="F122" s="0" t="str">
+        <f aca="false">CONCATENATE($O122,"_1")</f>
+        <v>233_1</v>
+      </c>
+      <c r="G122" s="0" t="str">
+        <f aca="false">CONCATENATE($P122,"_1")</f>
+        <v>232_1</v>
+      </c>
       <c r="O122" s="0" t="n">
         <f aca="false">O118+1</f>
         <v>233</v>
       </c>
+      <c r="P122" s="0" t="n">
+        <f aca="false">O122-1</f>
+        <v>232</v>
+      </c>
+      <c r="Q122" s="0" t="n">
+        <f aca="false">O122+1</f>
+        <v>234</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="n">
@@ -44477,10 +45794,26 @@
         <f aca="false">CONCATENATE($O123,"_0")</f>
         <v>233_0</v>
       </c>
+      <c r="F123" s="0" t="str">
+        <f aca="false">CONCATENATE($O123,"_1")</f>
+        <v>233_1</v>
+      </c>
+      <c r="G123" s="0" t="str">
+        <f aca="false">CONCATENATE($P123,"_1")</f>
+        <v>232_1</v>
+      </c>
       <c r="O123" s="0" t="n">
         <f aca="false">O119+1</f>
         <v>233</v>
       </c>
+      <c r="P123" s="0" t="n">
+        <f aca="false">O123-1</f>
+        <v>232</v>
+      </c>
+      <c r="Q123" s="0" t="n">
+        <f aca="false">O123+1</f>
+        <v>234</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="n">
@@ -44500,10 +45833,26 @@
         <f aca="false">CONCATENATE($O124,"_0")</f>
         <v>233_0</v>
       </c>
+      <c r="F124" s="0" t="str">
+        <f aca="false">CONCATENATE($O124,"_1")</f>
+        <v>233_1</v>
+      </c>
+      <c r="G124" s="0" t="str">
+        <f aca="false">CONCATENATE($P124,"_1")</f>
+        <v>232_1</v>
+      </c>
       <c r="O124" s="0" t="n">
         <f aca="false">O120+1</f>
         <v>233</v>
       </c>
+      <c r="P124" s="0" t="n">
+        <f aca="false">O124-1</f>
+        <v>232</v>
+      </c>
+      <c r="Q124" s="0" t="n">
+        <f aca="false">O124+1</f>
+        <v>234</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="n">
@@ -44523,10 +45872,22 @@
         <f aca="false">CONCATENATE($O125,"_0")</f>
         <v>234_0</v>
       </c>
+      <c r="G125" s="0" t="str">
+        <f aca="false">CONCATENATE($P125,"_1")</f>
+        <v>233_1</v>
+      </c>
       <c r="O125" s="0" t="n">
         <f aca="false">O121+1</f>
         <v>234</v>
       </c>
+      <c r="P125" s="0" t="n">
+        <f aca="false">O125-1</f>
+        <v>233</v>
+      </c>
+      <c r="Q125" s="0" t="n">
+        <f aca="false">O125+1</f>
+        <v>235</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="n">
@@ -44546,10 +45907,22 @@
         <f aca="false">CONCATENATE($O126,"_0")</f>
         <v>234_0</v>
       </c>
+      <c r="G126" s="0" t="str">
+        <f aca="false">CONCATENATE($P126,"_1")</f>
+        <v>233_1</v>
+      </c>
       <c r="O126" s="0" t="n">
         <f aca="false">O122+1</f>
         <v>234</v>
       </c>
+      <c r="P126" s="0" t="n">
+        <f aca="false">O126-1</f>
+        <v>233</v>
+      </c>
+      <c r="Q126" s="0" t="n">
+        <f aca="false">O126+1</f>
+        <v>235</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="n">
@@ -44569,10 +45942,22 @@
         <f aca="false">CONCATENATE($O127,"_0")</f>
         <v>234_0</v>
       </c>
+      <c r="G127" s="0" t="str">
+        <f aca="false">CONCATENATE($P127,"_1")</f>
+        <v>233_1</v>
+      </c>
       <c r="O127" s="0" t="n">
         <f aca="false">O123+1</f>
         <v>234</v>
       </c>
+      <c r="P127" s="0" t="n">
+        <f aca="false">O127-1</f>
+        <v>233</v>
+      </c>
+      <c r="Q127" s="0" t="n">
+        <f aca="false">O127+1</f>
+        <v>235</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="n">
@@ -44592,10 +45977,22 @@
         <f aca="false">CONCATENATE($O128,"_0")</f>
         <v>234_0</v>
       </c>
+      <c r="G128" s="0" t="str">
+        <f aca="false">CONCATENATE($P128,"_1")</f>
+        <v>233_1</v>
+      </c>
       <c r="O128" s="0" t="n">
         <f aca="false">O124+1</f>
         <v>234</v>
       </c>
+      <c r="P128" s="0" t="n">
+        <f aca="false">O128-1</f>
+        <v>233</v>
+      </c>
+      <c r="Q128" s="0" t="n">
+        <f aca="false">O128+1</f>
+        <v>235</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="n">
@@ -44619,6 +46016,10 @@
         <f aca="false">O125+1</f>
         <v>235</v>
       </c>
+      <c r="P129" s="0" t="n">
+        <f aca="false">O129-1</f>
+        <v>234</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="n">
@@ -44642,6 +46043,10 @@
         <f aca="false">O126+1</f>
         <v>235</v>
       </c>
+      <c r="P130" s="0" t="n">
+        <f aca="false">O130-1</f>
+        <v>234</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="n">
@@ -44665,6 +46070,10 @@
         <f aca="false">O127+1</f>
         <v>235</v>
       </c>
+      <c r="P131" s="0" t="n">
+        <f aca="false">O131-1</f>
+        <v>234</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="n">
@@ -44687,6 +46096,10 @@
       <c r="O132" s="0" t="n">
         <f aca="false">O128+1</f>
         <v>235</v>
+      </c>
+      <c r="P132" s="0" t="n">
+        <f aca="false">O132-1</f>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -44707,7 +46120,7 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -45066,7 +46479,7 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -45375,7 +46788,7 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
+++ b/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="US+_GTY_tx_rx" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <sheet name="US+_GTY_quad_connections" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="US+_GTY_mgt_config" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="refclk_buf" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Instructions" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7063" uniqueCount="1621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7068" uniqueCount="1620">
   <si>
     <t xml:space="preserve">// path</t>
   </si>
@@ -4815,42 +4816,6 @@
     <t xml:space="preserve">name of RX user clock port</t>
   </si>
   <si>
-    <t xml:space="preserve">mgt_txpolarity_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name of TX polarity port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mgt_rxpolarity_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name of RX polarity port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mgt_tx_powerdown_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name of TX power down port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mgt_rx_powerdown_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name of RX power down port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cppl_powerdown_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name of CPLL power down port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qpll_powerdown_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name of QPLL power down port</t>
-  </si>
-  <si>
     <t xml:space="preserve">refclk_buf_inst.sv</t>
   </si>
   <si>
@@ -4887,10 +4852,43 @@
     <t xml:space="preserve">.O     (refclk   [gi]),</t>
   </si>
   <si>
-    <t xml:space="preserve">.ODIV2 ()</t>
+    <t xml:space="preserve">.ODIV2 (refclk_odiv [gi])</t>
   </si>
   <si>
     <t xml:space="preserve">);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in Ports lists:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set defaults for Power Down ports = all ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port types:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dynamic signal, connected to firmware logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clock signal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRP port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardcoded inputs or unconnected outputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statically connected to register (input or output)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indexed field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indexed means that this signal is individual per instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only valid for dynamic or clock signals</t>
   </si>
 </sst>
 </file>
@@ -4985,7 +4983,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5034,6 +5032,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -11664,6 +11666,128 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -11671,8 +11795,8 @@
   </sheetPr>
   <dimension ref="A1:M292"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I86" activeCellId="0" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11944,6 +12068,9 @@
       <c r="E13" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="F13" s="4" t="s">
+        <v>852</v>
+      </c>
       <c r="H13" s="4" t="s">
         <v>850</v>
       </c>
@@ -17065,8 +17192,8 @@
   </sheetPr>
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17817,6 +17944,9 @@
       <c r="E39" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="F39" s="4" t="s">
+        <v>852</v>
+      </c>
       <c r="J39" s="4" t="s">
         <v>848</v>
       </c>
@@ -17833,6 +17963,9 @@
       </c>
       <c r="E40" s="4" t="n">
         <v>1</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>852</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>848</v>
@@ -41386,7 +41519,7 @@
   </sheetPr>
   <dimension ref="A1:Q132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H121" activeCellId="0" sqref="H121"/>
     </sheetView>
   </sheetViews>
@@ -46477,10 +46610,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -46704,72 +46837,11 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>1595</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>1597</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>1599</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>1601</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>1603</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>1605</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>899</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>1606</v>
-      </c>
-    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -46788,8 +46860,8 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -46814,7 +46886,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1607</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46827,72 +46899,72 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="11" t="s">
-        <v>1608</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="11" t="s">
-        <v>1609</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="11" t="s">
-        <v>1610</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="11" t="s">
-        <v>1611</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="11" t="s">
-        <v>1612</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="11" t="s">
-        <v>1613</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="11" t="s">
-        <v>1614</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="11" t="s">
-        <v>1609</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="11" t="s">
-        <v>1615</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="11" t="s">
-        <v>1616</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="11" t="s">
-        <v>1617</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="11" t="s">
-        <v>1618</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="11" t="s">
-        <v>1619</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="11" t="s">
-        <v>1620</v>
+        <v>1608</v>
       </c>
     </row>
   </sheetData>

--- a/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
+++ b/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="US+_GTY_tx_rx" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7068" uniqueCount="1620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7070" uniqueCount="1620">
   <si>
     <t xml:space="preserve">// path</t>
   </si>
@@ -11795,8 +11795,8 @@
   </sheetPr>
   <dimension ref="A1:M292"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I86" activeCellId="0" sqref="I86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11808,7 +11808,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="9.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="4" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="25.67"/>
@@ -12542,11 +12542,14 @@
       <c r="B37" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="C37" s="4" t="n">
-        <v>0</v>
+      <c r="C37" s="4" t="s">
+        <v>851</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>1</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>850</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>848</v>
@@ -41519,8 +41522,8 @@
   </sheetPr>
   <dimension ref="A1:Q132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H121" activeCellId="0" sqref="H121"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H129" activeCellId="0" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43242,10 +43245,6 @@
         <f aca="false">CONCATENATE($P49,"_1")</f>
         <v>130_1</v>
       </c>
-      <c r="H49" s="0" t="str">
-        <f aca="false">CONCATENATE($Q49,"_1")</f>
-        <v>132_1</v>
-      </c>
       <c r="O49" s="0" t="n">
         <f aca="false">O45+1</f>
         <v>131</v>
@@ -43281,10 +43280,6 @@
         <f aca="false">CONCATENATE($P50,"_1")</f>
         <v>130_1</v>
       </c>
-      <c r="H50" s="0" t="str">
-        <f aca="false">CONCATENATE($Q50,"_1")</f>
-        <v>132_1</v>
-      </c>
       <c r="O50" s="0" t="n">
         <f aca="false">O46+1</f>
         <v>131</v>
@@ -43320,10 +43315,6 @@
         <f aca="false">CONCATENATE($P51,"_1")</f>
         <v>130_1</v>
       </c>
-      <c r="H51" s="0" t="str">
-        <f aca="false">CONCATENATE($Q51,"_1")</f>
-        <v>132_1</v>
-      </c>
       <c r="O51" s="0" t="n">
         <f aca="false">O47+1</f>
         <v>131</v>
@@ -43359,10 +43350,6 @@
         <f aca="false">CONCATENATE($P52,"_1")</f>
         <v>130_1</v>
       </c>
-      <c r="H52" s="0" t="str">
-        <f aca="false">CONCATENATE($Q52,"_1")</f>
-        <v>132_1</v>
-      </c>
       <c r="O52" s="0" t="n">
         <f aca="false">O48+1</f>
         <v>131</v>
@@ -45541,10 +45528,6 @@
         <f aca="false">CONCATENATE($P113,"_1")</f>
         <v>230_1</v>
       </c>
-      <c r="H113" s="0" t="str">
-        <f aca="false">CONCATENATE($Q113,"_1")</f>
-        <v>232_1</v>
-      </c>
       <c r="O113" s="0" t="n">
         <f aca="false">O109+1</f>
         <v>231</v>
@@ -45580,10 +45563,6 @@
         <f aca="false">CONCATENATE($P114,"_1")</f>
         <v>230_1</v>
       </c>
-      <c r="H114" s="0" t="str">
-        <f aca="false">CONCATENATE($Q114,"_1")</f>
-        <v>232_1</v>
-      </c>
       <c r="O114" s="0" t="n">
         <f aca="false">O110+1</f>
         <v>231</v>
@@ -45619,10 +45598,6 @@
         <f aca="false">CONCATENATE($P115,"_1")</f>
         <v>230_1</v>
       </c>
-      <c r="H115" s="0" t="str">
-        <f aca="false">CONCATENATE($Q115,"_1")</f>
-        <v>232_1</v>
-      </c>
       <c r="O115" s="0" t="n">
         <f aca="false">O111+1</f>
         <v>231</v>
@@ -45657,10 +45632,6 @@
       <c r="G116" s="0" t="str">
         <f aca="false">CONCATENATE($P116,"_1")</f>
         <v>230_1</v>
-      </c>
-      <c r="H116" s="0" t="str">
-        <f aca="false">CONCATENATE($Q116,"_1")</f>
-        <v>232_1</v>
       </c>
       <c r="O116" s="0" t="n">
         <f aca="false">O112+1</f>
@@ -46860,7 +46831,7 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>

--- a/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
+++ b/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="US+_GTY_tx_rx" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,10 +14,11 @@
     <sheet name="US+_GTY_DRP" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="US+_COMMONY_DRP" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="xcku15p-ffva1760_GTY_placement" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="US+_GTY_quad_connections" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="US+_GTY_mgt_config" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="refclk_buf" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Instructions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="xcku15p-ffva1760_GTY_placement_async_thinout" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="US+_GTY_quad_connections" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="US+_GTY_mgt_config" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="refclk_buf" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Instructions" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7070" uniqueCount="1620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7216" uniqueCount="1636">
   <si>
     <t xml:space="preserve">// path</t>
   </si>
@@ -4595,6 +4596,54 @@
   </si>
   <si>
     <t xml:space="preserve">refclk9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">229_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235_0</t>
   </si>
   <si>
     <t xml:space="preserve">quad_connections.tab</t>
@@ -5056,7 +5105,7 @@
   <dimension ref="A1:F829"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="E125:E128 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11671,10 +11720,135 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="E125:E128 E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="4.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="31.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="11" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="11" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="11" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="11" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="11" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="11" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="11" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="11" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="11" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="11" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="11" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="11" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="11" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="11" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="E125:E128 A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11684,12 +11858,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1609</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1610</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11719,7 +11893,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1611</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11727,7 +11901,7 @@
         <v>856</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1612</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11735,7 +11909,7 @@
         <v>851</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1613</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11743,7 +11917,7 @@
         <v>854</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1614</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11751,7 +11925,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1615</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11759,22 +11933,22 @@
         <v>847</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1616</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1617</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1618</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1619</v>
+        <v>1635</v>
       </c>
     </row>
   </sheetData>
@@ -11796,7 +11970,7 @@
   <dimension ref="A1:M292"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
+      <selection pane="topLeft" activeCell="H38" activeCellId="1" sqref="E125:E128 H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17196,7 +17370,7 @@
   <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
+      <selection pane="topLeft" activeCell="F39" activeCellId="1" sqref="E125:E128 F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18712,7 +18886,7 @@
   <dimension ref="A1:G901"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A262" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D278" activeCellId="0" sqref="D278"/>
+      <selection pane="topLeft" activeCell="D278" activeCellId="1" sqref="E125:E128 D278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33443,7 +33617,7 @@
   <dimension ref="A1:G709"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A519" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H546" activeCellId="0" sqref="H546"/>
+      <selection pane="topLeft" activeCell="H546" activeCellId="1" sqref="E125:E128 H546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41522,8 +41696,8 @@
   </sheetPr>
   <dimension ref="A1:Q132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H129" activeCellId="0" sqref="H129"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E125:E128 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41537,9 +41711,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -46222,18 +46394,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:Q132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E125" activeCellId="0" sqref="E125:E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="5" style="0" width="8.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46243,326 +46417,4539 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1522</v>
-      </c>
+        <v>1507</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>1516</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>1518</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>1520</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H5" s="0" t="str">
+        <f aca="false">CONCATENATE($Q5,"_1")</f>
+        <v>121_1</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">O5+1</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H6" s="0" t="str">
+        <f aca="false">CONCATENATE($Q6,"_1")</f>
+        <v>121_1</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <f aca="false">O5</f>
+        <v>120</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">O6+1</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H7" s="0" t="str">
+        <f aca="false">CONCATENATE($Q7,"_1")</f>
+        <v>121_1</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <f aca="false">O6</f>
+        <v>120</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">O7+1</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H8" s="0" t="str">
+        <f aca="false">CONCATENATE($Q8,"_1")</f>
+        <v>121_1</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <f aca="false">O7</f>
+        <v>120</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">O8+1</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <f aca="false">D5+1</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F9" s="0" t="str">
+        <f aca="false">CONCATENATE($O9,"_1")</f>
+        <v>121_1</v>
+      </c>
+      <c r="H9" s="0" t="str">
+        <f aca="false">CONCATENATE($Q9,"_1")</f>
+        <v>122_1</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <f aca="false">O5+1</f>
+        <v>121</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <f aca="false">O9-1</f>
+        <v>120</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">O9+1</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <f aca="false">D6+1</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F10" s="0" t="str">
+        <f aca="false">CONCATENATE($O10,"_1")</f>
+        <v>121_1</v>
+      </c>
+      <c r="H10" s="0" t="str">
+        <f aca="false">CONCATENATE($Q10,"_1")</f>
+        <v>122_1</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <f aca="false">O6+1</f>
+        <v>121</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <f aca="false">O10-1</f>
+        <v>120</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">O10+1</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <f aca="false">D7+1</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F11" s="0" t="str">
+        <f aca="false">CONCATENATE($O11,"_1")</f>
+        <v>121_1</v>
+      </c>
+      <c r="H11" s="0" t="str">
+        <f aca="false">CONCATENATE($Q11,"_1")</f>
+        <v>122_1</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <f aca="false">O7+1</f>
+        <v>121</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <f aca="false">O11-1</f>
+        <v>120</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">O11+1</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <f aca="false">D8+1</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F12" s="0" t="str">
+        <f aca="false">CONCATENATE($O12,"_1")</f>
+        <v>121_1</v>
+      </c>
+      <c r="H12" s="0" t="str">
+        <f aca="false">CONCATENATE($Q12,"_1")</f>
+        <v>122_1</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <f aca="false">O8+1</f>
+        <v>121</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <f aca="false">O12-1</f>
+        <v>120</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">O12+1</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <f aca="false">D9+1</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>1523</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="F13" s="0" t="str">
+        <f aca="false">CONCATENATE($O13,"_1")</f>
+        <v>122_1</v>
+      </c>
+      <c r="G13" s="0" t="str">
+        <f aca="false">CONCATENATE($P13,"_1")</f>
+        <v>121_1</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <f aca="false">O9+1</f>
+        <v>122</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <f aca="false">O13-1</f>
+        <v>121</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <f aca="false">O13+1</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <f aca="false">D10+1</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F14" s="0" t="str">
+        <f aca="false">CONCATENATE($O14,"_1")</f>
+        <v>122_1</v>
+      </c>
+      <c r="G14" s="0" t="str">
+        <f aca="false">CONCATENATE($P14,"_1")</f>
+        <v>121_1</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <f aca="false">O10+1</f>
+        <v>122</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <f aca="false">O14-1</f>
+        <v>121</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <f aca="false">O14+1</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <f aca="false">D11+1</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F15" s="0" t="str">
+        <f aca="false">CONCATENATE($O15,"_1")</f>
+        <v>122_1</v>
+      </c>
+      <c r="G15" s="0" t="str">
+        <f aca="false">CONCATENATE($P15,"_1")</f>
+        <v>121_1</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <f aca="false">O11+1</f>
+        <v>122</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <f aca="false">O15-1</f>
+        <v>121</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <f aca="false">O15+1</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <f aca="false">D12+1</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F16" s="0" t="str">
+        <f aca="false">CONCATENATE($O16,"_1")</f>
+        <v>122_1</v>
+      </c>
+      <c r="G16" s="0" t="str">
+        <f aca="false">CONCATENATE($P16,"_1")</f>
+        <v>121_1</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <f aca="false">O12+1</f>
+        <v>122</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <f aca="false">O16-1</f>
+        <v>121</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <f aca="false">O16+1</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <f aca="false">D13+1</f>
+        <v>3</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G17" s="0" t="str">
+        <f aca="false">CONCATENATE($P17,"_1")</f>
+        <v>122_1</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <f aca="false">O13+1</f>
+        <v>123</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <f aca="false">O17-1</f>
+        <v>122</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <f aca="false">O17+1</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <f aca="false">D14+1</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G18" s="0" t="str">
+        <f aca="false">CONCATENATE($P18,"_1")</f>
+        <v>122_1</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <f aca="false">O14+1</f>
+        <v>123</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <f aca="false">O18-1</f>
+        <v>122</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <f aca="false">O18+1</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <f aca="false">D15+1</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G19" s="0" t="str">
+        <f aca="false">CONCATENATE($P19,"_1")</f>
+        <v>122_1</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <f aca="false">O15+1</f>
+        <v>123</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <f aca="false">O19-1</f>
+        <v>122</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <f aca="false">O19+1</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <f aca="false">D16+1</f>
+        <v>3</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G20" s="0" t="str">
+        <f aca="false">CONCATENATE($P20,"_1")</f>
+        <v>122_1</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <f aca="false">O16+1</f>
+        <v>123</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <f aca="false">O20-1</f>
+        <v>122</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <f aca="false">O20+1</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <f aca="false">D17+1</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>1524</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="H21" s="0" t="str">
+        <f aca="false">CONCATENATE($Q21,"_1")</f>
+        <v>125_1</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <f aca="false">O17+1</f>
+        <v>124</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <f aca="false">O21-1</f>
+        <v>123</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <f aca="false">O21+1</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <f aca="false">D18+1</f>
+        <v>4</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="H22" s="0" t="str">
+        <f aca="false">CONCATENATE($Q22,"_1")</f>
+        <v>125_1</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <f aca="false">O18+1</f>
+        <v>124</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <f aca="false">O22-1</f>
+        <v>123</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <f aca="false">O22+1</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <f aca="false">D19+1</f>
+        <v>4</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="H23" s="0" t="str">
+        <f aca="false">CONCATENATE($Q23,"_1")</f>
+        <v>125_1</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <f aca="false">O19+1</f>
+        <v>124</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <f aca="false">O23-1</f>
+        <v>123</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <f aca="false">O23+1</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <f aca="false">D20+1</f>
+        <v>4</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="H24" s="0" t="str">
+        <f aca="false">CONCATENATE($Q24,"_1")</f>
+        <v>125_1</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <f aca="false">O20+1</f>
+        <v>124</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <f aca="false">O24-1</f>
+        <v>123</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <f aca="false">O24+1</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <f aca="false">D21+1</f>
+        <v>5</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F25" s="0" t="str">
+        <f aca="false">CONCATENATE($O25,"_1")</f>
+        <v>125_1</v>
+      </c>
+      <c r="H25" s="0" t="str">
+        <f aca="false">CONCATENATE($Q25,"_1")</f>
+        <v>126_1</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <f aca="false">O21+1</f>
+        <v>125</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <f aca="false">O25-1</f>
+        <v>124</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <f aca="false">O25+1</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <f aca="false">D22+1</f>
+        <v>5</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F26" s="0" t="str">
+        <f aca="false">CONCATENATE($O26,"_1")</f>
+        <v>125_1</v>
+      </c>
+      <c r="H26" s="0" t="str">
+        <f aca="false">CONCATENATE($Q26,"_1")</f>
+        <v>126_1</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <f aca="false">O22+1</f>
+        <v>125</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <f aca="false">O26-1</f>
+        <v>124</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <f aca="false">O26+1</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <f aca="false">D23+1</f>
+        <v>5</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F27" s="0" t="str">
+        <f aca="false">CONCATENATE($O27,"_1")</f>
+        <v>125_1</v>
+      </c>
+      <c r="H27" s="0" t="str">
+        <f aca="false">CONCATENATE($Q27,"_1")</f>
+        <v>126_1</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <f aca="false">O23+1</f>
+        <v>125</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <f aca="false">O27-1</f>
+        <v>124</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <f aca="false">O27+1</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <f aca="false">D24+1</f>
+        <v>5</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F28" s="0" t="str">
+        <f aca="false">CONCATENATE($O28,"_1")</f>
+        <v>125_1</v>
+      </c>
+      <c r="H28" s="0" t="str">
+        <f aca="false">CONCATENATE($Q28,"_1")</f>
+        <v>126_1</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <f aca="false">O24+1</f>
+        <v>125</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <f aca="false">O28-1</f>
+        <v>124</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <f aca="false">O28+1</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <f aca="false">D25+1</f>
+        <v>6</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>1525</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="F29" s="0" t="str">
+        <f aca="false">CONCATENATE($O29,"_1")</f>
+        <v>126_1</v>
+      </c>
+      <c r="G29" s="0" t="str">
+        <f aca="false">CONCATENATE($P29,"_1")</f>
+        <v>125_1</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <f aca="false">O25+1</f>
+        <v>126</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <f aca="false">O29-1</f>
+        <v>125</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <f aca="false">O29+1</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <f aca="false">D26+1</f>
+        <v>6</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F30" s="0" t="str">
+        <f aca="false">CONCATENATE($O30,"_1")</f>
+        <v>126_1</v>
+      </c>
+      <c r="G30" s="0" t="str">
+        <f aca="false">CONCATENATE($P30,"_1")</f>
+        <v>125_1</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <f aca="false">O26+1</f>
+        <v>126</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <f aca="false">O30-1</f>
+        <v>125</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <f aca="false">O30+1</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <f aca="false">D27+1</f>
+        <v>6</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F31" s="0" t="str">
+        <f aca="false">CONCATENATE($O31,"_1")</f>
+        <v>126_1</v>
+      </c>
+      <c r="G31" s="0" t="str">
+        <f aca="false">CONCATENATE($P31,"_1")</f>
+        <v>125_1</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <f aca="false">O27+1</f>
+        <v>126</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <f aca="false">O31-1</f>
+        <v>125</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <f aca="false">O31+1</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <f aca="false">D28+1</f>
+        <v>6</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F32" s="0" t="str">
+        <f aca="false">CONCATENATE($O32,"_1")</f>
+        <v>126_1</v>
+      </c>
+      <c r="G32" s="0" t="str">
+        <f aca="false">CONCATENATE($P32,"_1")</f>
+        <v>125_1</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <f aca="false">O28+1</f>
+        <v>126</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <f aca="false">O32-1</f>
+        <v>125</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <f aca="false">O32+1</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <f aca="false">D29+1</f>
+        <v>7</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G33" s="0" t="str">
+        <f aca="false">CONCATENATE($P33,"_1")</f>
+        <v>126_1</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <f aca="false">O29+1</f>
+        <v>127</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <f aca="false">O33-1</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <f aca="false">D30+1</f>
+        <v>7</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G34" s="0" t="str">
+        <f aca="false">CONCATENATE($P34,"_1")</f>
+        <v>126_1</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <f aca="false">O30+1</f>
+        <v>127</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <f aca="false">O34-1</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <f aca="false">D31+1</f>
+        <v>7</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G35" s="0" t="str">
+        <f aca="false">CONCATENATE($P35,"_1")</f>
+        <v>126_1</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <f aca="false">O31+1</f>
+        <v>127</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <f aca="false">O35-1</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <f aca="false">D32+1</f>
+        <v>7</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G36" s="0" t="str">
+        <f aca="false">CONCATENATE($P36,"_1")</f>
+        <v>126_1</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <f aca="false">O32+1</f>
+        <v>127</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <f aca="false">O36-1</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <f aca="false">D33+1</f>
+        <v>8</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>1526</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>843</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="H37" s="0" t="str">
+        <f aca="false">CONCATENATE($Q37,"_1")</f>
+        <v>129_1</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <f aca="false">O33+1</f>
+        <v>128</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <f aca="false">O37+1</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <f aca="false">D34+1</f>
+        <v>8</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H38" s="0" t="str">
+        <f aca="false">CONCATENATE($Q38,"_1")</f>
+        <v>129_1</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <f aca="false">O34+1</f>
+        <v>128</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <f aca="false">O38+1</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5" t="n">
+        <f aca="false">D35+1</f>
+        <v>8</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H39" s="0" t="str">
+        <f aca="false">CONCATENATE($Q39,"_1")</f>
+        <v>129_1</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <f aca="false">O35+1</f>
+        <v>128</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <f aca="false">O39+1</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <f aca="false">D36+1</f>
+        <v>8</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H40" s="0" t="str">
+        <f aca="false">CONCATENATE($Q40,"_1")</f>
+        <v>129_1</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <f aca="false">O36+1</f>
+        <v>128</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <f aca="false">O40+1</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <f aca="false">D37+1</f>
+        <v>9</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F41" s="0" t="str">
+        <f aca="false">CONCATENATE($O41,"_1")</f>
+        <v>129_1</v>
+      </c>
+      <c r="H41" s="0" t="str">
+        <f aca="false">CONCATENATE($Q41,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <f aca="false">O37+1</f>
+        <v>129</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <f aca="false">O41-1</f>
+        <v>128</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <f aca="false">O41+1</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <f aca="false">D38+1</f>
+        <v>9</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F42" s="0" t="str">
+        <f aca="false">CONCATENATE($O42,"_1")</f>
+        <v>129_1</v>
+      </c>
+      <c r="H42" s="0" t="str">
+        <f aca="false">CONCATENATE($Q42,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <f aca="false">O38+1</f>
+        <v>129</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <f aca="false">O42-1</f>
+        <v>128</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <f aca="false">O42+1</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="5" t="n">
+        <f aca="false">D39+1</f>
+        <v>9</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F43" s="0" t="str">
+        <f aca="false">CONCATENATE($O43,"_1")</f>
+        <v>129_1</v>
+      </c>
+      <c r="H43" s="0" t="str">
+        <f aca="false">CONCATENATE($Q43,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <f aca="false">O39+1</f>
+        <v>129</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <f aca="false">O43-1</f>
+        <v>128</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <f aca="false">O43+1</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="5" t="n">
+        <f aca="false">D40+1</f>
+        <v>9</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F44" s="0" t="str">
+        <f aca="false">CONCATENATE($O44,"_1")</f>
+        <v>129_1</v>
+      </c>
+      <c r="H44" s="0" t="str">
+        <f aca="false">CONCATENATE($Q44,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <f aca="false">O40+1</f>
+        <v>129</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <f aca="false">O44-1</f>
+        <v>128</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <f aca="false">O44+1</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5" t="n">
+        <f aca="false">D41+1</f>
+        <v>10</v>
+      </c>
+      <c r="E45" s="0" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="F45" s="0" t="str">
+        <f aca="false">CONCATENATE($O45,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="G45" s="0" t="str">
+        <f aca="false">CONCATENATE($P45,"_1")</f>
+        <v>129_1</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <f aca="false">O41+1</f>
+        <v>130</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <f aca="false">O45-1</f>
+        <v>129</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <f aca="false">O45+1</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5" t="n">
+        <f aca="false">D42+1</f>
+        <v>10</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F46" s="0" t="str">
+        <f aca="false">CONCATENATE($O46,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="G46" s="0" t="str">
+        <f aca="false">CONCATENATE($P46,"_1")</f>
+        <v>129_1</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <f aca="false">O42+1</f>
+        <v>130</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <f aca="false">O46-1</f>
+        <v>129</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <f aca="false">O46+1</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B47" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5" t="n">
+        <f aca="false">D43+1</f>
+        <v>10</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F47" s="0" t="str">
+        <f aca="false">CONCATENATE($O47,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="G47" s="0" t="str">
+        <f aca="false">CONCATENATE($P47,"_1")</f>
+        <v>129_1</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <f aca="false">O43+1</f>
+        <v>130</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <f aca="false">O47-1</f>
+        <v>129</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <f aca="false">O47+1</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="5" t="n">
+        <f aca="false">D44+1</f>
+        <v>10</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F48" s="0" t="str">
+        <f aca="false">CONCATENATE($O48,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="G48" s="0" t="str">
+        <f aca="false">CONCATENATE($P48,"_1")</f>
+        <v>129_1</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <f aca="false">O44+1</f>
+        <v>130</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <f aca="false">O48-1</f>
+        <v>129</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <f aca="false">O48+1</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="C49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5" t="n">
+        <f aca="false">D45+1</f>
+        <v>11</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G49" s="0" t="str">
+        <f aca="false">CONCATENATE($P49,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <f aca="false">O45+1</f>
+        <v>131</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <f aca="false">O49-1</f>
+        <v>130</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <f aca="false">O49+1</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5" t="n">
+        <f aca="false">D46+1</f>
+        <v>11</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G50" s="0" t="str">
+        <f aca="false">CONCATENATE($P50,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <f aca="false">O46+1</f>
+        <v>131</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <f aca="false">O50-1</f>
+        <v>130</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <f aca="false">O50+1</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="C51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5" t="n">
+        <f aca="false">D47+1</f>
+        <v>11</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G51" s="0" t="str">
+        <f aca="false">CONCATENATE($P51,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <f aca="false">O47+1</f>
+        <v>131</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <f aca="false">O51-1</f>
+        <v>130</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <f aca="false">O51+1</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="5" t="n">
+        <f aca="false">D48+1</f>
+        <v>11</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G52" s="0" t="str">
+        <f aca="false">CONCATENATE($P52,"_1")</f>
+        <v>130_1</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <f aca="false">O48+1</f>
+        <v>131</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <f aca="false">O52-1</f>
+        <v>130</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <f aca="false">O52+1</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="C53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="5" t="n">
+        <f aca="false">D49+1</f>
+        <v>12</v>
+      </c>
+      <c r="E53" s="0" t="s">
         <v>1528</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="F53" s="0" t="str">
+        <f aca="false">CONCATENATE($O53,"_1")</f>
+        <v>132_1</v>
+      </c>
+      <c r="H53" s="0" t="str">
+        <f aca="false">CONCATENATE($Q53,"_1")</f>
+        <v>133_1</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <f aca="false">O49+1</f>
+        <v>132</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <f aca="false">O53-1</f>
+        <v>131</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <f aca="false">O53+1</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="C54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="5" t="n">
+        <f aca="false">D50+1</f>
+        <v>12</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F54" s="0" t="str">
+        <f aca="false">CONCATENATE($O54,"_1")</f>
+        <v>132_1</v>
+      </c>
+      <c r="H54" s="0" t="str">
+        <f aca="false">CONCATENATE($Q54,"_1")</f>
+        <v>133_1</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <f aca="false">O50+1</f>
+        <v>132</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <f aca="false">O54-1</f>
+        <v>131</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <f aca="false">O54+1</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="5" t="n">
+        <f aca="false">D51+1</f>
+        <v>12</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F55" s="0" t="str">
+        <f aca="false">CONCATENATE($O55,"_1")</f>
+        <v>132_1</v>
+      </c>
+      <c r="H55" s="0" t="str">
+        <f aca="false">CONCATENATE($Q55,"_1")</f>
+        <v>133_1</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <f aca="false">O51+1</f>
+        <v>132</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <f aca="false">O55-1</f>
+        <v>131</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <f aca="false">O55+1</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="C56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="5" t="n">
+        <f aca="false">D52+1</f>
+        <v>12</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F56" s="0" t="str">
+        <f aca="false">CONCATENATE($O56,"_1")</f>
+        <v>132_1</v>
+      </c>
+      <c r="H56" s="0" t="str">
+        <f aca="false">CONCATENATE($Q56,"_1")</f>
+        <v>133_1</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <f aca="false">O52+1</f>
+        <v>132</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <f aca="false">O56-1</f>
+        <v>131</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <f aca="false">O56+1</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="C57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="5" t="n">
+        <f aca="false">D53+1</f>
+        <v>13</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F57" s="0" t="str">
+        <f aca="false">CONCATENATE($O57,"_1")</f>
+        <v>133_1</v>
+      </c>
+      <c r="G57" s="0" t="str">
+        <f aca="false">CONCATENATE($P57,"_1")</f>
+        <v>132_1</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <f aca="false">O53+1</f>
+        <v>133</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <f aca="false">O57-1</f>
+        <v>132</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <f aca="false">O57+1</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="C58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="5" t="n">
+        <f aca="false">D54+1</f>
+        <v>13</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F58" s="0" t="str">
+        <f aca="false">CONCATENATE($O58,"_1")</f>
+        <v>133_1</v>
+      </c>
+      <c r="G58" s="0" t="str">
+        <f aca="false">CONCATENATE($P58,"_1")</f>
+        <v>132_1</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <f aca="false">O54+1</f>
+        <v>133</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <f aca="false">O58-1</f>
+        <v>132</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <f aca="false">O58+1</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="C59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="5" t="n">
+        <f aca="false">D55+1</f>
+        <v>13</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F59" s="0" t="str">
+        <f aca="false">CONCATENATE($O59,"_1")</f>
+        <v>133_1</v>
+      </c>
+      <c r="G59" s="0" t="str">
+        <f aca="false">CONCATENATE($P59,"_1")</f>
+        <v>132_1</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <f aca="false">O55+1</f>
+        <v>133</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <f aca="false">O59-1</f>
+        <v>132</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <f aca="false">O59+1</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="C60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="5" t="n">
+        <f aca="false">D56+1</f>
+        <v>13</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F60" s="0" t="str">
+        <f aca="false">CONCATENATE($O60,"_1")</f>
+        <v>133_1</v>
+      </c>
+      <c r="G60" s="0" t="str">
+        <f aca="false">CONCATENATE($P60,"_1")</f>
+        <v>132_1</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <f aca="false">O56+1</f>
+        <v>133</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <f aca="false">O60-1</f>
+        <v>132</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <f aca="false">O60+1</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="C61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="5" t="n">
+        <f aca="false">D57+1</f>
+        <v>14</v>
+      </c>
+      <c r="E61" s="0" t="s">
         <v>1529</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="G61" s="0" t="str">
+        <f aca="false">CONCATENATE($P61,"_1")</f>
+        <v>133_1</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <f aca="false">O57+1</f>
+        <v>134</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <f aca="false">O61-1</f>
+        <v>133</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <f aca="false">O61+1</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="C62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" s="5" t="n">
+        <f aca="false">D58+1</f>
+        <v>14</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G62" s="0" t="str">
+        <f aca="false">CONCATENATE($P62,"_1")</f>
+        <v>133_1</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <f aca="false">O58+1</f>
+        <v>134</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <f aca="false">O62-1</f>
+        <v>133</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <f aca="false">O62+1</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="C63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5" t="n">
+        <f aca="false">D59+1</f>
+        <v>14</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G63" s="0" t="str">
+        <f aca="false">CONCATENATE($P63,"_1")</f>
+        <v>133_1</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <f aca="false">O59+1</f>
+        <v>134</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <f aca="false">O63-1</f>
+        <v>133</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <f aca="false">O63+1</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B64" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="C64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" s="5" t="n">
+        <f aca="false">D60+1</f>
+        <v>14</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G64" s="0" t="str">
+        <f aca="false">CONCATENATE($P64,"_1")</f>
+        <v>133_1</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <f aca="false">O60+1</f>
+        <v>134</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <f aca="false">O64-1</f>
+        <v>133</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <f aca="false">O64+1</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="C65" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" s="5" t="n">
+        <f aca="false">D61+1</f>
+        <v>15</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>1529</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <f aca="false">O61+1</f>
+        <v>135</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <f aca="false">O65-1</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B66" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="C66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" s="5" t="n">
+        <f aca="false">D62+1</f>
+        <v>15</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>1529</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <f aca="false">O62+1</f>
+        <v>135</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <f aca="false">O66-1</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B67" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="C67" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" s="5" t="n">
+        <f aca="false">D63+1</f>
+        <v>15</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>1529</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <f aca="false">O63+1</f>
+        <v>135</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <f aca="false">O67-1</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" s="5" t="n">
+        <f aca="false">D64+1</f>
+        <v>15</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>1529</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <f aca="false">O64+1</f>
+        <v>135</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <f aca="false">O68-1</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="0" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="H69" s="0" t="str">
+        <f aca="false">CONCATENATE($Q69,"_1")</f>
+        <v>221_1</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="Q69" s="0" t="n">
+        <f aca="false">O69+1</f>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H70" s="0" t="str">
+        <f aca="false">CONCATENATE($Q70,"_1")</f>
+        <v>221_1</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <f aca="false">O69</f>
+        <v>220</v>
+      </c>
+      <c r="Q70" s="0" t="n">
+        <f aca="false">O70+1</f>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H71" s="0" t="str">
+        <f aca="false">CONCATENATE($Q71,"_1")</f>
+        <v>221_1</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <f aca="false">O70</f>
+        <v>220</v>
+      </c>
+      <c r="Q71" s="0" t="n">
+        <f aca="false">O71+1</f>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C72" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H72" s="0" t="str">
+        <f aca="false">CONCATENATE($Q72,"_1")</f>
+        <v>221_1</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <f aca="false">O71</f>
+        <v>220</v>
+      </c>
+      <c r="Q72" s="0" t="n">
+        <f aca="false">O72+1</f>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5" t="n">
+        <f aca="false">D69+1</f>
+        <v>1</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F73" s="0" t="str">
+        <f aca="false">CONCATENATE($O73,"_1")</f>
+        <v>221_1</v>
+      </c>
+      <c r="H73" s="0" t="str">
+        <f aca="false">CONCATENATE($Q73,"_1")</f>
+        <v>222_1</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <f aca="false">O69+1</f>
+        <v>221</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <f aca="false">O73-1</f>
+        <v>220</v>
+      </c>
+      <c r="Q73" s="0" t="n">
+        <f aca="false">O73+1</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C74" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5" t="n">
+        <f aca="false">D70+1</f>
+        <v>1</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F74" s="0" t="str">
+        <f aca="false">CONCATENATE($O74,"_1")</f>
+        <v>221_1</v>
+      </c>
+      <c r="H74" s="0" t="str">
+        <f aca="false">CONCATENATE($Q74,"_1")</f>
+        <v>222_1</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <f aca="false">O70+1</f>
+        <v>221</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <f aca="false">O74-1</f>
+        <v>220</v>
+      </c>
+      <c r="Q74" s="0" t="n">
+        <f aca="false">O74+1</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C75" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5" t="n">
+        <f aca="false">D71+1</f>
+        <v>1</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F75" s="0" t="str">
+        <f aca="false">CONCATENATE($O75,"_1")</f>
+        <v>221_1</v>
+      </c>
+      <c r="H75" s="0" t="str">
+        <f aca="false">CONCATENATE($Q75,"_1")</f>
+        <v>222_1</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <f aca="false">O71+1</f>
+        <v>221</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <f aca="false">O75-1</f>
+        <v>220</v>
+      </c>
+      <c r="Q75" s="0" t="n">
+        <f aca="false">O75+1</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C76" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5" t="n">
+        <f aca="false">D72+1</f>
+        <v>1</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F76" s="0" t="str">
+        <f aca="false">CONCATENATE($O76,"_1")</f>
+        <v>221_1</v>
+      </c>
+      <c r="H76" s="0" t="str">
+        <f aca="false">CONCATENATE($Q76,"_1")</f>
+        <v>222_1</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <f aca="false">O72+1</f>
+        <v>221</v>
+      </c>
+      <c r="P76" s="0" t="n">
+        <f aca="false">O76-1</f>
+        <v>220</v>
+      </c>
+      <c r="Q76" s="0" t="n">
+        <f aca="false">O76+1</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C77" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5" t="n">
+        <f aca="false">D73+1</f>
+        <v>2</v>
+      </c>
+      <c r="E77" s="0" t="s">
         <v>1531</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="F77" s="0" t="str">
+        <f aca="false">CONCATENATE($O77,"_1")</f>
+        <v>222_1</v>
+      </c>
+      <c r="G77" s="0" t="str">
+        <f aca="false">CONCATENATE($P77,"_1")</f>
+        <v>221_1</v>
+      </c>
+      <c r="O77" s="0" t="n">
+        <f aca="false">O73+1</f>
+        <v>222</v>
+      </c>
+      <c r="P77" s="0" t="n">
+        <f aca="false">O77-1</f>
+        <v>221</v>
+      </c>
+      <c r="Q77" s="0" t="n">
+        <f aca="false">O77+1</f>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C78" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5" t="n">
+        <f aca="false">D74+1</f>
+        <v>2</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F78" s="0" t="str">
+        <f aca="false">CONCATENATE($O78,"_1")</f>
+        <v>222_1</v>
+      </c>
+      <c r="G78" s="0" t="str">
+        <f aca="false">CONCATENATE($P78,"_1")</f>
+        <v>221_1</v>
+      </c>
+      <c r="O78" s="0" t="n">
+        <f aca="false">O74+1</f>
+        <v>222</v>
+      </c>
+      <c r="P78" s="0" t="n">
+        <f aca="false">O78-1</f>
+        <v>221</v>
+      </c>
+      <c r="Q78" s="0" t="n">
+        <f aca="false">O78+1</f>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C79" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5" t="n">
+        <f aca="false">D75+1</f>
+        <v>2</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F79" s="0" t="str">
+        <f aca="false">CONCATENATE($O79,"_1")</f>
+        <v>222_1</v>
+      </c>
+      <c r="G79" s="0" t="str">
+        <f aca="false">CONCATENATE($P79,"_1")</f>
+        <v>221_1</v>
+      </c>
+      <c r="O79" s="0" t="n">
+        <f aca="false">O75+1</f>
+        <v>222</v>
+      </c>
+      <c r="P79" s="0" t="n">
+        <f aca="false">O79-1</f>
+        <v>221</v>
+      </c>
+      <c r="Q79" s="0" t="n">
+        <f aca="false">O79+1</f>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C80" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" s="5" t="n">
+        <f aca="false">D76+1</f>
+        <v>2</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F80" s="0" t="str">
+        <f aca="false">CONCATENATE($O80,"_1")</f>
+        <v>222_1</v>
+      </c>
+      <c r="G80" s="0" t="str">
+        <f aca="false">CONCATENATE($P80,"_1")</f>
+        <v>221_1</v>
+      </c>
+      <c r="O80" s="0" t="n">
+        <f aca="false">O76+1</f>
+        <v>222</v>
+      </c>
+      <c r="P80" s="0" t="n">
+        <f aca="false">O80-1</f>
+        <v>221</v>
+      </c>
+      <c r="Q80" s="0" t="n">
+        <f aca="false">O80+1</f>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C81" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5" t="n">
+        <f aca="false">D77+1</f>
+        <v>3</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G81" s="0" t="str">
+        <f aca="false">CONCATENATE($P81,"_1")</f>
+        <v>222_1</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <f aca="false">O77+1</f>
+        <v>223</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <f aca="false">O81-1</f>
+        <v>222</v>
+      </c>
+      <c r="Q81" s="0" t="n">
+        <f aca="false">O81+1</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C82" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5" t="n">
+        <f aca="false">D78+1</f>
+        <v>3</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G82" s="0" t="str">
+        <f aca="false">CONCATENATE($P82,"_1")</f>
+        <v>222_1</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <f aca="false">O78+1</f>
+        <v>223</v>
+      </c>
+      <c r="P82" s="0" t="n">
+        <f aca="false">O82-1</f>
+        <v>222</v>
+      </c>
+      <c r="Q82" s="0" t="n">
+        <f aca="false">O82+1</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C83" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5" t="n">
+        <f aca="false">D79+1</f>
+        <v>3</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G83" s="0" t="str">
+        <f aca="false">CONCATENATE($P83,"_1")</f>
+        <v>222_1</v>
+      </c>
+      <c r="O83" s="0" t="n">
+        <f aca="false">O79+1</f>
+        <v>223</v>
+      </c>
+      <c r="P83" s="0" t="n">
+        <f aca="false">O83-1</f>
+        <v>222</v>
+      </c>
+      <c r="Q83" s="0" t="n">
+        <f aca="false">O83+1</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C84" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5" t="n">
+        <f aca="false">D80+1</f>
+        <v>3</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G84" s="0" t="str">
+        <f aca="false">CONCATENATE($P84,"_1")</f>
+        <v>222_1</v>
+      </c>
+      <c r="O84" s="0" t="n">
+        <f aca="false">O80+1</f>
+        <v>223</v>
+      </c>
+      <c r="P84" s="0" t="n">
+        <f aca="false">O84-1</f>
+        <v>222</v>
+      </c>
+      <c r="Q84" s="0" t="n">
+        <f aca="false">O84+1</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C85" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" s="5" t="n">
+        <f aca="false">D81+1</f>
+        <v>4</v>
+      </c>
+      <c r="E85" s="0" t="s">
         <v>1532</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="H85" s="0" t="str">
+        <f aca="false">CONCATENATE($Q85,"_1")</f>
+        <v>225_1</v>
+      </c>
+      <c r="O85" s="0" t="n">
+        <f aca="false">O81+1</f>
+        <v>224</v>
+      </c>
+      <c r="P85" s="0" t="n">
+        <f aca="false">O85-1</f>
+        <v>223</v>
+      </c>
+      <c r="Q85" s="0" t="n">
+        <f aca="false">O85+1</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="C86" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5" t="n">
+        <f aca="false">D82+1</f>
+        <v>4</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H86" s="0" t="str">
+        <f aca="false">CONCATENATE($Q86,"_1")</f>
+        <v>225_1</v>
+      </c>
+      <c r="O86" s="0" t="n">
+        <f aca="false">O82+1</f>
+        <v>224</v>
+      </c>
+      <c r="P86" s="0" t="n">
+        <f aca="false">O86-1</f>
+        <v>223</v>
+      </c>
+      <c r="Q86" s="0" t="n">
+        <f aca="false">O86+1</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C87" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5" t="n">
+        <f aca="false">D83+1</f>
+        <v>4</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H87" s="0" t="str">
+        <f aca="false">CONCATENATE($Q87,"_1")</f>
+        <v>225_1</v>
+      </c>
+      <c r="O87" s="0" t="n">
+        <f aca="false">O83+1</f>
+        <v>224</v>
+      </c>
+      <c r="P87" s="0" t="n">
+        <f aca="false">O87-1</f>
+        <v>223</v>
+      </c>
+      <c r="Q87" s="0" t="n">
+        <f aca="false">O87+1</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B88" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C88" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5" t="n">
+        <f aca="false">D84+1</f>
+        <v>4</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H88" s="0" t="str">
+        <f aca="false">CONCATENATE($Q88,"_1")</f>
+        <v>225_1</v>
+      </c>
+      <c r="O88" s="0" t="n">
+        <f aca="false">O84+1</f>
+        <v>224</v>
+      </c>
+      <c r="P88" s="0" t="n">
+        <f aca="false">O88-1</f>
+        <v>223</v>
+      </c>
+      <c r="Q88" s="0" t="n">
+        <f aca="false">O88+1</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B89" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C89" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" s="5" t="n">
+        <f aca="false">D85+1</f>
+        <v>5</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F89" s="0" t="str">
+        <f aca="false">CONCATENATE($O89,"_1")</f>
+        <v>225_1</v>
+      </c>
+      <c r="H89" s="0" t="str">
+        <f aca="false">CONCATENATE($Q89,"_1")</f>
+        <v>226_1</v>
+      </c>
+      <c r="O89" s="0" t="n">
+        <f aca="false">O85+1</f>
+        <v>225</v>
+      </c>
+      <c r="P89" s="0" t="n">
+        <f aca="false">O89-1</f>
+        <v>224</v>
+      </c>
+      <c r="Q89" s="0" t="n">
+        <f aca="false">O89+1</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B90" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="C90" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" s="5" t="n">
+        <f aca="false">D86+1</f>
+        <v>5</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F90" s="0" t="str">
+        <f aca="false">CONCATENATE($O90,"_1")</f>
+        <v>225_1</v>
+      </c>
+      <c r="H90" s="0" t="str">
+        <f aca="false">CONCATENATE($Q90,"_1")</f>
+        <v>226_1</v>
+      </c>
+      <c r="O90" s="0" t="n">
+        <f aca="false">O86+1</f>
+        <v>225</v>
+      </c>
+      <c r="P90" s="0" t="n">
+        <f aca="false">O90-1</f>
+        <v>224</v>
+      </c>
+      <c r="Q90" s="0" t="n">
+        <f aca="false">O90+1</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C91" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" s="5" t="n">
+        <f aca="false">D87+1</f>
+        <v>5</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F91" s="0" t="str">
+        <f aca="false">CONCATENATE($O91,"_1")</f>
+        <v>225_1</v>
+      </c>
+      <c r="H91" s="0" t="str">
+        <f aca="false">CONCATENATE($Q91,"_1")</f>
+        <v>226_1</v>
+      </c>
+      <c r="O91" s="0" t="n">
+        <f aca="false">O87+1</f>
+        <v>225</v>
+      </c>
+      <c r="P91" s="0" t="n">
+        <f aca="false">O91-1</f>
+        <v>224</v>
+      </c>
+      <c r="Q91" s="0" t="n">
+        <f aca="false">O91+1</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B92" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C92" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" s="5" t="n">
+        <f aca="false">D88+1</f>
+        <v>5</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F92" s="0" t="str">
+        <f aca="false">CONCATENATE($O92,"_1")</f>
+        <v>225_1</v>
+      </c>
+      <c r="H92" s="0" t="str">
+        <f aca="false">CONCATENATE($Q92,"_1")</f>
+        <v>226_1</v>
+      </c>
+      <c r="O92" s="0" t="n">
+        <f aca="false">O88+1</f>
+        <v>225</v>
+      </c>
+      <c r="P92" s="0" t="n">
+        <f aca="false">O92-1</f>
+        <v>224</v>
+      </c>
+      <c r="Q92" s="0" t="n">
+        <f aca="false">O92+1</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B93" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C93" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5" t="n">
+        <f aca="false">D89+1</f>
+        <v>6</v>
+      </c>
+      <c r="E93" s="0" t="s">
         <v>1533</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="F93" s="0" t="str">
+        <f aca="false">CONCATENATE($O93,"_1")</f>
+        <v>226_1</v>
+      </c>
+      <c r="G93" s="0" t="str">
+        <f aca="false">CONCATENATE($P93,"_1")</f>
+        <v>225_1</v>
+      </c>
+      <c r="O93" s="0" t="n">
+        <f aca="false">O89+1</f>
+        <v>226</v>
+      </c>
+      <c r="P93" s="0" t="n">
+        <f aca="false">O93-1</f>
+        <v>225</v>
+      </c>
+      <c r="Q93" s="0" t="n">
+        <f aca="false">O93+1</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B94" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="C94" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" s="5" t="n">
+        <f aca="false">D90+1</f>
+        <v>6</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F94" s="0" t="str">
+        <f aca="false">CONCATENATE($O94,"_1")</f>
+        <v>226_1</v>
+      </c>
+      <c r="G94" s="0" t="str">
+        <f aca="false">CONCATENATE($P94,"_1")</f>
+        <v>225_1</v>
+      </c>
+      <c r="O94" s="0" t="n">
+        <f aca="false">O90+1</f>
+        <v>226</v>
+      </c>
+      <c r="P94" s="0" t="n">
+        <f aca="false">O94-1</f>
+        <v>225</v>
+      </c>
+      <c r="Q94" s="0" t="n">
+        <f aca="false">O94+1</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B95" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="C95" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" s="5" t="n">
+        <f aca="false">D91+1</f>
+        <v>6</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F95" s="0" t="str">
+        <f aca="false">CONCATENATE($O95,"_1")</f>
+        <v>226_1</v>
+      </c>
+      <c r="G95" s="0" t="str">
+        <f aca="false">CONCATENATE($P95,"_1")</f>
+        <v>225_1</v>
+      </c>
+      <c r="O95" s="0" t="n">
+        <f aca="false">O91+1</f>
+        <v>226</v>
+      </c>
+      <c r="P95" s="0" t="n">
+        <f aca="false">O95-1</f>
+        <v>225</v>
+      </c>
+      <c r="Q95" s="0" t="n">
+        <f aca="false">O95+1</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B96" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="C96" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" s="5" t="n">
+        <f aca="false">D92+1</f>
+        <v>6</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F96" s="0" t="str">
+        <f aca="false">CONCATENATE($O96,"_1")</f>
+        <v>226_1</v>
+      </c>
+      <c r="G96" s="0" t="str">
+        <f aca="false">CONCATENATE($P96,"_1")</f>
+        <v>225_1</v>
+      </c>
+      <c r="O96" s="0" t="n">
+        <f aca="false">O92+1</f>
+        <v>226</v>
+      </c>
+      <c r="P96" s="0" t="n">
+        <f aca="false">O96-1</f>
+        <v>225</v>
+      </c>
+      <c r="Q96" s="0" t="n">
+        <f aca="false">O96+1</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B97" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="C97" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" s="5" t="n">
+        <f aca="false">D93+1</f>
+        <v>7</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G97" s="0" t="str">
+        <f aca="false">CONCATENATE($P97,"_1")</f>
+        <v>226_1</v>
+      </c>
+      <c r="O97" s="0" t="n">
+        <f aca="false">O93+1</f>
+        <v>227</v>
+      </c>
+      <c r="P97" s="0" t="n">
+        <f aca="false">O97-1</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B98" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="C98" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" s="5" t="n">
+        <f aca="false">D94+1</f>
+        <v>7</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G98" s="0" t="str">
+        <f aca="false">CONCATENATE($P98,"_1")</f>
+        <v>226_1</v>
+      </c>
+      <c r="O98" s="0" t="n">
+        <f aca="false">O94+1</f>
+        <v>227</v>
+      </c>
+      <c r="P98" s="0" t="n">
+        <f aca="false">O98-1</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B99" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="C99" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" s="5" t="n">
+        <f aca="false">D95+1</f>
+        <v>7</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G99" s="0" t="str">
+        <f aca="false">CONCATENATE($P99,"_1")</f>
+        <v>226_1</v>
+      </c>
+      <c r="O99" s="0" t="n">
+        <f aca="false">O95+1</f>
+        <v>227</v>
+      </c>
+      <c r="P99" s="0" t="n">
+        <f aca="false">O99-1</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B100" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="C100" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" s="5" t="n">
+        <f aca="false">D96+1</f>
+        <v>7</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G100" s="0" t="str">
+        <f aca="false">CONCATENATE($P100,"_1")</f>
+        <v>226_1</v>
+      </c>
+      <c r="O100" s="0" t="n">
+        <f aca="false">O96+1</f>
+        <v>227</v>
+      </c>
+      <c r="P100" s="0" t="n">
+        <f aca="false">O100-1</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="C101" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" s="5" t="n">
+        <f aca="false">D97+1</f>
+        <v>8</v>
+      </c>
+      <c r="E101" s="0" t="s">
         <v>1534</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="H101" s="0" t="str">
+        <f aca="false">CONCATENATE($Q101,"_1")</f>
+        <v>229_1</v>
+      </c>
+      <c r="O101" s="0" t="n">
+        <f aca="false">O97+1</f>
+        <v>228</v>
+      </c>
+      <c r="Q101" s="0" t="n">
+        <f aca="false">O101+1</f>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="C102" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" s="5" t="n">
+        <f aca="false">D98+1</f>
+        <v>8</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H102" s="0" t="str">
+        <f aca="false">CONCATENATE($Q102,"_1")</f>
+        <v>229_1</v>
+      </c>
+      <c r="O102" s="0" t="n">
+        <f aca="false">O98+1</f>
+        <v>228</v>
+      </c>
+      <c r="Q102" s="0" t="n">
+        <f aca="false">O102+1</f>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="C103" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" s="5" t="n">
+        <f aca="false">D99+1</f>
+        <v>8</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H103" s="0" t="str">
+        <f aca="false">CONCATENATE($Q103,"_1")</f>
+        <v>229_1</v>
+      </c>
+      <c r="O103" s="0" t="n">
+        <f aca="false">O99+1</f>
+        <v>228</v>
+      </c>
+      <c r="Q103" s="0" t="n">
+        <f aca="false">O103+1</f>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B104" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="C104" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" s="5" t="n">
+        <f aca="false">D100+1</f>
+        <v>8</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H104" s="0" t="str">
+        <f aca="false">CONCATENATE($Q104,"_1")</f>
+        <v>229_1</v>
+      </c>
+      <c r="O104" s="0" t="n">
+        <f aca="false">O100+1</f>
+        <v>228</v>
+      </c>
+      <c r="Q104" s="0" t="n">
+        <f aca="false">O104+1</f>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="C105" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" s="5" t="n">
+        <f aca="false">D101+1</f>
+        <v>9</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F105" s="0" t="str">
+        <f aca="false">CONCATENATE($O105,"_1")</f>
+        <v>229_1</v>
+      </c>
+      <c r="H105" s="0" t="str">
+        <f aca="false">CONCATENATE($Q105,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="O105" s="0" t="n">
+        <f aca="false">O101+1</f>
+        <v>229</v>
+      </c>
+      <c r="P105" s="0" t="n">
+        <f aca="false">O105-1</f>
+        <v>228</v>
+      </c>
+      <c r="Q105" s="0" t="n">
+        <f aca="false">O105+1</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B106" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="C106" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" s="5" t="n">
+        <f aca="false">D102+1</f>
+        <v>9</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F106" s="0" t="str">
+        <f aca="false">CONCATENATE($O106,"_1")</f>
+        <v>229_1</v>
+      </c>
+      <c r="H106" s="0" t="str">
+        <f aca="false">CONCATENATE($Q106,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="O106" s="0" t="n">
+        <f aca="false">O102+1</f>
+        <v>229</v>
+      </c>
+      <c r="P106" s="0" t="n">
+        <f aca="false">O106-1</f>
+        <v>228</v>
+      </c>
+      <c r="Q106" s="0" t="n">
+        <f aca="false">O106+1</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B107" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C107" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" s="5" t="n">
+        <f aca="false">D103+1</f>
+        <v>9</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F107" s="0" t="str">
+        <f aca="false">CONCATENATE($O107,"_1")</f>
+        <v>229_1</v>
+      </c>
+      <c r="H107" s="0" t="str">
+        <f aca="false">CONCATENATE($Q107,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="O107" s="0" t="n">
+        <f aca="false">O103+1</f>
+        <v>229</v>
+      </c>
+      <c r="P107" s="0" t="n">
+        <f aca="false">O107-1</f>
+        <v>228</v>
+      </c>
+      <c r="Q107" s="0" t="n">
+        <f aca="false">O107+1</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B108" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="C108" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" s="5" t="n">
+        <f aca="false">D104+1</f>
+        <v>9</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F108" s="0" t="str">
+        <f aca="false">CONCATENATE($O108,"_1")</f>
+        <v>229_1</v>
+      </c>
+      <c r="H108" s="0" t="str">
+        <f aca="false">CONCATENATE($Q108,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="O108" s="0" t="n">
+        <f aca="false">O104+1</f>
+        <v>229</v>
+      </c>
+      <c r="P108" s="0" t="n">
+        <f aca="false">O108-1</f>
+        <v>228</v>
+      </c>
+      <c r="Q108" s="0" t="n">
+        <f aca="false">O108+1</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B109" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="C109" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" s="5" t="n">
+        <f aca="false">D105+1</f>
+        <v>10</v>
+      </c>
+      <c r="E109" s="0" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="F109" s="0" t="str">
+        <f aca="false">CONCATENATE($O109,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="G109" s="0" t="str">
+        <f aca="false">CONCATENATE($P109,"_1")</f>
+        <v>229_1</v>
+      </c>
+      <c r="O109" s="0" t="n">
+        <f aca="false">O105+1</f>
+        <v>230</v>
+      </c>
+      <c r="P109" s="0" t="n">
+        <f aca="false">O109-1</f>
+        <v>229</v>
+      </c>
+      <c r="Q109" s="0" t="n">
+        <f aca="false">O109+1</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B110" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="C110" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" s="5" t="n">
+        <f aca="false">D106+1</f>
+        <v>10</v>
+      </c>
+      <c r="E110" s="0" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="F110" s="0" t="str">
+        <f aca="false">CONCATENATE($O110,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="G110" s="0" t="str">
+        <f aca="false">CONCATENATE($P110,"_1")</f>
+        <v>229_1</v>
+      </c>
+      <c r="O110" s="0" t="n">
+        <f aca="false">O106+1</f>
+        <v>230</v>
+      </c>
+      <c r="P110" s="0" t="n">
+        <f aca="false">O110-1</f>
+        <v>229</v>
+      </c>
+      <c r="Q110" s="0" t="n">
+        <f aca="false">O110+1</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B111" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="C111" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" s="5" t="n">
+        <f aca="false">D107+1</f>
+        <v>10</v>
+      </c>
+      <c r="E111" s="0" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="F111" s="0" t="str">
+        <f aca="false">CONCATENATE($O111,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="G111" s="0" t="str">
+        <f aca="false">CONCATENATE($P111,"_1")</f>
+        <v>229_1</v>
+      </c>
+      <c r="O111" s="0" t="n">
+        <f aca="false">O107+1</f>
+        <v>230</v>
+      </c>
+      <c r="P111" s="0" t="n">
+        <f aca="false">O111-1</f>
+        <v>229</v>
+      </c>
+      <c r="Q111" s="0" t="n">
+        <f aca="false">O111+1</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B112" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="C112" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" s="5" t="n">
+        <f aca="false">D108+1</f>
+        <v>10</v>
+      </c>
+      <c r="E112" s="0" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="F112" s="0" t="str">
+        <f aca="false">CONCATENATE($O112,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="G112" s="0" t="str">
+        <f aca="false">CONCATENATE($P112,"_1")</f>
+        <v>229_1</v>
+      </c>
+      <c r="O112" s="0" t="n">
+        <f aca="false">O108+1</f>
+        <v>230</v>
+      </c>
+      <c r="P112" s="0" t="n">
+        <f aca="false">O112-1</f>
+        <v>229</v>
+      </c>
+      <c r="Q112" s="0" t="n">
+        <f aca="false">O112+1</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B113" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="C113" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" s="5" t="n">
+        <f aca="false">D109+1</f>
+        <v>11</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G113" s="0" t="str">
+        <f aca="false">CONCATENATE($P113,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="O113" s="0" t="n">
+        <f aca="false">O109+1</f>
+        <v>231</v>
+      </c>
+      <c r="P113" s="0" t="n">
+        <f aca="false">O113-1</f>
+        <v>230</v>
+      </c>
+      <c r="Q113" s="0" t="n">
+        <f aca="false">O113+1</f>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B114" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="C114" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" s="5" t="n">
+        <f aca="false">D110+1</f>
+        <v>11</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G114" s="0" t="str">
+        <f aca="false">CONCATENATE($P114,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="O114" s="0" t="n">
+        <f aca="false">O110+1</f>
+        <v>231</v>
+      </c>
+      <c r="P114" s="0" t="n">
+        <f aca="false">O114-1</f>
+        <v>230</v>
+      </c>
+      <c r="Q114" s="0" t="n">
+        <f aca="false">O114+1</f>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B115" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="C115" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" s="5" t="n">
+        <f aca="false">D111+1</f>
+        <v>11</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G115" s="0" t="str">
+        <f aca="false">CONCATENATE($P115,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="O115" s="0" t="n">
+        <f aca="false">O111+1</f>
+        <v>231</v>
+      </c>
+      <c r="P115" s="0" t="n">
+        <f aca="false">O115-1</f>
+        <v>230</v>
+      </c>
+      <c r="Q115" s="0" t="n">
+        <f aca="false">O115+1</f>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B116" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="C116" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" s="5" t="n">
+        <f aca="false">D112+1</f>
+        <v>11</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G116" s="0" t="str">
+        <f aca="false">CONCATENATE($P116,"_1")</f>
+        <v>230_1</v>
+      </c>
+      <c r="O116" s="0" t="n">
+        <f aca="false">O112+1</f>
+        <v>231</v>
+      </c>
+      <c r="P116" s="0" t="n">
+        <f aca="false">O116-1</f>
+        <v>230</v>
+      </c>
+      <c r="Q116" s="0" t="n">
+        <f aca="false">O116+1</f>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B117" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="C117" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" s="5" t="n">
+        <f aca="false">D113+1</f>
+        <v>12</v>
+      </c>
+      <c r="E117" s="0" t="s">
         <v>1536</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="F117" s="0" t="str">
+        <f aca="false">CONCATENATE($O117,"_1")</f>
+        <v>232_1</v>
+      </c>
+      <c r="H117" s="0" t="str">
+        <f aca="false">CONCATENATE($Q117,"_1")</f>
+        <v>233_1</v>
+      </c>
+      <c r="O117" s="0" t="n">
+        <f aca="false">O113+1</f>
+        <v>232</v>
+      </c>
+      <c r="P117" s="0" t="n">
+        <f aca="false">O117-1</f>
+        <v>231</v>
+      </c>
+      <c r="Q117" s="0" t="n">
+        <f aca="false">O117+1</f>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B118" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="C118" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" s="5" t="n">
+        <f aca="false">D114+1</f>
+        <v>12</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F118" s="0" t="str">
+        <f aca="false">CONCATENATE($O118,"_1")</f>
+        <v>232_1</v>
+      </c>
+      <c r="H118" s="0" t="str">
+        <f aca="false">CONCATENATE($Q118,"_1")</f>
+        <v>233_1</v>
+      </c>
+      <c r="O118" s="0" t="n">
+        <f aca="false">O114+1</f>
+        <v>232</v>
+      </c>
+      <c r="P118" s="0" t="n">
+        <f aca="false">O118-1</f>
+        <v>231</v>
+      </c>
+      <c r="Q118" s="0" t="n">
+        <f aca="false">O118+1</f>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B119" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C119" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" s="5" t="n">
+        <f aca="false">D115+1</f>
+        <v>12</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F119" s="0" t="str">
+        <f aca="false">CONCATENATE($O119,"_1")</f>
+        <v>232_1</v>
+      </c>
+      <c r="H119" s="0" t="str">
+        <f aca="false">CONCATENATE($Q119,"_1")</f>
+        <v>233_1</v>
+      </c>
+      <c r="O119" s="0" t="n">
+        <f aca="false">O115+1</f>
+        <v>232</v>
+      </c>
+      <c r="P119" s="0" t="n">
+        <f aca="false">O119-1</f>
+        <v>231</v>
+      </c>
+      <c r="Q119" s="0" t="n">
+        <f aca="false">O119+1</f>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B120" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="C120" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" s="5" t="n">
+        <f aca="false">D116+1</f>
+        <v>12</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F120" s="0" t="str">
+        <f aca="false">CONCATENATE($O120,"_1")</f>
+        <v>232_1</v>
+      </c>
+      <c r="H120" s="0" t="str">
+        <f aca="false">CONCATENATE($Q120,"_1")</f>
+        <v>233_1</v>
+      </c>
+      <c r="O120" s="0" t="n">
+        <f aca="false">O116+1</f>
+        <v>232</v>
+      </c>
+      <c r="P120" s="0" t="n">
+        <f aca="false">O120-1</f>
+        <v>231</v>
+      </c>
+      <c r="Q120" s="0" t="n">
+        <f aca="false">O120+1</f>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B121" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="C121" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" s="5" t="n">
+        <f aca="false">D117+1</f>
+        <v>13</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F121" s="0" t="str">
+        <f aca="false">CONCATENATE($O121,"_1")</f>
+        <v>233_1</v>
+      </c>
+      <c r="G121" s="0" t="str">
+        <f aca="false">CONCATENATE($P121,"_1")</f>
+        <v>232_1</v>
+      </c>
+      <c r="O121" s="0" t="n">
+        <f aca="false">O117+1</f>
+        <v>233</v>
+      </c>
+      <c r="P121" s="0" t="n">
+        <f aca="false">O121-1</f>
+        <v>232</v>
+      </c>
+      <c r="Q121" s="0" t="n">
+        <f aca="false">O121+1</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B122" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="C122" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" s="5" t="n">
+        <f aca="false">D118+1</f>
+        <v>13</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F122" s="0" t="str">
+        <f aca="false">CONCATENATE($O122,"_1")</f>
+        <v>233_1</v>
+      </c>
+      <c r="G122" s="0" t="str">
+        <f aca="false">CONCATENATE($P122,"_1")</f>
+        <v>232_1</v>
+      </c>
+      <c r="O122" s="0" t="n">
+        <f aca="false">O118+1</f>
+        <v>233</v>
+      </c>
+      <c r="P122" s="0" t="n">
+        <f aca="false">O122-1</f>
+        <v>232</v>
+      </c>
+      <c r="Q122" s="0" t="n">
+        <f aca="false">O122+1</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B123" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="C123" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" s="5" t="n">
+        <f aca="false">D119+1</f>
+        <v>13</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F123" s="0" t="str">
+        <f aca="false">CONCATENATE($O123,"_1")</f>
+        <v>233_1</v>
+      </c>
+      <c r="G123" s="0" t="str">
+        <f aca="false">CONCATENATE($P123,"_1")</f>
+        <v>232_1</v>
+      </c>
+      <c r="O123" s="0" t="n">
+        <f aca="false">O119+1</f>
+        <v>233</v>
+      </c>
+      <c r="P123" s="0" t="n">
+        <f aca="false">O123-1</f>
+        <v>232</v>
+      </c>
+      <c r="Q123" s="0" t="n">
+        <f aca="false">O123+1</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B124" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="C124" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" s="5" t="n">
+        <f aca="false">D120+1</f>
+        <v>13</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F124" s="0" t="str">
+        <f aca="false">CONCATENATE($O124,"_1")</f>
+        <v>233_1</v>
+      </c>
+      <c r="G124" s="0" t="str">
+        <f aca="false">CONCATENATE($P124,"_1")</f>
+        <v>232_1</v>
+      </c>
+      <c r="O124" s="0" t="n">
+        <f aca="false">O120+1</f>
+        <v>233</v>
+      </c>
+      <c r="P124" s="0" t="n">
+        <f aca="false">O124-1</f>
+        <v>232</v>
+      </c>
+      <c r="Q124" s="0" t="n">
+        <f aca="false">O124+1</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B125" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="C125" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" s="5" t="n">
+        <f aca="false">D121+1</f>
+        <v>14</v>
+      </c>
+      <c r="E125" s="0" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="G125" s="0" t="str">
+        <f aca="false">CONCATENATE($P125,"_1")</f>
+        <v>233_1</v>
+      </c>
+      <c r="O125" s="0" t="n">
+        <f aca="false">O121+1</f>
+        <v>234</v>
+      </c>
+      <c r="P125" s="0" t="n">
+        <f aca="false">O125-1</f>
+        <v>233</v>
+      </c>
+      <c r="Q125" s="0" t="n">
+        <f aca="false">O125+1</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B126" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="C126" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" s="5" t="n">
+        <f aca="false">D122+1</f>
+        <v>14</v>
+      </c>
+      <c r="E126" s="0" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="G126" s="0" t="str">
+        <f aca="false">CONCATENATE($P126,"_1")</f>
+        <v>233_1</v>
+      </c>
+      <c r="O126" s="0" t="n">
+        <f aca="false">O122+1</f>
+        <v>234</v>
+      </c>
+      <c r="P126" s="0" t="n">
+        <f aca="false">O126-1</f>
+        <v>233</v>
+      </c>
+      <c r="Q126" s="0" t="n">
+        <f aca="false">O126+1</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B127" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="C127" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" s="5" t="n">
+        <f aca="false">D123+1</f>
+        <v>14</v>
+      </c>
+      <c r="E127" s="0" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="G127" s="0" t="str">
+        <f aca="false">CONCATENATE($P127,"_1")</f>
+        <v>233_1</v>
+      </c>
+      <c r="O127" s="0" t="n">
+        <f aca="false">O123+1</f>
+        <v>234</v>
+      </c>
+      <c r="P127" s="0" t="n">
+        <f aca="false">O127-1</f>
+        <v>233</v>
+      </c>
+      <c r="Q127" s="0" t="n">
+        <f aca="false">O127+1</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B128" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="C128" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" s="5" t="n">
+        <f aca="false">D124+1</f>
+        <v>14</v>
+      </c>
+      <c r="E128" s="0" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>1543</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>1544</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>1552</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>1546</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>1541</v>
+      <c r="G128" s="0" t="str">
+        <f aca="false">CONCATENATE($P128,"_1")</f>
+        <v>233_1</v>
+      </c>
+      <c r="O128" s="0" t="n">
+        <f aca="false">O124+1</f>
+        <v>234</v>
+      </c>
+      <c r="P128" s="0" t="n">
+        <f aca="false">O128-1</f>
+        <v>233</v>
+      </c>
+      <c r="Q128" s="0" t="n">
+        <f aca="false">O128+1</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B129" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="C129" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" s="5" t="n">
+        <f aca="false">D125+1</f>
+        <v>15</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="O129" s="0" t="n">
+        <f aca="false">O125+1</f>
+        <v>235</v>
+      </c>
+      <c r="P129" s="0" t="n">
+        <f aca="false">O129-1</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B130" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="C130" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" s="5" t="n">
+        <f aca="false">D126+1</f>
+        <v>15</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="O130" s="0" t="n">
+        <f aca="false">O126+1</f>
+        <v>235</v>
+      </c>
+      <c r="P130" s="0" t="n">
+        <f aca="false">O130-1</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B131" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="C131" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" s="5" t="n">
+        <f aca="false">D127+1</f>
+        <v>15</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="O131" s="0" t="n">
+        <f aca="false">O127+1</f>
+        <v>235</v>
+      </c>
+      <c r="P131" s="0" t="n">
+        <f aca="false">O131-1</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="C132" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" s="5" t="n">
+        <f aca="false">D128+1</f>
+        <v>15</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="O132" s="0" t="n">
+        <f aca="false">O128+1</f>
+        <v>235</v>
+      </c>
+      <c r="P132" s="0" t="n">
+        <f aca="false">O132-1</f>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -46581,17 +50968,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E125:E128 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -46608,7 +50995,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1557</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46616,203 +51003,314 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>1558</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C22" s="0" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>1559</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>1560</v>
       </c>
-      <c r="B5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>1561</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>1562</v>
       </c>
-      <c r="B6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="B24" s="0" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>1564</v>
       </c>
-      <c r="B7" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" s="0" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>1565</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>1566</v>
       </c>
-      <c r="B8" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" s="0" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>1568</v>
       </c>
-      <c r="B9" s="5" t="n">
-        <v>64</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="F28" s="0" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>1570</v>
       </c>
-      <c r="B10" s="5" t="n">
-        <f aca="false">B8</f>
-        <v>2</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="C29" s="0" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="C30" s="0" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>1572</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <f aca="false">B9/B5</f>
-        <v>16</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>1584</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>1587</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>823</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C31" s="0" t="s">
+        <v>1557</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -46829,19 +51327,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="E125:E128 B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="4.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="6.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="31.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59.25"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46857,7 +51354,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1595</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46865,79 +51362,203 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <f aca="false">B8</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <f aca="false">B9/B5</f>
+        <v>16</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="11" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="11" t="s">
+      <c r="B15" s="5" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="11" t="s">
+      <c r="C15" s="0" t="s">
         <v>1599</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="11" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="11" t="s">
+      <c r="B16" s="5" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="11" t="s">
+      <c r="C16" s="0" t="s">
         <v>1602</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="11" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="11" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>1603</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="11" t="s">
+      <c r="B17" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>1604</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="11" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="11" t="s">
+      <c r="B18" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>1606</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="11" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="11" t="s">
+      <c r="B19" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>1608</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
+++ b/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="US+_GTY_tx_rx" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7216" uniqueCount="1636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7222" uniqueCount="1640">
   <si>
     <t xml:space="preserve">// path</t>
   </si>
@@ -4863,6 +4863,18 @@
   </si>
   <si>
     <t xml:space="preserve">name of RX user clock port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mgt_txpolarity_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name of TX polarity port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mgt_rxpolarity_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name of RX polarity port</t>
   </si>
   <si>
     <t xml:space="preserve">refclk_buf_inst.sv</t>
@@ -5105,7 +5117,7 @@
   <dimension ref="A1:F829"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="E125:E128 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11723,7 +11735,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="E125:E128 E20"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11748,7 +11760,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11761,72 +11773,72 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="11" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="11" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="11" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="11" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="11" t="s">
-        <v>1616</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="11" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="11" t="s">
-        <v>1618</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="11" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="11" t="s">
-        <v>1619</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="11" t="s">
-        <v>1620</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="11" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="11" t="s">
-        <v>1622</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="11" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="11" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
     </row>
   </sheetData>
@@ -11848,7 +11860,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="E125:E128 A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11858,12 +11870,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1626</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11893,7 +11905,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1627</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11901,7 +11913,7 @@
         <v>856</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11909,7 +11921,7 @@
         <v>851</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11917,7 +11929,7 @@
         <v>854</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1630</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11925,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11933,22 +11945,22 @@
         <v>847</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1632</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1633</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1634</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1635</v>
+        <v>1639</v>
       </c>
     </row>
   </sheetData>
@@ -11970,7 +11982,7 @@
   <dimension ref="A1:M292"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H38" activeCellId="1" sqref="E125:E128 H38"/>
+      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17370,7 +17382,7 @@
   <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F39" activeCellId="1" sqref="E125:E128 F39"/>
+      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18886,7 +18898,7 @@
   <dimension ref="A1:G901"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A262" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D278" activeCellId="1" sqref="E125:E128 D278"/>
+      <selection pane="topLeft" activeCell="D278" activeCellId="0" sqref="D278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33617,7 +33629,7 @@
   <dimension ref="A1:G709"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A519" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H546" activeCellId="1" sqref="E125:E128 H546"/>
+      <selection pane="topLeft" activeCell="H546" activeCellId="0" sqref="H546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41697,7 +41709,7 @@
   <dimension ref="A1:Q132"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E125:E128 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -46396,8 +46408,8 @@
   </sheetPr>
   <dimension ref="A1:Q132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E125" activeCellId="0" sqref="E125:E128"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E125" activeCellId="0" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50971,7 +50983,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E125:E128 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -51327,10 +51339,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="E125:E128 B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -51554,8 +51566,28 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>1614</v>
+      </c>
+    </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
+++ b/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="US+_GTY_tx_rx" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7222" uniqueCount="1640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7228" uniqueCount="1646">
   <si>
     <t xml:space="preserve">// path</t>
   </si>
@@ -4596,6 +4596,24 @@
   </si>
   <si>
     <t xml:space="preserve">refclk9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+2</t>
   </si>
   <si>
     <t xml:space="preserve">120_0</t>
@@ -4960,7 +4978,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4992,6 +5010,27 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCE181E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -5044,7 +5083,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5089,7 +5128,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5106,6 +5161,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCE181E"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -11742,8 +11857,8 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="4.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="6.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="31.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="31.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -11760,7 +11875,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1615</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11772,73 +11887,73 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="11" t="s">
-        <v>1616</v>
+      <c r="D4" s="15" t="s">
+        <v>1622</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="11" t="s">
-        <v>1617</v>
+      <c r="D5" s="15" t="s">
+        <v>1623</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="11" t="s">
-        <v>1618</v>
+      <c r="E6" s="15" t="s">
+        <v>1624</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="11" t="s">
-        <v>1619</v>
+      <c r="E7" s="15" t="s">
+        <v>1625</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="11" t="s">
-        <v>1620</v>
+      <c r="E8" s="15" t="s">
+        <v>1626</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="11" t="s">
-        <v>1621</v>
+      <c r="D9" s="15" t="s">
+        <v>1627</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="11" t="s">
-        <v>1622</v>
+      <c r="D10" s="15" t="s">
+        <v>1628</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="11" t="s">
-        <v>1617</v>
+      <c r="D11" s="15" t="s">
+        <v>1623</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="11" t="s">
-        <v>1623</v>
+      <c r="E12" s="15" t="s">
+        <v>1629</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="11" t="s">
-        <v>1624</v>
+      <c r="E13" s="15" t="s">
+        <v>1630</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="11" t="s">
-        <v>1625</v>
+      <c r="E14" s="15" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="11" t="s">
-        <v>1626</v>
+      <c r="E15" s="15" t="s">
+        <v>1632</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="11" t="s">
-        <v>1627</v>
+      <c r="E16" s="15" t="s">
+        <v>1633</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="11" t="s">
-        <v>1628</v>
+      <c r="D17" s="15" t="s">
+        <v>1634</v>
       </c>
     </row>
   </sheetData>
@@ -11870,12 +11985,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1629</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1630</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11905,7 +12020,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1631</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11913,7 +12028,7 @@
         <v>856</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1632</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11921,7 +12036,7 @@
         <v>851</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1633</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11929,15 +12044,15 @@
         <v>854</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1634</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
+      <c r="A13" s="16" t="n">
         <v>0</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1635</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11945,22 +12060,22 @@
         <v>847</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1636</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1637</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1638</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1639</v>
+        <v>1645</v>
       </c>
     </row>
   </sheetData>
@@ -46406,10 +46521,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q132"/>
+  <dimension ref="A1:S132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E125" activeCellId="0" sqref="E125"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K112" activeCellId="0" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -46418,8 +46533,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="5" style="0" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="4.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="15" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46481,6 +46596,13 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
+      <c r="O3" s="11" t="s">
+        <v>1522</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -46525,6 +46647,21 @@
       <c r="N4" s="5" t="s">
         <v>1521</v>
       </c>
+      <c r="O4" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>1527</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
@@ -46536,23 +46673,40 @@
       <c r="C5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>1522</v>
-      </c>
-      <c r="H5" s="0" t="str">
-        <f aca="false">CONCATENATE($Q5,"_1")</f>
+      <c r="D5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="str">
+        <f aca="false">F9</f>
         <v>121_1</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="str">
+        <f aca="false">F13</f>
+        <v>122_1</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13" t="n">
         <v>120</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13" t="n">
         <f aca="false">O5+1</f>
         <v>121</v>
       </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13" t="n">
+        <f aca="false">O5+2</f>
+        <v>122</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
@@ -46564,24 +46718,41 @@
       <c r="C6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>1522</v>
-      </c>
-      <c r="H6" s="0" t="str">
-        <f aca="false">CONCATENATE($Q6,"_1")</f>
+      <c r="D6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="str">
+        <f aca="false">F10</f>
         <v>121_1</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="str">
+        <f aca="false">F14</f>
+        <v>122_1</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13" t="n">
         <f aca="false">O5</f>
         <v>120</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13" t="n">
         <f aca="false">O6+1</f>
         <v>121</v>
       </c>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13" t="n">
+        <f aca="false">O6+2</f>
+        <v>122</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
@@ -46593,24 +46764,41 @@
       <c r="C7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>1522</v>
-      </c>
-      <c r="H7" s="0" t="str">
-        <f aca="false">CONCATENATE($Q7,"_1")</f>
+      <c r="D7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="str">
+        <f aca="false">F11</f>
         <v>121_1</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="str">
+        <f aca="false">F15</f>
+        <v>122_1</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13" t="n">
         <f aca="false">O6</f>
         <v>120</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13" t="n">
         <f aca="false">O7+1</f>
         <v>121</v>
       </c>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13" t="n">
+        <f aca="false">O7+2</f>
+        <v>122</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
@@ -46622,24 +46810,41 @@
       <c r="C8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>1522</v>
-      </c>
-      <c r="H8" s="0" t="str">
-        <f aca="false">CONCATENATE($Q8,"_1")</f>
+      <c r="D8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="str">
+        <f aca="false">F12</f>
         <v>121_1</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="str">
+        <f aca="false">F16</f>
+        <v>122_1</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13" t="n">
         <f aca="false">O7</f>
         <v>120</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13" t="n">
         <f aca="false">O8+1</f>
         <v>121</v>
       </c>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13" t="n">
+        <f aca="false">O8+2</f>
+        <v>122</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
@@ -46651,33 +46856,45 @@
       <c r="C9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="12" t="n">
         <f aca="false">D5+1</f>
         <v>1</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F9" s="0" t="str">
+      <c r="E9" s="13" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F9" s="13" t="str">
         <f aca="false">CONCATENATE($O9,"_1")</f>
         <v>121_1</v>
       </c>
-      <c r="H9" s="0" t="str">
-        <f aca="false">CONCATENATE($Q9,"_1")</f>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="str">
+        <f aca="false">F13</f>
         <v>122_1</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13" t="n">
         <f aca="false">O5+1</f>
         <v>121</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9" s="13" t="n">
         <f aca="false">O9-1</f>
         <v>120</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9" s="13" t="n">
         <f aca="false">O9+1</f>
         <v>122</v>
       </c>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13" t="n">
+        <f aca="false">O9+2</f>
+        <v>123</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
@@ -46689,33 +46906,45 @@
       <c r="C10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="12" t="n">
         <f aca="false">D6+1</f>
         <v>1</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F10" s="0" t="str">
+      <c r="E10" s="13" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F10" s="13" t="str">
         <f aca="false">CONCATENATE($O10,"_1")</f>
         <v>121_1</v>
       </c>
-      <c r="H10" s="0" t="str">
-        <f aca="false">CONCATENATE($Q10,"_1")</f>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13" t="str">
+        <f aca="false">F14</f>
         <v>122_1</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13" t="n">
         <f aca="false">O6+1</f>
         <v>121</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10" s="13" t="n">
         <f aca="false">O10-1</f>
         <v>120</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10" s="13" t="n">
         <f aca="false">O10+1</f>
         <v>122</v>
       </c>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13" t="n">
+        <f aca="false">O10+2</f>
+        <v>123</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
@@ -46727,33 +46956,45 @@
       <c r="C11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="12" t="n">
         <f aca="false">D7+1</f>
         <v>1</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F11" s="0" t="str">
+      <c r="E11" s="13" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F11" s="13" t="str">
         <f aca="false">CONCATENATE($O11,"_1")</f>
         <v>121_1</v>
       </c>
-      <c r="H11" s="0" t="str">
-        <f aca="false">CONCATENATE($Q11,"_1")</f>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="str">
+        <f aca="false">F15</f>
         <v>122_1</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13" t="n">
         <f aca="false">O7+1</f>
         <v>121</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11" s="13" t="n">
         <f aca="false">O11-1</f>
         <v>120</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="Q11" s="13" t="n">
         <f aca="false">O11+1</f>
         <v>122</v>
       </c>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13" t="n">
+        <f aca="false">O11+2</f>
+        <v>123</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
@@ -46765,33 +47006,45 @@
       <c r="C12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="12" t="n">
         <f aca="false">D8+1</f>
         <v>1</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F12" s="0" t="str">
+      <c r="E12" s="13" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F12" s="13" t="str">
         <f aca="false">CONCATENATE($O12,"_1")</f>
         <v>121_1</v>
       </c>
-      <c r="H12" s="0" t="str">
-        <f aca="false">CONCATENATE($Q12,"_1")</f>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="str">
+        <f aca="false">F16</f>
         <v>122_1</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13" t="n">
         <f aca="false">O8+1</f>
         <v>121</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12" s="13" t="n">
         <f aca="false">O12-1</f>
         <v>120</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q12" s="13" t="n">
         <f aca="false">O12+1</f>
         <v>122</v>
       </c>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13" t="n">
+        <f aca="false">O12+2</f>
+        <v>123</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
@@ -46803,33 +47056,48 @@
       <c r="C13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="12" t="n">
         <f aca="false">D9+1</f>
         <v>2</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>1523</v>
-      </c>
-      <c r="F13" s="0" t="str">
+      <c r="E13" s="13" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F13" s="13" t="str">
         <f aca="false">CONCATENATE($O13,"_1")</f>
         <v>122_1</v>
       </c>
-      <c r="G13" s="0" t="str">
-        <f aca="false">CONCATENATE($P13,"_1")</f>
+      <c r="G13" s="13" t="str">
+        <f aca="false">F9</f>
         <v>121_1</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13" t="n">
         <f aca="false">O9+1</f>
         <v>122</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13" s="13" t="n">
         <f aca="false">O13-1</f>
         <v>121</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13" s="13" t="n">
         <f aca="false">O13+1</f>
         <v>123</v>
       </c>
+      <c r="R13" s="13" t="n">
+        <f aca="false">O13-2</f>
+        <v>120</v>
+      </c>
+      <c r="S13" s="13" t="n">
+        <f aca="false">O13+2</f>
+        <v>124</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
@@ -46841,33 +47109,48 @@
       <c r="C14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="12" t="n">
         <f aca="false">D10+1</f>
         <v>2</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>1523</v>
-      </c>
-      <c r="F14" s="0" t="str">
+      <c r="E14" s="13" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F14" s="13" t="str">
         <f aca="false">CONCATENATE($O14,"_1")</f>
         <v>122_1</v>
       </c>
-      <c r="G14" s="0" t="str">
-        <f aca="false">CONCATENATE($P14,"_1")</f>
+      <c r="G14" s="13" t="str">
+        <f aca="false">F10</f>
         <v>121_1</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13" t="n">
         <f aca="false">O10+1</f>
         <v>122</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14" s="13" t="n">
         <f aca="false">O14-1</f>
         <v>121</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="Q14" s="13" t="n">
         <f aca="false">O14+1</f>
         <v>123</v>
       </c>
+      <c r="R14" s="13" t="n">
+        <f aca="false">O14-2</f>
+        <v>120</v>
+      </c>
+      <c r="S14" s="13" t="n">
+        <f aca="false">O14+2</f>
+        <v>124</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
@@ -46879,33 +47162,48 @@
       <c r="C15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="12" t="n">
         <f aca="false">D11+1</f>
         <v>2</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>1523</v>
-      </c>
-      <c r="F15" s="0" t="str">
+      <c r="E15" s="13" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F15" s="13" t="str">
         <f aca="false">CONCATENATE($O15,"_1")</f>
         <v>122_1</v>
       </c>
-      <c r="G15" s="0" t="str">
-        <f aca="false">CONCATENATE($P15,"_1")</f>
+      <c r="G15" s="13" t="str">
+        <f aca="false">F11</f>
         <v>121_1</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13" t="n">
         <f aca="false">O11+1</f>
         <v>122</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15" s="13" t="n">
         <f aca="false">O15-1</f>
         <v>121</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="Q15" s="13" t="n">
         <f aca="false">O15+1</f>
         <v>123</v>
       </c>
+      <c r="R15" s="13" t="n">
+        <f aca="false">O15-2</f>
+        <v>120</v>
+      </c>
+      <c r="S15" s="13" t="n">
+        <f aca="false">O15+2</f>
+        <v>124</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
@@ -46917,33 +47215,48 @@
       <c r="C16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="12" t="n">
         <f aca="false">D12+1</f>
         <v>2</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>1523</v>
-      </c>
-      <c r="F16" s="0" t="str">
+      <c r="E16" s="13" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F16" s="13" t="str">
         <f aca="false">CONCATENATE($O16,"_1")</f>
         <v>122_1</v>
       </c>
-      <c r="G16" s="0" t="str">
-        <f aca="false">CONCATENATE($P16,"_1")</f>
+      <c r="G16" s="13" t="str">
+        <f aca="false">F12</f>
         <v>121_1</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13" t="n">
         <f aca="false">O12+1</f>
         <v>122</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="P16" s="13" t="n">
         <f aca="false">O16-1</f>
         <v>121</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="Q16" s="13" t="n">
         <f aca="false">O16+1</f>
         <v>123</v>
       </c>
+      <c r="R16" s="13" t="n">
+        <f aca="false">O16-2</f>
+        <v>120</v>
+      </c>
+      <c r="S16" s="13" t="n">
+        <f aca="false">O16+2</f>
+        <v>124</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
@@ -46955,29 +47268,54 @@
       <c r="C17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="12" t="n">
         <f aca="false">D13+1</f>
         <v>3</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>1523</v>
-      </c>
-      <c r="G17" s="0" t="str">
-        <f aca="false">CONCATENATE($P17,"_1")</f>
+      <c r="E17" s="13" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="str">
+        <f aca="false">F13</f>
         <v>122_1</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="H17" s="13" t="n">
+        <f aca="false">F21</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="13" t="str">
+        <f aca="false">F9</f>
+        <v>121_1</v>
+      </c>
+      <c r="J17" s="13" t="str">
+        <f aca="false">F25</f>
+        <v>125_1</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13" t="n">
         <f aca="false">O13+1</f>
         <v>123</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17" s="13" t="n">
         <f aca="false">O17-1</f>
         <v>122</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="Q17" s="13" t="n">
         <f aca="false">O17+1</f>
         <v>124</v>
       </c>
+      <c r="R17" s="13" t="n">
+        <f aca="false">O17-2</f>
+        <v>121</v>
+      </c>
+      <c r="S17" s="13" t="n">
+        <f aca="false">O17+2</f>
+        <v>125</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
@@ -46989,29 +47327,54 @@
       <c r="C18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="12" t="n">
         <f aca="false">D14+1</f>
         <v>3</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>1523</v>
-      </c>
-      <c r="G18" s="0" t="str">
-        <f aca="false">CONCATENATE($P18,"_1")</f>
+      <c r="E18" s="13" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="str">
+        <f aca="false">F14</f>
         <v>122_1</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="H18" s="13" t="n">
+        <f aca="false">F22</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="13" t="str">
+        <f aca="false">F10</f>
+        <v>121_1</v>
+      </c>
+      <c r="J18" s="13" t="str">
+        <f aca="false">F26</f>
+        <v>125_1</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13" t="n">
         <f aca="false">O14+1</f>
         <v>123</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="P18" s="13" t="n">
         <f aca="false">O18-1</f>
         <v>122</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="Q18" s="13" t="n">
         <f aca="false">O18+1</f>
         <v>124</v>
       </c>
+      <c r="R18" s="13" t="n">
+        <f aca="false">O18-2</f>
+        <v>121</v>
+      </c>
+      <c r="S18" s="13" t="n">
+        <f aca="false">O18+2</f>
+        <v>125</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
@@ -47023,29 +47386,54 @@
       <c r="C19" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="12" t="n">
         <f aca="false">D15+1</f>
         <v>3</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>1523</v>
-      </c>
-      <c r="G19" s="0" t="str">
-        <f aca="false">CONCATENATE($P19,"_1")</f>
+      <c r="E19" s="13" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="str">
+        <f aca="false">F15</f>
         <v>122_1</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="H19" s="13" t="n">
+        <f aca="false">F23</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="13" t="str">
+        <f aca="false">F11</f>
+        <v>121_1</v>
+      </c>
+      <c r="J19" s="13" t="str">
+        <f aca="false">F27</f>
+        <v>125_1</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13" t="n">
         <f aca="false">O15+1</f>
         <v>123</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="P19" s="13" t="n">
         <f aca="false">O19-1</f>
         <v>122</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="Q19" s="13" t="n">
         <f aca="false">O19+1</f>
         <v>124</v>
       </c>
+      <c r="R19" s="13" t="n">
+        <f aca="false">O19-2</f>
+        <v>121</v>
+      </c>
+      <c r="S19" s="13" t="n">
+        <f aca="false">O19+2</f>
+        <v>125</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
@@ -47057,29 +47445,54 @@
       <c r="C20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="12" t="n">
         <f aca="false">D16+1</f>
         <v>3</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>1523</v>
-      </c>
-      <c r="G20" s="0" t="str">
-        <f aca="false">CONCATENATE($P20,"_1")</f>
+      <c r="E20" s="13" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="str">
+        <f aca="false">F16</f>
         <v>122_1</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="H20" s="13" t="n">
+        <f aca="false">F24</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="13" t="str">
+        <f aca="false">F12</f>
+        <v>121_1</v>
+      </c>
+      <c r="J20" s="13" t="str">
+        <f aca="false">F28</f>
+        <v>125_1</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13" t="n">
         <f aca="false">O16+1</f>
         <v>123</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="P20" s="13" t="n">
         <f aca="false">O20-1</f>
         <v>122</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="Q20" s="13" t="n">
         <f aca="false">O20+1</f>
         <v>124</v>
       </c>
+      <c r="R20" s="13" t="n">
+        <f aca="false">O20-2</f>
+        <v>121</v>
+      </c>
+      <c r="S20" s="13" t="n">
+        <f aca="false">O20+2</f>
+        <v>125</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
@@ -47091,29 +47504,54 @@
       <c r="C21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="12" t="n">
         <f aca="false">D17+1</f>
         <v>4</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>1524</v>
-      </c>
-      <c r="H21" s="0" t="str">
-        <f aca="false">CONCATENATE($Q21,"_1")</f>
+      <c r="E21" s="13" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13" t="n">
+        <f aca="false">F17</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="13" t="str">
+        <f aca="false">F25</f>
         <v>125_1</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="I21" s="13" t="str">
+        <f aca="false">F13</f>
+        <v>122_1</v>
+      </c>
+      <c r="J21" s="13" t="str">
+        <f aca="false">F29</f>
+        <v>126_1</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13" t="n">
         <f aca="false">O17+1</f>
         <v>124</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="P21" s="13" t="n">
         <f aca="false">O21-1</f>
         <v>123</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="Q21" s="13" t="n">
         <f aca="false">O21+1</f>
         <v>125</v>
       </c>
+      <c r="R21" s="13" t="n">
+        <f aca="false">O21-2</f>
+        <v>122</v>
+      </c>
+      <c r="S21" s="13" t="n">
+        <f aca="false">O21+2</f>
+        <v>126</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
@@ -47125,29 +47563,54 @@
       <c r="C22" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="12" t="n">
         <f aca="false">D18+1</f>
         <v>4</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>1524</v>
-      </c>
-      <c r="H22" s="0" t="str">
-        <f aca="false">CONCATENATE($Q22,"_1")</f>
+      <c r="E22" s="13" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13" t="n">
+        <f aca="false">F18</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="13" t="str">
+        <f aca="false">F26</f>
         <v>125_1</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="I22" s="13" t="str">
+        <f aca="false">F14</f>
+        <v>122_1</v>
+      </c>
+      <c r="J22" s="13" t="str">
+        <f aca="false">F30</f>
+        <v>126_1</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13" t="n">
         <f aca="false">O18+1</f>
         <v>124</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="P22" s="13" t="n">
         <f aca="false">O22-1</f>
         <v>123</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="Q22" s="13" t="n">
         <f aca="false">O22+1</f>
         <v>125</v>
       </c>
+      <c r="R22" s="13" t="n">
+        <f aca="false">O22-2</f>
+        <v>122</v>
+      </c>
+      <c r="S22" s="13" t="n">
+        <f aca="false">O22+2</f>
+        <v>126</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
@@ -47159,29 +47622,54 @@
       <c r="C23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="12" t="n">
         <f aca="false">D19+1</f>
         <v>4</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>1524</v>
-      </c>
-      <c r="H23" s="0" t="str">
-        <f aca="false">CONCATENATE($Q23,"_1")</f>
+      <c r="E23" s="13" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13" t="n">
+        <f aca="false">F19</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="13" t="str">
+        <f aca="false">F27</f>
         <v>125_1</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="I23" s="13" t="str">
+        <f aca="false">F15</f>
+        <v>122_1</v>
+      </c>
+      <c r="J23" s="13" t="str">
+        <f aca="false">F31</f>
+        <v>126_1</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13" t="n">
         <f aca="false">O19+1</f>
         <v>124</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="P23" s="13" t="n">
         <f aca="false">O23-1</f>
         <v>123</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="Q23" s="13" t="n">
         <f aca="false">O23+1</f>
         <v>125</v>
       </c>
+      <c r="R23" s="13" t="n">
+        <f aca="false">O23-2</f>
+        <v>122</v>
+      </c>
+      <c r="S23" s="13" t="n">
+        <f aca="false">O23+2</f>
+        <v>126</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
@@ -47193,29 +47681,54 @@
       <c r="C24" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="D24" s="12" t="n">
         <f aca="false">D20+1</f>
         <v>4</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>1524</v>
-      </c>
-      <c r="H24" s="0" t="str">
-        <f aca="false">CONCATENATE($Q24,"_1")</f>
+      <c r="E24" s="13" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="n">
+        <f aca="false">F20</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="13" t="str">
+        <f aca="false">F28</f>
         <v>125_1</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="I24" s="13" t="str">
+        <f aca="false">F16</f>
+        <v>122_1</v>
+      </c>
+      <c r="J24" s="13" t="str">
+        <f aca="false">F32</f>
+        <v>126_1</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13" t="n">
         <f aca="false">O20+1</f>
         <v>124</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="P24" s="13" t="n">
         <f aca="false">O24-1</f>
         <v>123</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="Q24" s="13" t="n">
         <f aca="false">O24+1</f>
         <v>125</v>
       </c>
+      <c r="R24" s="13" t="n">
+        <f aca="false">O24-2</f>
+        <v>122</v>
+      </c>
+      <c r="S24" s="13" t="n">
+        <f aca="false">O24+2</f>
+        <v>126</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
@@ -47227,33 +47740,51 @@
       <c r="C25" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="12" t="n">
         <f aca="false">D21+1</f>
         <v>5</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F25" s="0" t="str">
+      <c r="E25" s="13" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F25" s="13" t="str">
         <f aca="false">CONCATENATE($O25,"_1")</f>
         <v>125_1</v>
       </c>
-      <c r="H25" s="0" t="str">
-        <f aca="false">CONCATENATE($Q25,"_1")</f>
+      <c r="G25" s="13" t="n">
+        <f aca="false">F21</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="13" t="str">
+        <f aca="false">F29</f>
         <v>126_1</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13" t="n">
         <f aca="false">O21+1</f>
         <v>125</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="P25" s="13" t="n">
         <f aca="false">O25-1</f>
         <v>124</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="Q25" s="13" t="n">
         <f aca="false">O25+1</f>
         <v>126</v>
       </c>
+      <c r="R25" s="13" t="n">
+        <f aca="false">O25-2</f>
+        <v>123</v>
+      </c>
+      <c r="S25" s="13" t="n">
+        <f aca="false">O25+2</f>
+        <v>127</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
@@ -47265,33 +47796,51 @@
       <c r="C26" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="D26" s="12" t="n">
         <f aca="false">D22+1</f>
         <v>5</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F26" s="0" t="str">
+      <c r="E26" s="13" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F26" s="13" t="str">
         <f aca="false">CONCATENATE($O26,"_1")</f>
         <v>125_1</v>
       </c>
-      <c r="H26" s="0" t="str">
-        <f aca="false">CONCATENATE($Q26,"_1")</f>
+      <c r="G26" s="13" t="n">
+        <f aca="false">F22</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="13" t="str">
+        <f aca="false">F30</f>
         <v>126_1</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13" t="n">
         <f aca="false">O22+1</f>
         <v>125</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="P26" s="13" t="n">
         <f aca="false">O26-1</f>
         <v>124</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="Q26" s="13" t="n">
         <f aca="false">O26+1</f>
         <v>126</v>
       </c>
+      <c r="R26" s="13" t="n">
+        <f aca="false">O26-2</f>
+        <v>123</v>
+      </c>
+      <c r="S26" s="13" t="n">
+        <f aca="false">O26+2</f>
+        <v>127</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
@@ -47303,33 +47852,51 @@
       <c r="C27" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="D27" s="12" t="n">
         <f aca="false">D23+1</f>
         <v>5</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F27" s="0" t="str">
+      <c r="E27" s="13" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F27" s="13" t="str">
         <f aca="false">CONCATENATE($O27,"_1")</f>
         <v>125_1</v>
       </c>
-      <c r="H27" s="0" t="str">
-        <f aca="false">CONCATENATE($Q27,"_1")</f>
+      <c r="G27" s="13" t="n">
+        <f aca="false">F23</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="13" t="str">
+        <f aca="false">F31</f>
         <v>126_1</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13" t="n">
         <f aca="false">O23+1</f>
         <v>125</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="P27" s="13" t="n">
         <f aca="false">O27-1</f>
         <v>124</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="Q27" s="13" t="n">
         <f aca="false">O27+1</f>
         <v>126</v>
       </c>
+      <c r="R27" s="13" t="n">
+        <f aca="false">O27-2</f>
+        <v>123</v>
+      </c>
+      <c r="S27" s="13" t="n">
+        <f aca="false">O27+2</f>
+        <v>127</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
@@ -47341,33 +47908,51 @@
       <c r="C28" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="D28" s="12" t="n">
         <f aca="false">D24+1</f>
         <v>5</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F28" s="0" t="str">
+      <c r="E28" s="13" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F28" s="13" t="str">
         <f aca="false">CONCATENATE($O28,"_1")</f>
         <v>125_1</v>
       </c>
-      <c r="H28" s="0" t="str">
-        <f aca="false">CONCATENATE($Q28,"_1")</f>
+      <c r="G28" s="13" t="n">
+        <f aca="false">F24</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="13" t="str">
+        <f aca="false">F32</f>
         <v>126_1</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13" t="n">
         <f aca="false">O24+1</f>
         <v>125</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="P28" s="13" t="n">
         <f aca="false">O28-1</f>
         <v>124</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="Q28" s="13" t="n">
         <f aca="false">O28+1</f>
         <v>126</v>
       </c>
+      <c r="R28" s="13" t="n">
+        <f aca="false">O28-2</f>
+        <v>123</v>
+      </c>
+      <c r="S28" s="13" t="n">
+        <f aca="false">O28+2</f>
+        <v>127</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
@@ -47379,33 +47964,45 @@
       <c r="C29" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="D29" s="12" t="n">
         <f aca="false">D25+1</f>
         <v>6</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F29" s="0" t="str">
+      <c r="E29" s="13" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F29" s="13" t="str">
         <f aca="false">CONCATENATE($O29,"_1")</f>
         <v>126_1</v>
       </c>
-      <c r="G29" s="0" t="str">
-        <f aca="false">CONCATENATE($P29,"_1")</f>
+      <c r="G29" s="13" t="str">
+        <f aca="false">F25</f>
         <v>125_1</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13" t="n">
         <f aca="false">O25+1</f>
         <v>126</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="P29" s="13" t="n">
         <f aca="false">O29-1</f>
         <v>125</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="Q29" s="13" t="n">
         <f aca="false">O29+1</f>
         <v>127</v>
       </c>
+      <c r="R29" s="13" t="n">
+        <f aca="false">O29-2</f>
+        <v>124</v>
+      </c>
+      <c r="S29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
@@ -47417,33 +48014,45 @@
       <c r="C30" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="D30" s="12" t="n">
         <f aca="false">D26+1</f>
         <v>6</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F30" s="0" t="str">
+      <c r="E30" s="13" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F30" s="13" t="str">
         <f aca="false">CONCATENATE($O30,"_1")</f>
         <v>126_1</v>
       </c>
-      <c r="G30" s="0" t="str">
-        <f aca="false">CONCATENATE($P30,"_1")</f>
+      <c r="G30" s="13" t="str">
+        <f aca="false">F26</f>
         <v>125_1</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13" t="n">
         <f aca="false">O26+1</f>
         <v>126</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="P30" s="13" t="n">
         <f aca="false">O30-1</f>
         <v>125</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="Q30" s="13" t="n">
         <f aca="false">O30+1</f>
         <v>127</v>
       </c>
+      <c r="R30" s="13" t="n">
+        <f aca="false">O30-2</f>
+        <v>124</v>
+      </c>
+      <c r="S30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
@@ -47455,33 +48064,45 @@
       <c r="C31" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="D31" s="12" t="n">
         <f aca="false">D27+1</f>
         <v>6</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F31" s="0" t="str">
+      <c r="E31" s="13" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F31" s="13" t="str">
         <f aca="false">CONCATENATE($O31,"_1")</f>
         <v>126_1</v>
       </c>
-      <c r="G31" s="0" t="str">
-        <f aca="false">CONCATENATE($P31,"_1")</f>
+      <c r="G31" s="13" t="str">
+        <f aca="false">F27</f>
         <v>125_1</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13" t="n">
         <f aca="false">O27+1</f>
         <v>126</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="P31" s="13" t="n">
         <f aca="false">O31-1</f>
         <v>125</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="Q31" s="13" t="n">
         <f aca="false">O31+1</f>
         <v>127</v>
       </c>
+      <c r="R31" s="13" t="n">
+        <f aca="false">O31-2</f>
+        <v>124</v>
+      </c>
+      <c r="S31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
@@ -47493,33 +48114,45 @@
       <c r="C32" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="D32" s="12" t="n">
         <f aca="false">D28+1</f>
         <v>6</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F32" s="0" t="str">
+      <c r="E32" s="13" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F32" s="13" t="str">
         <f aca="false">CONCATENATE($O32,"_1")</f>
         <v>126_1</v>
       </c>
-      <c r="G32" s="0" t="str">
-        <f aca="false">CONCATENATE($P32,"_1")</f>
+      <c r="G32" s="13" t="str">
+        <f aca="false">F28</f>
         <v>125_1</v>
       </c>
-      <c r="O32" s="0" t="n">
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13" t="n">
         <f aca="false">O28+1</f>
         <v>126</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="P32" s="13" t="n">
         <f aca="false">O32-1</f>
         <v>125</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="Q32" s="13" t="n">
         <f aca="false">O32+1</f>
         <v>127</v>
       </c>
+      <c r="R32" s="13" t="n">
+        <f aca="false">O32-2</f>
+        <v>124</v>
+      </c>
+      <c r="S32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
@@ -47531,25 +48164,42 @@
       <c r="C33" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="D33" s="12" t="n">
         <f aca="false">D29+1</f>
         <v>7</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>1525</v>
-      </c>
-      <c r="G33" s="0" t="str">
-        <f aca="false">CONCATENATE($P33,"_1")</f>
+      <c r="E33" s="13" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13" t="str">
+        <f aca="false">F29</f>
         <v>126_1</v>
       </c>
-      <c r="O33" s="0" t="n">
+      <c r="H33" s="13"/>
+      <c r="I33" s="13" t="str">
+        <f aca="false">F25</f>
+        <v>125_1</v>
+      </c>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13" t="n">
         <f aca="false">O29+1</f>
         <v>127</v>
       </c>
-      <c r="P33" s="0" t="n">
+      <c r="P33" s="13" t="n">
         <f aca="false">O33-1</f>
         <v>126</v>
       </c>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13" t="n">
+        <f aca="false">O33-2</f>
+        <v>125</v>
+      </c>
+      <c r="S33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
@@ -47561,25 +48211,42 @@
       <c r="C34" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="D34" s="12" t="n">
         <f aca="false">D30+1</f>
         <v>7</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>1525</v>
-      </c>
-      <c r="G34" s="0" t="str">
-        <f aca="false">CONCATENATE($P34,"_1")</f>
+      <c r="E34" s="13" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13" t="str">
+        <f aca="false">F30</f>
         <v>126_1</v>
       </c>
-      <c r="O34" s="0" t="n">
+      <c r="H34" s="13"/>
+      <c r="I34" s="13" t="str">
+        <f aca="false">F26</f>
+        <v>125_1</v>
+      </c>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13" t="n">
         <f aca="false">O30+1</f>
         <v>127</v>
       </c>
-      <c r="P34" s="0" t="n">
+      <c r="P34" s="13" t="n">
         <f aca="false">O34-1</f>
         <v>126</v>
       </c>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13" t="n">
+        <f aca="false">O34-2</f>
+        <v>125</v>
+      </c>
+      <c r="S34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
@@ -47591,25 +48258,42 @@
       <c r="C35" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="D35" s="12" t="n">
         <f aca="false">D31+1</f>
         <v>7</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>1525</v>
-      </c>
-      <c r="G35" s="0" t="str">
-        <f aca="false">CONCATENATE($P35,"_1")</f>
+      <c r="E35" s="13" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13" t="str">
+        <f aca="false">F31</f>
         <v>126_1</v>
       </c>
-      <c r="O35" s="0" t="n">
+      <c r="H35" s="13"/>
+      <c r="I35" s="13" t="str">
+        <f aca="false">F27</f>
+        <v>125_1</v>
+      </c>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13" t="n">
         <f aca="false">O31+1</f>
         <v>127</v>
       </c>
-      <c r="P35" s="0" t="n">
+      <c r="P35" s="13" t="n">
         <f aca="false">O35-1</f>
         <v>126</v>
       </c>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13" t="n">
+        <f aca="false">O35-2</f>
+        <v>125</v>
+      </c>
+      <c r="S35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
@@ -47621,25 +48305,42 @@
       <c r="C36" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="D36" s="12" t="n">
         <f aca="false">D32+1</f>
         <v>7</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>1525</v>
-      </c>
-      <c r="G36" s="0" t="str">
-        <f aca="false">CONCATENATE($P36,"_1")</f>
+      <c r="E36" s="13" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13" t="str">
+        <f aca="false">F32</f>
         <v>126_1</v>
       </c>
-      <c r="O36" s="0" t="n">
+      <c r="H36" s="13"/>
+      <c r="I36" s="13" t="str">
+        <f aca="false">F28</f>
+        <v>125_1</v>
+      </c>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13" t="n">
         <f aca="false">O32+1</f>
         <v>127</v>
       </c>
-      <c r="P36" s="0" t="n">
+      <c r="P36" s="13" t="n">
         <f aca="false">O36-1</f>
         <v>126</v>
       </c>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13" t="n">
+        <f aca="false">O36-2</f>
+        <v>125</v>
+      </c>
+      <c r="S36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
@@ -47656,11 +48357,17 @@
         <v>8</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="H37" s="0" t="str">
-        <f aca="false">CONCATENATE($Q37,"_1")</f>
+        <v>1532</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14" t="str">
+        <f aca="false">F41</f>
         <v>129_1</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14" t="str">
+        <f aca="false">F45</f>
+        <v>130_1</v>
       </c>
       <c r="O37" s="0" t="n">
         <f aca="false">O33+1</f>
@@ -47670,6 +48377,10 @@
         <f aca="false">O37+1</f>
         <v>129</v>
       </c>
+      <c r="S37" s="0" t="n">
+        <f aca="false">O37+2</f>
+        <v>130</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
@@ -47686,11 +48397,17 @@
         <v>8</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="H38" s="0" t="str">
-        <f aca="false">CONCATENATE($Q38,"_1")</f>
+        <v>1532</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14" t="str">
+        <f aca="false">F42</f>
         <v>129_1</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14" t="str">
+        <f aca="false">F46</f>
+        <v>130_1</v>
       </c>
       <c r="O38" s="0" t="n">
         <f aca="false">O34+1</f>
@@ -47700,6 +48417,10 @@
         <f aca="false">O38+1</f>
         <v>129</v>
       </c>
+      <c r="S38" s="0" t="n">
+        <f aca="false">O38+2</f>
+        <v>130</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
@@ -47716,11 +48437,17 @@
         <v>8</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="H39" s="0" t="str">
-        <f aca="false">CONCATENATE($Q39,"_1")</f>
+        <v>1532</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14" t="str">
+        <f aca="false">F43</f>
         <v>129_1</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14" t="str">
+        <f aca="false">F47</f>
+        <v>130_1</v>
       </c>
       <c r="O39" s="0" t="n">
         <f aca="false">O35+1</f>
@@ -47730,6 +48457,10 @@
         <f aca="false">O39+1</f>
         <v>129</v>
       </c>
+      <c r="S39" s="0" t="n">
+        <f aca="false">O39+2</f>
+        <v>130</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
@@ -47746,11 +48477,17 @@
         <v>8</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="H40" s="0" t="str">
-        <f aca="false">CONCATENATE($Q40,"_1")</f>
+        <v>1532</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14" t="str">
+        <f aca="false">F44</f>
         <v>129_1</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14" t="str">
+        <f aca="false">F48</f>
+        <v>130_1</v>
       </c>
       <c r="O40" s="0" t="n">
         <f aca="false">O36+1</f>
@@ -47760,6 +48497,10 @@
         <f aca="false">O40+1</f>
         <v>129</v>
       </c>
+      <c r="S40" s="0" t="n">
+        <f aca="false">O40+2</f>
+        <v>130</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
@@ -47776,16 +48517,19 @@
         <v>9</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1526</v>
+        <v>1532</v>
       </c>
       <c r="F41" s="0" t="str">
         <f aca="false">CONCATENATE($O41,"_1")</f>
         <v>129_1</v>
       </c>
-      <c r="H41" s="0" t="str">
-        <f aca="false">CONCATENATE($Q41,"_1")</f>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14" t="str">
+        <f aca="false">F45</f>
         <v>130_1</v>
       </c>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
       <c r="O41" s="0" t="n">
         <f aca="false">O37+1</f>
         <v>129</v>
@@ -47798,6 +48542,10 @@
         <f aca="false">O41+1</f>
         <v>130</v>
       </c>
+      <c r="S41" s="0" t="n">
+        <f aca="false">O41+2</f>
+        <v>131</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
@@ -47814,16 +48562,19 @@
         <v>9</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>1526</v>
+        <v>1532</v>
       </c>
       <c r="F42" s="0" t="str">
         <f aca="false">CONCATENATE($O42,"_1")</f>
         <v>129_1</v>
       </c>
-      <c r="H42" s="0" t="str">
-        <f aca="false">CONCATENATE($Q42,"_1")</f>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14" t="str">
+        <f aca="false">F46</f>
         <v>130_1</v>
       </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
       <c r="O42" s="0" t="n">
         <f aca="false">O38+1</f>
         <v>129</v>
@@ -47836,6 +48587,10 @@
         <f aca="false">O42+1</f>
         <v>130</v>
       </c>
+      <c r="S42" s="0" t="n">
+        <f aca="false">O42+2</f>
+        <v>131</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
@@ -47852,16 +48607,19 @@
         <v>9</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>1526</v>
+        <v>1532</v>
       </c>
       <c r="F43" s="0" t="str">
         <f aca="false">CONCATENATE($O43,"_1")</f>
         <v>129_1</v>
       </c>
-      <c r="H43" s="0" t="str">
-        <f aca="false">CONCATENATE($Q43,"_1")</f>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14" t="str">
+        <f aca="false">F47</f>
         <v>130_1</v>
       </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
       <c r="O43" s="0" t="n">
         <f aca="false">O39+1</f>
         <v>129</v>
@@ -47874,6 +48632,10 @@
         <f aca="false">O43+1</f>
         <v>130</v>
       </c>
+      <c r="S43" s="0" t="n">
+        <f aca="false">O43+2</f>
+        <v>131</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
@@ -47890,16 +48652,19 @@
         <v>9</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>1526</v>
+        <v>1532</v>
       </c>
       <c r="F44" s="0" t="str">
         <f aca="false">CONCATENATE($O44,"_1")</f>
         <v>129_1</v>
       </c>
-      <c r="H44" s="0" t="str">
-        <f aca="false">CONCATENATE($Q44,"_1")</f>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14" t="str">
+        <f aca="false">F48</f>
         <v>130_1</v>
       </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
       <c r="O44" s="0" t="n">
         <f aca="false">O40+1</f>
         <v>129</v>
@@ -47912,6 +48677,10 @@
         <f aca="false">O44+1</f>
         <v>130</v>
       </c>
+      <c r="S44" s="0" t="n">
+        <f aca="false">O44+2</f>
+        <v>131</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
@@ -47928,15 +48697,21 @@
         <v>10</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>1527</v>
+        <v>1533</v>
       </c>
       <c r="F45" s="0" t="str">
         <f aca="false">CONCATENATE($O45,"_1")</f>
         <v>130_1</v>
       </c>
-      <c r="G45" s="0" t="str">
-        <f aca="false">CONCATENATE($P45,"_1")</f>
+      <c r="G45" s="14" t="str">
+        <f aca="false">F41</f>
         <v>129_1</v>
+      </c>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14" t="str">
+        <f aca="false">F53</f>
+        <v>132_1</v>
       </c>
       <c r="O45" s="0" t="n">
         <f aca="false">O41+1</f>
@@ -47950,6 +48725,14 @@
         <f aca="false">O45+1</f>
         <v>131</v>
       </c>
+      <c r="R45" s="0" t="n">
+        <f aca="false">O45-2</f>
+        <v>128</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <f aca="false">O45+2</f>
+        <v>132</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="n">
@@ -47966,15 +48749,21 @@
         <v>10</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>1527</v>
+        <v>1533</v>
       </c>
       <c r="F46" s="0" t="str">
         <f aca="false">CONCATENATE($O46,"_1")</f>
         <v>130_1</v>
       </c>
-      <c r="G46" s="0" t="str">
-        <f aca="false">CONCATENATE($P46,"_1")</f>
+      <c r="G46" s="14" t="str">
+        <f aca="false">F42</f>
         <v>129_1</v>
+      </c>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14" t="str">
+        <f aca="false">F54</f>
+        <v>132_1</v>
       </c>
       <c r="O46" s="0" t="n">
         <f aca="false">O42+1</f>
@@ -47988,6 +48777,14 @@
         <f aca="false">O46+1</f>
         <v>131</v>
       </c>
+      <c r="R46" s="0" t="n">
+        <f aca="false">O46-2</f>
+        <v>128</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <f aca="false">O46+2</f>
+        <v>132</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
@@ -48004,15 +48801,21 @@
         <v>10</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>1527</v>
+        <v>1533</v>
       </c>
       <c r="F47" s="0" t="str">
         <f aca="false">CONCATENATE($O47,"_1")</f>
         <v>130_1</v>
       </c>
-      <c r="G47" s="0" t="str">
-        <f aca="false">CONCATENATE($P47,"_1")</f>
+      <c r="G47" s="14" t="str">
+        <f aca="false">F43</f>
         <v>129_1</v>
+      </c>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14" t="str">
+        <f aca="false">F55</f>
+        <v>132_1</v>
       </c>
       <c r="O47" s="0" t="n">
         <f aca="false">O43+1</f>
@@ -48026,6 +48829,14 @@
         <f aca="false">O47+1</f>
         <v>131</v>
       </c>
+      <c r="R47" s="0" t="n">
+        <f aca="false">O47-2</f>
+        <v>128</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <f aca="false">O47+2</f>
+        <v>132</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="n">
@@ -48042,15 +48853,21 @@
         <v>10</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>1527</v>
+        <v>1533</v>
       </c>
       <c r="F48" s="0" t="str">
         <f aca="false">CONCATENATE($O48,"_1")</f>
         <v>130_1</v>
       </c>
-      <c r="G48" s="0" t="str">
-        <f aca="false">CONCATENATE($P48,"_1")</f>
+      <c r="G48" s="14" t="str">
+        <f aca="false">F44</f>
         <v>129_1</v>
+      </c>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14" t="str">
+        <f aca="false">F56</f>
+        <v>132_1</v>
       </c>
       <c r="O48" s="0" t="n">
         <f aca="false">O44+1</f>
@@ -48064,6 +48881,14 @@
         <f aca="false">O48+1</f>
         <v>131</v>
       </c>
+      <c r="R48" s="0" t="n">
+        <f aca="false">O48-2</f>
+        <v>128</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <f aca="false">O48+2</f>
+        <v>132</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="n">
@@ -48080,11 +48905,23 @@
         <v>11</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>1527</v>
-      </c>
-      <c r="G49" s="0" t="str">
-        <f aca="false">CONCATENATE($P49,"_1")</f>
+        <v>1533</v>
+      </c>
+      <c r="G49" s="14" t="str">
+        <f aca="false">F45</f>
         <v>130_1</v>
+      </c>
+      <c r="H49" s="14" t="str">
+        <f aca="false">F53</f>
+        <v>132_1</v>
+      </c>
+      <c r="I49" s="14" t="str">
+        <f aca="false">F41</f>
+        <v>129_1</v>
+      </c>
+      <c r="J49" s="14" t="str">
+        <f aca="false">F57</f>
+        <v>133_1</v>
       </c>
       <c r="O49" s="0" t="n">
         <f aca="false">O45+1</f>
@@ -48098,6 +48935,14 @@
         <f aca="false">O49+1</f>
         <v>132</v>
       </c>
+      <c r="R49" s="0" t="n">
+        <f aca="false">O49-2</f>
+        <v>129</v>
+      </c>
+      <c r="S49" s="0" t="n">
+        <f aca="false">O49+2</f>
+        <v>133</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="n">
@@ -48114,11 +48959,23 @@
         <v>11</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>1527</v>
-      </c>
-      <c r="G50" s="0" t="str">
-        <f aca="false">CONCATENATE($P50,"_1")</f>
+        <v>1533</v>
+      </c>
+      <c r="G50" s="14" t="str">
+        <f aca="false">F46</f>
         <v>130_1</v>
+      </c>
+      <c r="H50" s="14" t="str">
+        <f aca="false">F54</f>
+        <v>132_1</v>
+      </c>
+      <c r="I50" s="14" t="str">
+        <f aca="false">F42</f>
+        <v>129_1</v>
+      </c>
+      <c r="J50" s="14" t="str">
+        <f aca="false">F58</f>
+        <v>133_1</v>
       </c>
       <c r="O50" s="0" t="n">
         <f aca="false">O46+1</f>
@@ -48132,6 +48989,14 @@
         <f aca="false">O50+1</f>
         <v>132</v>
       </c>
+      <c r="R50" s="0" t="n">
+        <f aca="false">O50-2</f>
+        <v>129</v>
+      </c>
+      <c r="S50" s="0" t="n">
+        <f aca="false">O50+2</f>
+        <v>133</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="n">
@@ -48148,11 +49013,23 @@
         <v>11</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>1527</v>
-      </c>
-      <c r="G51" s="0" t="str">
-        <f aca="false">CONCATENATE($P51,"_1")</f>
+        <v>1533</v>
+      </c>
+      <c r="G51" s="14" t="str">
+        <f aca="false">F47</f>
         <v>130_1</v>
+      </c>
+      <c r="H51" s="14" t="str">
+        <f aca="false">F55</f>
+        <v>132_1</v>
+      </c>
+      <c r="I51" s="14" t="str">
+        <f aca="false">F43</f>
+        <v>129_1</v>
+      </c>
+      <c r="J51" s="14" t="str">
+        <f aca="false">F59</f>
+        <v>133_1</v>
       </c>
       <c r="O51" s="0" t="n">
         <f aca="false">O47+1</f>
@@ -48166,6 +49043,14 @@
         <f aca="false">O51+1</f>
         <v>132</v>
       </c>
+      <c r="R51" s="0" t="n">
+        <f aca="false">O51-2</f>
+        <v>129</v>
+      </c>
+      <c r="S51" s="0" t="n">
+        <f aca="false">O51+2</f>
+        <v>133</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="n">
@@ -48182,11 +49067,23 @@
         <v>11</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>1527</v>
-      </c>
-      <c r="G52" s="0" t="str">
-        <f aca="false">CONCATENATE($P52,"_1")</f>
+        <v>1533</v>
+      </c>
+      <c r="G52" s="14" t="str">
+        <f aca="false">F48</f>
         <v>130_1</v>
+      </c>
+      <c r="H52" s="14" t="str">
+        <f aca="false">F56</f>
+        <v>132_1</v>
+      </c>
+      <c r="I52" s="14" t="str">
+        <f aca="false">F44</f>
+        <v>129_1</v>
+      </c>
+      <c r="J52" s="14" t="str">
+        <f aca="false">F60</f>
+        <v>133_1</v>
       </c>
       <c r="O52" s="0" t="n">
         <f aca="false">O48+1</f>
@@ -48200,6 +49097,14 @@
         <f aca="false">O52+1</f>
         <v>132</v>
       </c>
+      <c r="R52" s="0" t="n">
+        <f aca="false">O52-2</f>
+        <v>129</v>
+      </c>
+      <c r="S52" s="0" t="n">
+        <f aca="false">O52+2</f>
+        <v>133</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="n">
@@ -48216,16 +49121,25 @@
         <v>12</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>1528</v>
+        <v>1534</v>
       </c>
       <c r="F53" s="0" t="str">
         <f aca="false">CONCATENATE($O53,"_1")</f>
         <v>132_1</v>
       </c>
-      <c r="H53" s="0" t="str">
-        <f aca="false">CONCATENATE($Q53,"_1")</f>
+      <c r="G53" s="14" t="n">
+        <f aca="false">F49</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="14" t="str">
+        <f aca="false">F57</f>
         <v>133_1</v>
       </c>
+      <c r="I53" s="14" t="str">
+        <f aca="false">F45</f>
+        <v>130_1</v>
+      </c>
+      <c r="J53" s="14"/>
       <c r="O53" s="0" t="n">
         <f aca="false">O49+1</f>
         <v>132</v>
@@ -48238,6 +49152,14 @@
         <f aca="false">O53+1</f>
         <v>133</v>
       </c>
+      <c r="R53" s="0" t="n">
+        <f aca="false">O53-2</f>
+        <v>130</v>
+      </c>
+      <c r="S53" s="0" t="n">
+        <f aca="false">O53+2</f>
+        <v>134</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="n">
@@ -48254,16 +49176,25 @@
         <v>12</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>1528</v>
+        <v>1534</v>
       </c>
       <c r="F54" s="0" t="str">
         <f aca="false">CONCATENATE($O54,"_1")</f>
         <v>132_1</v>
       </c>
-      <c r="H54" s="0" t="str">
-        <f aca="false">CONCATENATE($Q54,"_1")</f>
+      <c r="G54" s="14" t="n">
+        <f aca="false">F50</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="14" t="str">
+        <f aca="false">F58</f>
         <v>133_1</v>
       </c>
+      <c r="I54" s="14" t="str">
+        <f aca="false">F46</f>
+        <v>130_1</v>
+      </c>
+      <c r="J54" s="14"/>
       <c r="O54" s="0" t="n">
         <f aca="false">O50+1</f>
         <v>132</v>
@@ -48276,6 +49207,14 @@
         <f aca="false">O54+1</f>
         <v>133</v>
       </c>
+      <c r="R54" s="0" t="n">
+        <f aca="false">O54-2</f>
+        <v>130</v>
+      </c>
+      <c r="S54" s="0" t="n">
+        <f aca="false">O54+2</f>
+        <v>134</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="n">
@@ -48292,16 +49231,25 @@
         <v>12</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1528</v>
+        <v>1534</v>
       </c>
       <c r="F55" s="0" t="str">
         <f aca="false">CONCATENATE($O55,"_1")</f>
         <v>132_1</v>
       </c>
-      <c r="H55" s="0" t="str">
-        <f aca="false">CONCATENATE($Q55,"_1")</f>
+      <c r="G55" s="14" t="n">
+        <f aca="false">F51</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="14" t="str">
+        <f aca="false">F59</f>
         <v>133_1</v>
       </c>
+      <c r="I55" s="14" t="str">
+        <f aca="false">F47</f>
+        <v>130_1</v>
+      </c>
+      <c r="J55" s="14"/>
       <c r="O55" s="0" t="n">
         <f aca="false">O51+1</f>
         <v>132</v>
@@ -48314,6 +49262,14 @@
         <f aca="false">O55+1</f>
         <v>133</v>
       </c>
+      <c r="R55" s="0" t="n">
+        <f aca="false">O55-2</f>
+        <v>130</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <f aca="false">O55+2</f>
+        <v>134</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="n">
@@ -48330,16 +49286,25 @@
         <v>12</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>1528</v>
+        <v>1534</v>
       </c>
       <c r="F56" s="0" t="str">
         <f aca="false">CONCATENATE($O56,"_1")</f>
         <v>132_1</v>
       </c>
-      <c r="H56" s="0" t="str">
-        <f aca="false">CONCATENATE($Q56,"_1")</f>
+      <c r="G56" s="14" t="n">
+        <f aca="false">F52</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="14" t="str">
+        <f aca="false">F60</f>
         <v>133_1</v>
       </c>
+      <c r="I56" s="14" t="str">
+        <f aca="false">F48</f>
+        <v>130_1</v>
+      </c>
+      <c r="J56" s="14"/>
       <c r="O56" s="0" t="n">
         <f aca="false">O52+1</f>
         <v>132</v>
@@ -48352,6 +49317,14 @@
         <f aca="false">O56+1</f>
         <v>133</v>
       </c>
+      <c r="R56" s="0" t="n">
+        <f aca="false">O56-2</f>
+        <v>130</v>
+      </c>
+      <c r="S56" s="0" t="n">
+        <f aca="false">O56+2</f>
+        <v>134</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="n">
@@ -48368,16 +49341,19 @@
         <v>13</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>1528</v>
+        <v>1534</v>
       </c>
       <c r="F57" s="0" t="str">
         <f aca="false">CONCATENATE($O57,"_1")</f>
         <v>133_1</v>
       </c>
-      <c r="G57" s="0" t="str">
-        <f aca="false">CONCATENATE($P57,"_1")</f>
+      <c r="G57" s="14" t="str">
+        <f aca="false">F53</f>
         <v>132_1</v>
       </c>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
       <c r="O57" s="0" t="n">
         <f aca="false">O53+1</f>
         <v>133</v>
@@ -48390,6 +49366,14 @@
         <f aca="false">O57+1</f>
         <v>134</v>
       </c>
+      <c r="R57" s="0" t="n">
+        <f aca="false">O57-2</f>
+        <v>131</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <f aca="false">O57+2</f>
+        <v>135</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="n">
@@ -48406,16 +49390,19 @@
         <v>13</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>1528</v>
+        <v>1534</v>
       </c>
       <c r="F58" s="0" t="str">
         <f aca="false">CONCATENATE($O58,"_1")</f>
         <v>133_1</v>
       </c>
-      <c r="G58" s="0" t="str">
-        <f aca="false">CONCATENATE($P58,"_1")</f>
+      <c r="G58" s="14" t="str">
+        <f aca="false">F54</f>
         <v>132_1</v>
       </c>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
       <c r="O58" s="0" t="n">
         <f aca="false">O54+1</f>
         <v>133</v>
@@ -48428,6 +49415,14 @@
         <f aca="false">O58+1</f>
         <v>134</v>
       </c>
+      <c r="R58" s="0" t="n">
+        <f aca="false">O58-2</f>
+        <v>131</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <f aca="false">O58+2</f>
+        <v>135</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="n">
@@ -48444,16 +49439,19 @@
         <v>13</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>1528</v>
+        <v>1534</v>
       </c>
       <c r="F59" s="0" t="str">
         <f aca="false">CONCATENATE($O59,"_1")</f>
         <v>133_1</v>
       </c>
-      <c r="G59" s="0" t="str">
-        <f aca="false">CONCATENATE($P59,"_1")</f>
+      <c r="G59" s="14" t="str">
+        <f aca="false">F55</f>
         <v>132_1</v>
       </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
       <c r="O59" s="0" t="n">
         <f aca="false">O55+1</f>
         <v>133</v>
@@ -48466,6 +49464,14 @@
         <f aca="false">O59+1</f>
         <v>134</v>
       </c>
+      <c r="R59" s="0" t="n">
+        <f aca="false">O59-2</f>
+        <v>131</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <f aca="false">O59+2</f>
+        <v>135</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="n">
@@ -48482,16 +49488,19 @@
         <v>13</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>1528</v>
+        <v>1534</v>
       </c>
       <c r="F60" s="0" t="str">
         <f aca="false">CONCATENATE($O60,"_1")</f>
         <v>133_1</v>
       </c>
-      <c r="G60" s="0" t="str">
-        <f aca="false">CONCATENATE($P60,"_1")</f>
+      <c r="G60" s="14" t="str">
+        <f aca="false">F56</f>
         <v>132_1</v>
       </c>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
       <c r="O60" s="0" t="n">
         <f aca="false">O56+1</f>
         <v>133</v>
@@ -48504,6 +49513,14 @@
         <f aca="false">O60+1</f>
         <v>134</v>
       </c>
+      <c r="R60" s="0" t="n">
+        <f aca="false">O60-2</f>
+        <v>131</v>
+      </c>
+      <c r="S60" s="0" t="n">
+        <f aca="false">O60+2</f>
+        <v>135</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="n">
@@ -48520,12 +49537,18 @@
         <v>14</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G61" s="0" t="str">
-        <f aca="false">CONCATENATE($P61,"_1")</f>
+        <v>1535</v>
+      </c>
+      <c r="G61" s="14" t="str">
+        <f aca="false">F57</f>
         <v>133_1</v>
       </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14" t="str">
+        <f aca="false">F53</f>
+        <v>132_1</v>
+      </c>
+      <c r="J61" s="14"/>
       <c r="O61" s="0" t="n">
         <f aca="false">O57+1</f>
         <v>134</v>
@@ -48538,6 +49561,10 @@
         <f aca="false">O61+1</f>
         <v>135</v>
       </c>
+      <c r="R61" s="0" t="n">
+        <f aca="false">O61-2</f>
+        <v>132</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="n">
@@ -48554,12 +49581,18 @@
         <v>14</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G62" s="0" t="str">
-        <f aca="false">CONCATENATE($P62,"_1")</f>
+        <v>1535</v>
+      </c>
+      <c r="G62" s="14" t="str">
+        <f aca="false">F58</f>
         <v>133_1</v>
       </c>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14" t="str">
+        <f aca="false">F54</f>
+        <v>132_1</v>
+      </c>
+      <c r="J62" s="14"/>
       <c r="O62" s="0" t="n">
         <f aca="false">O58+1</f>
         <v>134</v>
@@ -48572,6 +49605,10 @@
         <f aca="false">O62+1</f>
         <v>135</v>
       </c>
+      <c r="R62" s="0" t="n">
+        <f aca="false">O62-2</f>
+        <v>132</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="n">
@@ -48588,12 +49625,18 @@
         <v>14</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G63" s="0" t="str">
-        <f aca="false">CONCATENATE($P63,"_1")</f>
+        <v>1535</v>
+      </c>
+      <c r="G63" s="14" t="str">
+        <f aca="false">F59</f>
         <v>133_1</v>
       </c>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14" t="str">
+        <f aca="false">F55</f>
+        <v>132_1</v>
+      </c>
+      <c r="J63" s="14"/>
       <c r="O63" s="0" t="n">
         <f aca="false">O59+1</f>
         <v>134</v>
@@ -48606,6 +49649,10 @@
         <f aca="false">O63+1</f>
         <v>135</v>
       </c>
+      <c r="R63" s="0" t="n">
+        <f aca="false">O63-2</f>
+        <v>132</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="n">
@@ -48622,12 +49669,18 @@
         <v>14</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G64" s="0" t="str">
-        <f aca="false">CONCATENATE($P64,"_1")</f>
+        <v>1535</v>
+      </c>
+      <c r="G64" s="14" t="str">
+        <f aca="false">F60</f>
         <v>133_1</v>
       </c>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14" t="str">
+        <f aca="false">F56</f>
+        <v>132_1</v>
+      </c>
+      <c r="J64" s="14"/>
       <c r="O64" s="0" t="n">
         <f aca="false">O60+1</f>
         <v>134</v>
@@ -48640,6 +49693,10 @@
         <f aca="false">O64+1</f>
         <v>135</v>
       </c>
+      <c r="R64" s="0" t="n">
+        <f aca="false">O64-2</f>
+        <v>132</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="n">
@@ -48656,8 +49713,15 @@
         <v>15</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>1529</v>
-      </c>
+        <v>1535</v>
+      </c>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14" t="str">
+        <f aca="false">F57</f>
+        <v>133_1</v>
+      </c>
+      <c r="J65" s="14"/>
       <c r="O65" s="0" t="n">
         <f aca="false">O61+1</f>
         <v>135</v>
@@ -48666,6 +49730,10 @@
         <f aca="false">O65-1</f>
         <v>134</v>
       </c>
+      <c r="R65" s="0" t="n">
+        <f aca="false">O65-2</f>
+        <v>133</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="n">
@@ -48682,8 +49750,15 @@
         <v>15</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>1529</v>
-      </c>
+        <v>1535</v>
+      </c>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14" t="str">
+        <f aca="false">F58</f>
+        <v>133_1</v>
+      </c>
+      <c r="J66" s="14"/>
       <c r="O66" s="0" t="n">
         <f aca="false">O62+1</f>
         <v>135</v>
@@ -48692,6 +49767,10 @@
         <f aca="false">O66-1</f>
         <v>134</v>
       </c>
+      <c r="R66" s="0" t="n">
+        <f aca="false">O66-2</f>
+        <v>133</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="n">
@@ -48708,8 +49787,15 @@
         <v>15</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>1529</v>
-      </c>
+        <v>1535</v>
+      </c>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14" t="str">
+        <f aca="false">F59</f>
+        <v>133_1</v>
+      </c>
+      <c r="J67" s="14"/>
       <c r="O67" s="0" t="n">
         <f aca="false">O63+1</f>
         <v>135</v>
@@ -48718,6 +49804,10 @@
         <f aca="false">O67-1</f>
         <v>134</v>
       </c>
+      <c r="R67" s="0" t="n">
+        <f aca="false">O67-2</f>
+        <v>133</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
@@ -48734,8 +49824,15 @@
         <v>15</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>1529</v>
-      </c>
+        <v>1535</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14" t="str">
+        <f aca="false">F60</f>
+        <v>133_1</v>
+      </c>
+      <c r="J68" s="14"/>
       <c r="O68" s="0" t="n">
         <f aca="false">O64+1</f>
         <v>135</v>
@@ -48744,6 +49841,10 @@
         <f aca="false">O68-1</f>
         <v>134</v>
       </c>
+      <c r="R68" s="0" t="n">
+        <f aca="false">O68-2</f>
+        <v>133</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="n">
@@ -48755,23 +49856,40 @@
       <c r="C69" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D69" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>1530</v>
-      </c>
-      <c r="H69" s="0" t="str">
-        <f aca="false">CONCATENATE($Q69,"_1")</f>
+      <c r="D69" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13" t="str">
+        <f aca="false">F73</f>
         <v>221_1</v>
       </c>
-      <c r="O69" s="0" t="n">
+      <c r="I69" s="13"/>
+      <c r="J69" s="13" t="str">
+        <f aca="false">F77</f>
+        <v>222_1</v>
+      </c>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13" t="n">
         <v>220</v>
       </c>
-      <c r="Q69" s="0" t="n">
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13" t="n">
         <f aca="false">O69+1</f>
         <v>221</v>
       </c>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13" t="n">
+        <f aca="false">O69+2</f>
+        <v>222</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="n">
@@ -48783,24 +49901,41 @@
       <c r="C70" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D70" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>1530</v>
-      </c>
-      <c r="H70" s="0" t="str">
-        <f aca="false">CONCATENATE($Q70,"_1")</f>
+      <c r="D70" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13" t="str">
+        <f aca="false">F74</f>
         <v>221_1</v>
       </c>
-      <c r="O70" s="0" t="n">
+      <c r="I70" s="13"/>
+      <c r="J70" s="13" t="str">
+        <f aca="false">F78</f>
+        <v>222_1</v>
+      </c>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13" t="n">
         <f aca="false">O69</f>
         <v>220</v>
       </c>
-      <c r="Q70" s="0" t="n">
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13" t="n">
         <f aca="false">O70+1</f>
         <v>221</v>
       </c>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13" t="n">
+        <f aca="false">O70+2</f>
+        <v>222</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="n">
@@ -48812,24 +49947,41 @@
       <c r="C71" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D71" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>1530</v>
-      </c>
-      <c r="H71" s="0" t="str">
-        <f aca="false">CONCATENATE($Q71,"_1")</f>
+      <c r="D71" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13" t="str">
+        <f aca="false">F75</f>
         <v>221_1</v>
       </c>
-      <c r="O71" s="0" t="n">
+      <c r="I71" s="13"/>
+      <c r="J71" s="13" t="str">
+        <f aca="false">F79</f>
+        <v>222_1</v>
+      </c>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13" t="n">
         <f aca="false">O70</f>
         <v>220</v>
       </c>
-      <c r="Q71" s="0" t="n">
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13" t="n">
         <f aca="false">O71+1</f>
         <v>221</v>
       </c>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13" t="n">
+        <f aca="false">O71+2</f>
+        <v>222</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
@@ -48841,24 +49993,41 @@
       <c r="C72" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D72" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>1530</v>
-      </c>
-      <c r="H72" s="0" t="str">
-        <f aca="false">CONCATENATE($Q72,"_1")</f>
+      <c r="D72" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13" t="str">
+        <f aca="false">F76</f>
         <v>221_1</v>
       </c>
-      <c r="O72" s="0" t="n">
+      <c r="I72" s="13"/>
+      <c r="J72" s="13" t="str">
+        <f aca="false">F80</f>
+        <v>222_1</v>
+      </c>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13" t="n">
         <f aca="false">O71</f>
         <v>220</v>
       </c>
-      <c r="Q72" s="0" t="n">
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13" t="n">
         <f aca="false">O72+1</f>
         <v>221</v>
       </c>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13" t="n">
+        <f aca="false">O72+2</f>
+        <v>222</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="n">
@@ -48870,33 +50039,45 @@
       <c r="C73" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D73" s="5" t="n">
+      <c r="D73" s="12" t="n">
         <f aca="false">D69+1</f>
         <v>1</v>
       </c>
-      <c r="E73" s="0" t="s">
-        <v>1530</v>
-      </c>
-      <c r="F73" s="0" t="str">
+      <c r="E73" s="13" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F73" s="13" t="str">
         <f aca="false">CONCATENATE($O73,"_1")</f>
         <v>221_1</v>
       </c>
-      <c r="H73" s="0" t="str">
-        <f aca="false">CONCATENATE($Q73,"_1")</f>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13" t="str">
+        <f aca="false">F77</f>
         <v>222_1</v>
       </c>
-      <c r="O73" s="0" t="n">
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13" t="n">
         <f aca="false">O69+1</f>
         <v>221</v>
       </c>
-      <c r="P73" s="0" t="n">
+      <c r="P73" s="13" t="n">
         <f aca="false">O73-1</f>
         <v>220</v>
       </c>
-      <c r="Q73" s="0" t="n">
+      <c r="Q73" s="13" t="n">
         <f aca="false">O73+1</f>
         <v>222</v>
       </c>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13" t="n">
+        <f aca="false">O73+2</f>
+        <v>223</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
@@ -48908,33 +50089,45 @@
       <c r="C74" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D74" s="5" t="n">
+      <c r="D74" s="12" t="n">
         <f aca="false">D70+1</f>
         <v>1</v>
       </c>
-      <c r="E74" s="0" t="s">
-        <v>1530</v>
-      </c>
-      <c r="F74" s="0" t="str">
+      <c r="E74" s="13" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F74" s="13" t="str">
         <f aca="false">CONCATENATE($O74,"_1")</f>
         <v>221_1</v>
       </c>
-      <c r="H74" s="0" t="str">
-        <f aca="false">CONCATENATE($Q74,"_1")</f>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13" t="str">
+        <f aca="false">F78</f>
         <v>222_1</v>
       </c>
-      <c r="O74" s="0" t="n">
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13" t="n">
         <f aca="false">O70+1</f>
         <v>221</v>
       </c>
-      <c r="P74" s="0" t="n">
+      <c r="P74" s="13" t="n">
         <f aca="false">O74-1</f>
         <v>220</v>
       </c>
-      <c r="Q74" s="0" t="n">
+      <c r="Q74" s="13" t="n">
         <f aca="false">O74+1</f>
         <v>222</v>
       </c>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13" t="n">
+        <f aca="false">O74+2</f>
+        <v>223</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="n">
@@ -48946,33 +50139,45 @@
       <c r="C75" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D75" s="5" t="n">
+      <c r="D75" s="12" t="n">
         <f aca="false">D71+1</f>
         <v>1</v>
       </c>
-      <c r="E75" s="0" t="s">
-        <v>1530</v>
-      </c>
-      <c r="F75" s="0" t="str">
+      <c r="E75" s="13" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F75" s="13" t="str">
         <f aca="false">CONCATENATE($O75,"_1")</f>
         <v>221_1</v>
       </c>
-      <c r="H75" s="0" t="str">
-        <f aca="false">CONCATENATE($Q75,"_1")</f>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13" t="str">
+        <f aca="false">F79</f>
         <v>222_1</v>
       </c>
-      <c r="O75" s="0" t="n">
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13" t="n">
         <f aca="false">O71+1</f>
         <v>221</v>
       </c>
-      <c r="P75" s="0" t="n">
+      <c r="P75" s="13" t="n">
         <f aca="false">O75-1</f>
         <v>220</v>
       </c>
-      <c r="Q75" s="0" t="n">
+      <c r="Q75" s="13" t="n">
         <f aca="false">O75+1</f>
         <v>222</v>
       </c>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13" t="n">
+        <f aca="false">O75+2</f>
+        <v>223</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="n">
@@ -48984,33 +50189,45 @@
       <c r="C76" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D76" s="5" t="n">
+      <c r="D76" s="12" t="n">
         <f aca="false">D72+1</f>
         <v>1</v>
       </c>
-      <c r="E76" s="0" t="s">
-        <v>1530</v>
-      </c>
-      <c r="F76" s="0" t="str">
+      <c r="E76" s="13" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F76" s="13" t="str">
         <f aca="false">CONCATENATE($O76,"_1")</f>
         <v>221_1</v>
       </c>
-      <c r="H76" s="0" t="str">
-        <f aca="false">CONCATENATE($Q76,"_1")</f>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13" t="str">
+        <f aca="false">F80</f>
         <v>222_1</v>
       </c>
-      <c r="O76" s="0" t="n">
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13" t="n">
         <f aca="false">O72+1</f>
         <v>221</v>
       </c>
-      <c r="P76" s="0" t="n">
+      <c r="P76" s="13" t="n">
         <f aca="false">O76-1</f>
         <v>220</v>
       </c>
-      <c r="Q76" s="0" t="n">
+      <c r="Q76" s="13" t="n">
         <f aca="false">O76+1</f>
         <v>222</v>
       </c>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13" t="n">
+        <f aca="false">O76+2</f>
+        <v>223</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
@@ -49022,33 +50239,48 @@
       <c r="C77" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D77" s="5" t="n">
+      <c r="D77" s="12" t="n">
         <f aca="false">D73+1</f>
         <v>2</v>
       </c>
-      <c r="E77" s="0" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F77" s="0" t="str">
+      <c r="E77" s="13" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F77" s="13" t="str">
         <f aca="false">CONCATENATE($O77,"_1")</f>
         <v>222_1</v>
       </c>
-      <c r="G77" s="0" t="str">
-        <f aca="false">CONCATENATE($P77,"_1")</f>
+      <c r="G77" s="13" t="str">
+        <f aca="false">F73</f>
         <v>221_1</v>
       </c>
-      <c r="O77" s="0" t="n">
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13" t="n">
         <f aca="false">O73+1</f>
         <v>222</v>
       </c>
-      <c r="P77" s="0" t="n">
+      <c r="P77" s="13" t="n">
         <f aca="false">O77-1</f>
         <v>221</v>
       </c>
-      <c r="Q77" s="0" t="n">
+      <c r="Q77" s="13" t="n">
         <f aca="false">O77+1</f>
         <v>223</v>
       </c>
+      <c r="R77" s="13" t="n">
+        <f aca="false">O77-2</f>
+        <v>220</v>
+      </c>
+      <c r="S77" s="13" t="n">
+        <f aca="false">O77+2</f>
+        <v>224</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="n">
@@ -49060,33 +50292,48 @@
       <c r="C78" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D78" s="5" t="n">
+      <c r="D78" s="12" t="n">
         <f aca="false">D74+1</f>
         <v>2</v>
       </c>
-      <c r="E78" s="0" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F78" s="0" t="str">
+      <c r="E78" s="13" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F78" s="13" t="str">
         <f aca="false">CONCATENATE($O78,"_1")</f>
         <v>222_1</v>
       </c>
-      <c r="G78" s="0" t="str">
-        <f aca="false">CONCATENATE($P78,"_1")</f>
+      <c r="G78" s="13" t="str">
+        <f aca="false">F74</f>
         <v>221_1</v>
       </c>
-      <c r="O78" s="0" t="n">
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13" t="n">
         <f aca="false">O74+1</f>
         <v>222</v>
       </c>
-      <c r="P78" s="0" t="n">
+      <c r="P78" s="13" t="n">
         <f aca="false">O78-1</f>
         <v>221</v>
       </c>
-      <c r="Q78" s="0" t="n">
+      <c r="Q78" s="13" t="n">
         <f aca="false">O78+1</f>
         <v>223</v>
       </c>
+      <c r="R78" s="13" t="n">
+        <f aca="false">O78-2</f>
+        <v>220</v>
+      </c>
+      <c r="S78" s="13" t="n">
+        <f aca="false">O78+2</f>
+        <v>224</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="n">
@@ -49098,33 +50345,48 @@
       <c r="C79" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D79" s="5" t="n">
+      <c r="D79" s="12" t="n">
         <f aca="false">D75+1</f>
         <v>2</v>
       </c>
-      <c r="E79" s="0" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F79" s="0" t="str">
+      <c r="E79" s="13" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F79" s="13" t="str">
         <f aca="false">CONCATENATE($O79,"_1")</f>
         <v>222_1</v>
       </c>
-      <c r="G79" s="0" t="str">
-        <f aca="false">CONCATENATE($P79,"_1")</f>
+      <c r="G79" s="13" t="str">
+        <f aca="false">F75</f>
         <v>221_1</v>
       </c>
-      <c r="O79" s="0" t="n">
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13" t="n">
         <f aca="false">O75+1</f>
         <v>222</v>
       </c>
-      <c r="P79" s="0" t="n">
+      <c r="P79" s="13" t="n">
         <f aca="false">O79-1</f>
         <v>221</v>
       </c>
-      <c r="Q79" s="0" t="n">
+      <c r="Q79" s="13" t="n">
         <f aca="false">O79+1</f>
         <v>223</v>
       </c>
+      <c r="R79" s="13" t="n">
+        <f aca="false">O79-2</f>
+        <v>220</v>
+      </c>
+      <c r="S79" s="13" t="n">
+        <f aca="false">O79+2</f>
+        <v>224</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
@@ -49136,33 +50398,48 @@
       <c r="C80" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D80" s="5" t="n">
+      <c r="D80" s="12" t="n">
         <f aca="false">D76+1</f>
         <v>2</v>
       </c>
-      <c r="E80" s="0" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F80" s="0" t="str">
+      <c r="E80" s="13" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F80" s="13" t="str">
         <f aca="false">CONCATENATE($O80,"_1")</f>
         <v>222_1</v>
       </c>
-      <c r="G80" s="0" t="str">
-        <f aca="false">CONCATENATE($P80,"_1")</f>
+      <c r="G80" s="13" t="str">
+        <f aca="false">F76</f>
         <v>221_1</v>
       </c>
-      <c r="O80" s="0" t="n">
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13" t="n">
         <f aca="false">O76+1</f>
         <v>222</v>
       </c>
-      <c r="P80" s="0" t="n">
+      <c r="P80" s="13" t="n">
         <f aca="false">O80-1</f>
         <v>221</v>
       </c>
-      <c r="Q80" s="0" t="n">
+      <c r="Q80" s="13" t="n">
         <f aca="false">O80+1</f>
         <v>223</v>
       </c>
+      <c r="R80" s="13" t="n">
+        <f aca="false">O80-2</f>
+        <v>220</v>
+      </c>
+      <c r="S80" s="13" t="n">
+        <f aca="false">O80+2</f>
+        <v>224</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="n">
@@ -49174,29 +50451,54 @@
       <c r="C81" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D81" s="5" t="n">
+      <c r="D81" s="12" t="n">
         <f aca="false">D77+1</f>
         <v>3</v>
       </c>
-      <c r="E81" s="0" t="s">
-        <v>1531</v>
-      </c>
-      <c r="G81" s="0" t="str">
-        <f aca="false">CONCATENATE($P81,"_1")</f>
+      <c r="E81" s="13" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13" t="str">
+        <f aca="false">F77</f>
         <v>222_1</v>
       </c>
-      <c r="O81" s="0" t="n">
+      <c r="H81" s="13" t="n">
+        <f aca="false">F85</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="13" t="str">
+        <f aca="false">F73</f>
+        <v>221_1</v>
+      </c>
+      <c r="J81" s="13" t="str">
+        <f aca="false">F89</f>
+        <v>225_1</v>
+      </c>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13" t="n">
         <f aca="false">O77+1</f>
         <v>223</v>
       </c>
-      <c r="P81" s="0" t="n">
+      <c r="P81" s="13" t="n">
         <f aca="false">O81-1</f>
         <v>222</v>
       </c>
-      <c r="Q81" s="0" t="n">
+      <c r="Q81" s="13" t="n">
         <f aca="false">O81+1</f>
         <v>224</v>
       </c>
+      <c r="R81" s="13" t="n">
+        <f aca="false">O81-2</f>
+        <v>221</v>
+      </c>
+      <c r="S81" s="13" t="n">
+        <f aca="false">O81+2</f>
+        <v>225</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="n">
@@ -49208,29 +50510,54 @@
       <c r="C82" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D82" s="5" t="n">
+      <c r="D82" s="12" t="n">
         <f aca="false">D78+1</f>
         <v>3</v>
       </c>
-      <c r="E82" s="0" t="s">
-        <v>1531</v>
-      </c>
-      <c r="G82" s="0" t="str">
-        <f aca="false">CONCATENATE($P82,"_1")</f>
+      <c r="E82" s="13" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13" t="str">
+        <f aca="false">F78</f>
         <v>222_1</v>
       </c>
-      <c r="O82" s="0" t="n">
+      <c r="H82" s="13" t="n">
+        <f aca="false">F86</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="13" t="str">
+        <f aca="false">F74</f>
+        <v>221_1</v>
+      </c>
+      <c r="J82" s="13" t="str">
+        <f aca="false">F90</f>
+        <v>225_1</v>
+      </c>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13" t="n">
         <f aca="false">O78+1</f>
         <v>223</v>
       </c>
-      <c r="P82" s="0" t="n">
+      <c r="P82" s="13" t="n">
         <f aca="false">O82-1</f>
         <v>222</v>
       </c>
-      <c r="Q82" s="0" t="n">
+      <c r="Q82" s="13" t="n">
         <f aca="false">O82+1</f>
         <v>224</v>
       </c>
+      <c r="R82" s="13" t="n">
+        <f aca="false">O82-2</f>
+        <v>221</v>
+      </c>
+      <c r="S82" s="13" t="n">
+        <f aca="false">O82+2</f>
+        <v>225</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="n">
@@ -49242,29 +50569,54 @@
       <c r="C83" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D83" s="5" t="n">
+      <c r="D83" s="12" t="n">
         <f aca="false">D79+1</f>
         <v>3</v>
       </c>
-      <c r="E83" s="0" t="s">
-        <v>1531</v>
-      </c>
-      <c r="G83" s="0" t="str">
-        <f aca="false">CONCATENATE($P83,"_1")</f>
+      <c r="E83" s="13" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13" t="str">
+        <f aca="false">F79</f>
         <v>222_1</v>
       </c>
-      <c r="O83" s="0" t="n">
+      <c r="H83" s="13" t="n">
+        <f aca="false">F87</f>
+        <v>0</v>
+      </c>
+      <c r="I83" s="13" t="str">
+        <f aca="false">F75</f>
+        <v>221_1</v>
+      </c>
+      <c r="J83" s="13" t="str">
+        <f aca="false">F91</f>
+        <v>225_1</v>
+      </c>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13" t="n">
         <f aca="false">O79+1</f>
         <v>223</v>
       </c>
-      <c r="P83" s="0" t="n">
+      <c r="P83" s="13" t="n">
         <f aca="false">O83-1</f>
         <v>222</v>
       </c>
-      <c r="Q83" s="0" t="n">
+      <c r="Q83" s="13" t="n">
         <f aca="false">O83+1</f>
         <v>224</v>
       </c>
+      <c r="R83" s="13" t="n">
+        <f aca="false">O83-2</f>
+        <v>221</v>
+      </c>
+      <c r="S83" s="13" t="n">
+        <f aca="false">O83+2</f>
+        <v>225</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="n">
@@ -49276,29 +50628,54 @@
       <c r="C84" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D84" s="5" t="n">
+      <c r="D84" s="12" t="n">
         <f aca="false">D80+1</f>
         <v>3</v>
       </c>
-      <c r="E84" s="0" t="s">
-        <v>1531</v>
-      </c>
-      <c r="G84" s="0" t="str">
-        <f aca="false">CONCATENATE($P84,"_1")</f>
+      <c r="E84" s="13" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13" t="str">
+        <f aca="false">F80</f>
         <v>222_1</v>
       </c>
-      <c r="O84" s="0" t="n">
+      <c r="H84" s="13" t="n">
+        <f aca="false">F88</f>
+        <v>0</v>
+      </c>
+      <c r="I84" s="13" t="str">
+        <f aca="false">F76</f>
+        <v>221_1</v>
+      </c>
+      <c r="J84" s="13" t="str">
+        <f aca="false">F92</f>
+        <v>225_1</v>
+      </c>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13" t="n">
         <f aca="false">O80+1</f>
         <v>223</v>
       </c>
-      <c r="P84" s="0" t="n">
+      <c r="P84" s="13" t="n">
         <f aca="false">O84-1</f>
         <v>222</v>
       </c>
-      <c r="Q84" s="0" t="n">
+      <c r="Q84" s="13" t="n">
         <f aca="false">O84+1</f>
         <v>224</v>
       </c>
+      <c r="R84" s="13" t="n">
+        <f aca="false">O84-2</f>
+        <v>221</v>
+      </c>
+      <c r="S84" s="13" t="n">
+        <f aca="false">O84+2</f>
+        <v>225</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
@@ -49310,29 +50687,54 @@
       <c r="C85" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D85" s="5" t="n">
+      <c r="D85" s="12" t="n">
         <f aca="false">D81+1</f>
         <v>4</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>1532</v>
-      </c>
-      <c r="H85" s="0" t="str">
-        <f aca="false">CONCATENATE($Q85,"_1")</f>
+      <c r="E85" s="13" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13" t="n">
+        <f aca="false">F81</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="13" t="str">
+        <f aca="false">F89</f>
         <v>225_1</v>
       </c>
-      <c r="O85" s="0" t="n">
+      <c r="I85" s="13" t="str">
+        <f aca="false">F77</f>
+        <v>222_1</v>
+      </c>
+      <c r="J85" s="13" t="str">
+        <f aca="false">F93</f>
+        <v>226_1</v>
+      </c>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13" t="n">
         <f aca="false">O81+1</f>
         <v>224</v>
       </c>
-      <c r="P85" s="0" t="n">
+      <c r="P85" s="13" t="n">
         <f aca="false">O85-1</f>
         <v>223</v>
       </c>
-      <c r="Q85" s="0" t="n">
+      <c r="Q85" s="13" t="n">
         <f aca="false">O85+1</f>
         <v>225</v>
       </c>
+      <c r="R85" s="13" t="n">
+        <f aca="false">O85-2</f>
+        <v>222</v>
+      </c>
+      <c r="S85" s="13" t="n">
+        <f aca="false">O85+2</f>
+        <v>226</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
@@ -49344,29 +50746,54 @@
       <c r="C86" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D86" s="5" t="n">
+      <c r="D86" s="12" t="n">
         <f aca="false">D82+1</f>
         <v>4</v>
       </c>
-      <c r="E86" s="0" t="s">
-        <v>1532</v>
-      </c>
-      <c r="H86" s="0" t="str">
-        <f aca="false">CONCATENATE($Q86,"_1")</f>
+      <c r="E86" s="13" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13" t="n">
+        <f aca="false">F82</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="13" t="str">
+        <f aca="false">F90</f>
         <v>225_1</v>
       </c>
-      <c r="O86" s="0" t="n">
+      <c r="I86" s="13" t="str">
+        <f aca="false">F78</f>
+        <v>222_1</v>
+      </c>
+      <c r="J86" s="13" t="str">
+        <f aca="false">F94</f>
+        <v>226_1</v>
+      </c>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13" t="n">
         <f aca="false">O82+1</f>
         <v>224</v>
       </c>
-      <c r="P86" s="0" t="n">
+      <c r="P86" s="13" t="n">
         <f aca="false">O86-1</f>
         <v>223</v>
       </c>
-      <c r="Q86" s="0" t="n">
+      <c r="Q86" s="13" t="n">
         <f aca="false">O86+1</f>
         <v>225</v>
       </c>
+      <c r="R86" s="13" t="n">
+        <f aca="false">O86-2</f>
+        <v>222</v>
+      </c>
+      <c r="S86" s="13" t="n">
+        <f aca="false">O86+2</f>
+        <v>226</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
@@ -49378,29 +50805,54 @@
       <c r="C87" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D87" s="5" t="n">
+      <c r="D87" s="12" t="n">
         <f aca="false">D83+1</f>
         <v>4</v>
       </c>
-      <c r="E87" s="0" t="s">
-        <v>1532</v>
-      </c>
-      <c r="H87" s="0" t="str">
-        <f aca="false">CONCATENATE($Q87,"_1")</f>
+      <c r="E87" s="13" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13" t="n">
+        <f aca="false">F83</f>
+        <v>0</v>
+      </c>
+      <c r="H87" s="13" t="str">
+        <f aca="false">F91</f>
         <v>225_1</v>
       </c>
-      <c r="O87" s="0" t="n">
+      <c r="I87" s="13" t="str">
+        <f aca="false">F79</f>
+        <v>222_1</v>
+      </c>
+      <c r="J87" s="13" t="str">
+        <f aca="false">F95</f>
+        <v>226_1</v>
+      </c>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13" t="n">
         <f aca="false">O83+1</f>
         <v>224</v>
       </c>
-      <c r="P87" s="0" t="n">
+      <c r="P87" s="13" t="n">
         <f aca="false">O87-1</f>
         <v>223</v>
       </c>
-      <c r="Q87" s="0" t="n">
+      <c r="Q87" s="13" t="n">
         <f aca="false">O87+1</f>
         <v>225</v>
       </c>
+      <c r="R87" s="13" t="n">
+        <f aca="false">O87-2</f>
+        <v>222</v>
+      </c>
+      <c r="S87" s="13" t="n">
+        <f aca="false">O87+2</f>
+        <v>226</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
@@ -49412,29 +50864,54 @@
       <c r="C88" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D88" s="5" t="n">
+      <c r="D88" s="12" t="n">
         <f aca="false">D84+1</f>
         <v>4</v>
       </c>
-      <c r="E88" s="0" t="s">
-        <v>1532</v>
-      </c>
-      <c r="H88" s="0" t="str">
-        <f aca="false">CONCATENATE($Q88,"_1")</f>
+      <c r="E88" s="13" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13" t="n">
+        <f aca="false">F84</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="13" t="str">
+        <f aca="false">F92</f>
         <v>225_1</v>
       </c>
-      <c r="O88" s="0" t="n">
+      <c r="I88" s="13" t="str">
+        <f aca="false">F80</f>
+        <v>222_1</v>
+      </c>
+      <c r="J88" s="13" t="str">
+        <f aca="false">F96</f>
+        <v>226_1</v>
+      </c>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13" t="n">
         <f aca="false">O84+1</f>
         <v>224</v>
       </c>
-      <c r="P88" s="0" t="n">
+      <c r="P88" s="13" t="n">
         <f aca="false">O88-1</f>
         <v>223</v>
       </c>
-      <c r="Q88" s="0" t="n">
+      <c r="Q88" s="13" t="n">
         <f aca="false">O88+1</f>
         <v>225</v>
       </c>
+      <c r="R88" s="13" t="n">
+        <f aca="false">O88-2</f>
+        <v>222</v>
+      </c>
+      <c r="S88" s="13" t="n">
+        <f aca="false">O88+2</f>
+        <v>226</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="n">
@@ -49446,33 +50923,51 @@
       <c r="C89" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D89" s="5" t="n">
+      <c r="D89" s="12" t="n">
         <f aca="false">D85+1</f>
         <v>5</v>
       </c>
-      <c r="E89" s="0" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F89" s="0" t="str">
+      <c r="E89" s="13" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F89" s="13" t="str">
         <f aca="false">CONCATENATE($O89,"_1")</f>
         <v>225_1</v>
       </c>
-      <c r="H89" s="0" t="str">
-        <f aca="false">CONCATENATE($Q89,"_1")</f>
+      <c r="G89" s="13" t="n">
+        <f aca="false">F85</f>
+        <v>0</v>
+      </c>
+      <c r="H89" s="13" t="str">
+        <f aca="false">F93</f>
         <v>226_1</v>
       </c>
-      <c r="O89" s="0" t="n">
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="13" t="n">
         <f aca="false">O85+1</f>
         <v>225</v>
       </c>
-      <c r="P89" s="0" t="n">
+      <c r="P89" s="13" t="n">
         <f aca="false">O89-1</f>
         <v>224</v>
       </c>
-      <c r="Q89" s="0" t="n">
+      <c r="Q89" s="13" t="n">
         <f aca="false">O89+1</f>
         <v>226</v>
       </c>
+      <c r="R89" s="13" t="n">
+        <f aca="false">O89-2</f>
+        <v>223</v>
+      </c>
+      <c r="S89" s="13" t="n">
+        <f aca="false">O89+2</f>
+        <v>227</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
@@ -49484,33 +50979,51 @@
       <c r="C90" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D90" s="5" t="n">
+      <c r="D90" s="12" t="n">
         <f aca="false">D86+1</f>
         <v>5</v>
       </c>
-      <c r="E90" s="0" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F90" s="0" t="str">
+      <c r="E90" s="13" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F90" s="13" t="str">
         <f aca="false">CONCATENATE($O90,"_1")</f>
         <v>225_1</v>
       </c>
-      <c r="H90" s="0" t="str">
-        <f aca="false">CONCATENATE($Q90,"_1")</f>
+      <c r="G90" s="13" t="n">
+        <f aca="false">F86</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="13" t="str">
+        <f aca="false">F94</f>
         <v>226_1</v>
       </c>
-      <c r="O90" s="0" t="n">
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13" t="n">
         <f aca="false">O86+1</f>
         <v>225</v>
       </c>
-      <c r="P90" s="0" t="n">
+      <c r="P90" s="13" t="n">
         <f aca="false">O90-1</f>
         <v>224</v>
       </c>
-      <c r="Q90" s="0" t="n">
+      <c r="Q90" s="13" t="n">
         <f aca="false">O90+1</f>
         <v>226</v>
       </c>
+      <c r="R90" s="13" t="n">
+        <f aca="false">O90-2</f>
+        <v>223</v>
+      </c>
+      <c r="S90" s="13" t="n">
+        <f aca="false">O90+2</f>
+        <v>227</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
@@ -49522,33 +51035,51 @@
       <c r="C91" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D91" s="5" t="n">
+      <c r="D91" s="12" t="n">
         <f aca="false">D87+1</f>
         <v>5</v>
       </c>
-      <c r="E91" s="0" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F91" s="0" t="str">
+      <c r="E91" s="13" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F91" s="13" t="str">
         <f aca="false">CONCATENATE($O91,"_1")</f>
         <v>225_1</v>
       </c>
-      <c r="H91" s="0" t="str">
-        <f aca="false">CONCATENATE($Q91,"_1")</f>
+      <c r="G91" s="13" t="n">
+        <f aca="false">F87</f>
+        <v>0</v>
+      </c>
+      <c r="H91" s="13" t="str">
+        <f aca="false">F95</f>
         <v>226_1</v>
       </c>
-      <c r="O91" s="0" t="n">
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
+      <c r="O91" s="13" t="n">
         <f aca="false">O87+1</f>
         <v>225</v>
       </c>
-      <c r="P91" s="0" t="n">
+      <c r="P91" s="13" t="n">
         <f aca="false">O91-1</f>
         <v>224</v>
       </c>
-      <c r="Q91" s="0" t="n">
+      <c r="Q91" s="13" t="n">
         <f aca="false">O91+1</f>
         <v>226</v>
       </c>
+      <c r="R91" s="13" t="n">
+        <f aca="false">O91-2</f>
+        <v>223</v>
+      </c>
+      <c r="S91" s="13" t="n">
+        <f aca="false">O91+2</f>
+        <v>227</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="n">
@@ -49560,33 +51091,51 @@
       <c r="C92" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D92" s="5" t="n">
+      <c r="D92" s="12" t="n">
         <f aca="false">D88+1</f>
         <v>5</v>
       </c>
-      <c r="E92" s="0" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F92" s="0" t="str">
+      <c r="E92" s="13" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F92" s="13" t="str">
         <f aca="false">CONCATENATE($O92,"_1")</f>
         <v>225_1</v>
       </c>
-      <c r="H92" s="0" t="str">
-        <f aca="false">CONCATENATE($Q92,"_1")</f>
+      <c r="G92" s="13" t="n">
+        <f aca="false">F88</f>
+        <v>0</v>
+      </c>
+      <c r="H92" s="13" t="str">
+        <f aca="false">F96</f>
         <v>226_1</v>
       </c>
-      <c r="O92" s="0" t="n">
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+      <c r="O92" s="13" t="n">
         <f aca="false">O88+1</f>
         <v>225</v>
       </c>
-      <c r="P92" s="0" t="n">
+      <c r="P92" s="13" t="n">
         <f aca="false">O92-1</f>
         <v>224</v>
       </c>
-      <c r="Q92" s="0" t="n">
+      <c r="Q92" s="13" t="n">
         <f aca="false">O92+1</f>
         <v>226</v>
       </c>
+      <c r="R92" s="13" t="n">
+        <f aca="false">O92-2</f>
+        <v>223</v>
+      </c>
+      <c r="S92" s="13" t="n">
+        <f aca="false">O92+2</f>
+        <v>227</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="n">
@@ -49598,33 +51147,45 @@
       <c r="C93" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D93" s="5" t="n">
+      <c r="D93" s="12" t="n">
         <f aca="false">D89+1</f>
         <v>6</v>
       </c>
-      <c r="E93" s="0" t="s">
-        <v>1533</v>
-      </c>
-      <c r="F93" s="0" t="str">
+      <c r="E93" s="13" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F93" s="13" t="str">
         <f aca="false">CONCATENATE($O93,"_1")</f>
         <v>226_1</v>
       </c>
-      <c r="G93" s="0" t="str">
-        <f aca="false">CONCATENATE($P93,"_1")</f>
+      <c r="G93" s="13" t="str">
+        <f aca="false">F89</f>
         <v>225_1</v>
       </c>
-      <c r="O93" s="0" t="n">
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="13" t="n">
         <f aca="false">O89+1</f>
         <v>226</v>
       </c>
-      <c r="P93" s="0" t="n">
+      <c r="P93" s="13" t="n">
         <f aca="false">O93-1</f>
         <v>225</v>
       </c>
-      <c r="Q93" s="0" t="n">
+      <c r="Q93" s="13" t="n">
         <f aca="false">O93+1</f>
         <v>227</v>
       </c>
+      <c r="R93" s="13" t="n">
+        <f aca="false">O93-2</f>
+        <v>224</v>
+      </c>
+      <c r="S93" s="13"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="n">
@@ -49636,33 +51197,45 @@
       <c r="C94" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D94" s="5" t="n">
+      <c r="D94" s="12" t="n">
         <f aca="false">D90+1</f>
         <v>6</v>
       </c>
-      <c r="E94" s="0" t="s">
-        <v>1533</v>
-      </c>
-      <c r="F94" s="0" t="str">
+      <c r="E94" s="13" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F94" s="13" t="str">
         <f aca="false">CONCATENATE($O94,"_1")</f>
         <v>226_1</v>
       </c>
-      <c r="G94" s="0" t="str">
-        <f aca="false">CONCATENATE($P94,"_1")</f>
+      <c r="G94" s="13" t="str">
+        <f aca="false">F90</f>
         <v>225_1</v>
       </c>
-      <c r="O94" s="0" t="n">
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="13" t="n">
         <f aca="false">O90+1</f>
         <v>226</v>
       </c>
-      <c r="P94" s="0" t="n">
+      <c r="P94" s="13" t="n">
         <f aca="false">O94-1</f>
         <v>225</v>
       </c>
-      <c r="Q94" s="0" t="n">
+      <c r="Q94" s="13" t="n">
         <f aca="false">O94+1</f>
         <v>227</v>
       </c>
+      <c r="R94" s="13" t="n">
+        <f aca="false">O94-2</f>
+        <v>224</v>
+      </c>
+      <c r="S94" s="13"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="n">
@@ -49674,33 +51247,45 @@
       <c r="C95" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D95" s="5" t="n">
+      <c r="D95" s="12" t="n">
         <f aca="false">D91+1</f>
         <v>6</v>
       </c>
-      <c r="E95" s="0" t="s">
-        <v>1533</v>
-      </c>
-      <c r="F95" s="0" t="str">
+      <c r="E95" s="13" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F95" s="13" t="str">
         <f aca="false">CONCATENATE($O95,"_1")</f>
         <v>226_1</v>
       </c>
-      <c r="G95" s="0" t="str">
-        <f aca="false">CONCATENATE($P95,"_1")</f>
+      <c r="G95" s="13" t="str">
+        <f aca="false">F91</f>
         <v>225_1</v>
       </c>
-      <c r="O95" s="0" t="n">
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="13" t="n">
         <f aca="false">O91+1</f>
         <v>226</v>
       </c>
-      <c r="P95" s="0" t="n">
+      <c r="P95" s="13" t="n">
         <f aca="false">O95-1</f>
         <v>225</v>
       </c>
-      <c r="Q95" s="0" t="n">
+      <c r="Q95" s="13" t="n">
         <f aca="false">O95+1</f>
         <v>227</v>
       </c>
+      <c r="R95" s="13" t="n">
+        <f aca="false">O95-2</f>
+        <v>224</v>
+      </c>
+      <c r="S95" s="13"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="n">
@@ -49712,33 +51297,45 @@
       <c r="C96" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D96" s="5" t="n">
+      <c r="D96" s="12" t="n">
         <f aca="false">D92+1</f>
         <v>6</v>
       </c>
-      <c r="E96" s="0" t="s">
-        <v>1533</v>
-      </c>
-      <c r="F96" s="0" t="str">
+      <c r="E96" s="13" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F96" s="13" t="str">
         <f aca="false">CONCATENATE($O96,"_1")</f>
         <v>226_1</v>
       </c>
-      <c r="G96" s="0" t="str">
-        <f aca="false">CONCATENATE($P96,"_1")</f>
+      <c r="G96" s="13" t="str">
+        <f aca="false">F92</f>
         <v>225_1</v>
       </c>
-      <c r="O96" s="0" t="n">
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="13" t="n">
         <f aca="false">O92+1</f>
         <v>226</v>
       </c>
-      <c r="P96" s="0" t="n">
+      <c r="P96" s="13" t="n">
         <f aca="false">O96-1</f>
         <v>225</v>
       </c>
-      <c r="Q96" s="0" t="n">
+      <c r="Q96" s="13" t="n">
         <f aca="false">O96+1</f>
         <v>227</v>
       </c>
+      <c r="R96" s="13" t="n">
+        <f aca="false">O96-2</f>
+        <v>224</v>
+      </c>
+      <c r="S96" s="13"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="n">
@@ -49750,25 +51347,42 @@
       <c r="C97" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D97" s="5" t="n">
+      <c r="D97" s="12" t="n">
         <f aca="false">D93+1</f>
         <v>7</v>
       </c>
-      <c r="E97" s="0" t="s">
-        <v>1533</v>
-      </c>
-      <c r="G97" s="0" t="str">
-        <f aca="false">CONCATENATE($P97,"_1")</f>
+      <c r="E97" s="13" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13" t="str">
+        <f aca="false">F93</f>
         <v>226_1</v>
       </c>
-      <c r="O97" s="0" t="n">
+      <c r="H97" s="13"/>
+      <c r="I97" s="13" t="str">
+        <f aca="false">F89</f>
+        <v>225_1</v>
+      </c>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
+      <c r="O97" s="13" t="n">
         <f aca="false">O93+1</f>
         <v>227</v>
       </c>
-      <c r="P97" s="0" t="n">
+      <c r="P97" s="13" t="n">
         <f aca="false">O97-1</f>
         <v>226</v>
       </c>
+      <c r="Q97" s="13"/>
+      <c r="R97" s="13" t="n">
+        <f aca="false">O97-2</f>
+        <v>225</v>
+      </c>
+      <c r="S97" s="13"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="n">
@@ -49780,25 +51394,42 @@
       <c r="C98" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D98" s="5" t="n">
+      <c r="D98" s="12" t="n">
         <f aca="false">D94+1</f>
         <v>7</v>
       </c>
-      <c r="E98" s="0" t="s">
-        <v>1533</v>
-      </c>
-      <c r="G98" s="0" t="str">
-        <f aca="false">CONCATENATE($P98,"_1")</f>
+      <c r="E98" s="13" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13" t="str">
+        <f aca="false">F94</f>
         <v>226_1</v>
       </c>
-      <c r="O98" s="0" t="n">
+      <c r="H98" s="13"/>
+      <c r="I98" s="13" t="str">
+        <f aca="false">F90</f>
+        <v>225_1</v>
+      </c>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13" t="n">
         <f aca="false">O94+1</f>
         <v>227</v>
       </c>
-      <c r="P98" s="0" t="n">
+      <c r="P98" s="13" t="n">
         <f aca="false">O98-1</f>
         <v>226</v>
       </c>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13" t="n">
+        <f aca="false">O98-2</f>
+        <v>225</v>
+      </c>
+      <c r="S98" s="13"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="n">
@@ -49810,25 +51441,42 @@
       <c r="C99" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D99" s="5" t="n">
+      <c r="D99" s="12" t="n">
         <f aca="false">D95+1</f>
         <v>7</v>
       </c>
-      <c r="E99" s="0" t="s">
-        <v>1533</v>
-      </c>
-      <c r="G99" s="0" t="str">
-        <f aca="false">CONCATENATE($P99,"_1")</f>
+      <c r="E99" s="13" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13" t="str">
+        <f aca="false">F95</f>
         <v>226_1</v>
       </c>
-      <c r="O99" s="0" t="n">
+      <c r="H99" s="13"/>
+      <c r="I99" s="13" t="str">
+        <f aca="false">F91</f>
+        <v>225_1</v>
+      </c>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
+      <c r="O99" s="13" t="n">
         <f aca="false">O95+1</f>
         <v>227</v>
       </c>
-      <c r="P99" s="0" t="n">
+      <c r="P99" s="13" t="n">
         <f aca="false">O99-1</f>
         <v>226</v>
       </c>
+      <c r="Q99" s="13"/>
+      <c r="R99" s="13" t="n">
+        <f aca="false">O99-2</f>
+        <v>225</v>
+      </c>
+      <c r="S99" s="13"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="n">
@@ -49840,25 +51488,42 @@
       <c r="C100" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D100" s="5" t="n">
+      <c r="D100" s="12" t="n">
         <f aca="false">D96+1</f>
         <v>7</v>
       </c>
-      <c r="E100" s="0" t="s">
-        <v>1533</v>
-      </c>
-      <c r="G100" s="0" t="str">
-        <f aca="false">CONCATENATE($P100,"_1")</f>
+      <c r="E100" s="13" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13" t="str">
+        <f aca="false">F96</f>
         <v>226_1</v>
       </c>
-      <c r="O100" s="0" t="n">
+      <c r="H100" s="13"/>
+      <c r="I100" s="13" t="str">
+        <f aca="false">F92</f>
+        <v>225_1</v>
+      </c>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
+      <c r="O100" s="13" t="n">
         <f aca="false">O96+1</f>
         <v>227</v>
       </c>
-      <c r="P100" s="0" t="n">
+      <c r="P100" s="13" t="n">
         <f aca="false">O100-1</f>
         <v>226</v>
       </c>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="13" t="n">
+        <f aca="false">O100-2</f>
+        <v>225</v>
+      </c>
+      <c r="S100" s="13"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="n">
@@ -49875,11 +51540,17 @@
         <v>8</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>1534</v>
-      </c>
-      <c r="H101" s="0" t="str">
-        <f aca="false">CONCATENATE($Q101,"_1")</f>
+        <v>1540</v>
+      </c>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14" t="str">
+        <f aca="false">F105</f>
         <v>229_1</v>
+      </c>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14" t="str">
+        <f aca="false">F109</f>
+        <v>230_1</v>
       </c>
       <c r="O101" s="0" t="n">
         <f aca="false">O97+1</f>
@@ -49889,6 +51560,10 @@
         <f aca="false">O101+1</f>
         <v>229</v>
       </c>
+      <c r="S101" s="0" t="n">
+        <f aca="false">O101+2</f>
+        <v>230</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="n">
@@ -49905,11 +51580,17 @@
         <v>8</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>1534</v>
-      </c>
-      <c r="H102" s="0" t="str">
-        <f aca="false">CONCATENATE($Q102,"_1")</f>
+        <v>1540</v>
+      </c>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14" t="str">
+        <f aca="false">F106</f>
         <v>229_1</v>
+      </c>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14" t="str">
+        <f aca="false">F110</f>
+        <v>230_1</v>
       </c>
       <c r="O102" s="0" t="n">
         <f aca="false">O98+1</f>
@@ -49919,6 +51600,10 @@
         <f aca="false">O102+1</f>
         <v>229</v>
       </c>
+      <c r="S102" s="0" t="n">
+        <f aca="false">O102+2</f>
+        <v>230</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="n">
@@ -49935,11 +51620,17 @@
         <v>8</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>1534</v>
-      </c>
-      <c r="H103" s="0" t="str">
-        <f aca="false">CONCATENATE($Q103,"_1")</f>
+        <v>1540</v>
+      </c>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14" t="str">
+        <f aca="false">F107</f>
         <v>229_1</v>
+      </c>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14" t="str">
+        <f aca="false">F111</f>
+        <v>230_1</v>
       </c>
       <c r="O103" s="0" t="n">
         <f aca="false">O99+1</f>
@@ -49949,6 +51640,10 @@
         <f aca="false">O103+1</f>
         <v>229</v>
       </c>
+      <c r="S103" s="0" t="n">
+        <f aca="false">O103+2</f>
+        <v>230</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="n">
@@ -49965,11 +51660,17 @@
         <v>8</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>1534</v>
-      </c>
-      <c r="H104" s="0" t="str">
-        <f aca="false">CONCATENATE($Q104,"_1")</f>
+        <v>1540</v>
+      </c>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14" t="str">
+        <f aca="false">F108</f>
         <v>229_1</v>
+      </c>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14" t="str">
+        <f aca="false">F112</f>
+        <v>230_1</v>
       </c>
       <c r="O104" s="0" t="n">
         <f aca="false">O100+1</f>
@@ -49979,6 +51680,10 @@
         <f aca="false">O104+1</f>
         <v>229</v>
       </c>
+      <c r="S104" s="0" t="n">
+        <f aca="false">O104+2</f>
+        <v>230</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="n">
@@ -49995,16 +51700,19 @@
         <v>9</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>1534</v>
+        <v>1540</v>
       </c>
       <c r="F105" s="0" t="str">
         <f aca="false">CONCATENATE($O105,"_1")</f>
         <v>229_1</v>
       </c>
-      <c r="H105" s="0" t="str">
-        <f aca="false">CONCATENATE($Q105,"_1")</f>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14" t="str">
+        <f aca="false">F109</f>
         <v>230_1</v>
       </c>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
       <c r="O105" s="0" t="n">
         <f aca="false">O101+1</f>
         <v>229</v>
@@ -50017,6 +51725,10 @@
         <f aca="false">O105+1</f>
         <v>230</v>
       </c>
+      <c r="S105" s="0" t="n">
+        <f aca="false">O105+2</f>
+        <v>231</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="n">
@@ -50033,16 +51745,19 @@
         <v>9</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>1534</v>
+        <v>1540</v>
       </c>
       <c r="F106" s="0" t="str">
         <f aca="false">CONCATENATE($O106,"_1")</f>
         <v>229_1</v>
       </c>
-      <c r="H106" s="0" t="str">
-        <f aca="false">CONCATENATE($Q106,"_1")</f>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14" t="str">
+        <f aca="false">F110</f>
         <v>230_1</v>
       </c>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
       <c r="O106" s="0" t="n">
         <f aca="false">O102+1</f>
         <v>229</v>
@@ -50055,6 +51770,10 @@
         <f aca="false">O106+1</f>
         <v>230</v>
       </c>
+      <c r="S106" s="0" t="n">
+        <f aca="false">O106+2</f>
+        <v>231</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="n">
@@ -50071,16 +51790,19 @@
         <v>9</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>1534</v>
+        <v>1540</v>
       </c>
       <c r="F107" s="0" t="str">
         <f aca="false">CONCATENATE($O107,"_1")</f>
         <v>229_1</v>
       </c>
-      <c r="H107" s="0" t="str">
-        <f aca="false">CONCATENATE($Q107,"_1")</f>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14" t="str">
+        <f aca="false">F111</f>
         <v>230_1</v>
       </c>
+      <c r="I107" s="14"/>
+      <c r="J107" s="14"/>
       <c r="O107" s="0" t="n">
         <f aca="false">O103+1</f>
         <v>229</v>
@@ -50093,6 +51815,10 @@
         <f aca="false">O107+1</f>
         <v>230</v>
       </c>
+      <c r="S107" s="0" t="n">
+        <f aca="false">O107+2</f>
+        <v>231</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="n">
@@ -50109,16 +51835,19 @@
         <v>9</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>1534</v>
+        <v>1540</v>
       </c>
       <c r="F108" s="0" t="str">
         <f aca="false">CONCATENATE($O108,"_1")</f>
         <v>229_1</v>
       </c>
-      <c r="H108" s="0" t="str">
-        <f aca="false">CONCATENATE($Q108,"_1")</f>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14" t="str">
+        <f aca="false">F112</f>
         <v>230_1</v>
       </c>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14"/>
       <c r="O108" s="0" t="n">
         <f aca="false">O104+1</f>
         <v>229</v>
@@ -50131,6 +51860,10 @@
         <f aca="false">O108+1</f>
         <v>230</v>
       </c>
+      <c r="S108" s="0" t="n">
+        <f aca="false">O108+2</f>
+        <v>231</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="n">
@@ -50147,15 +51880,21 @@
         <v>10</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>1535</v>
+        <v>1541</v>
       </c>
       <c r="F109" s="0" t="str">
         <f aca="false">CONCATENATE($O109,"_1")</f>
         <v>230_1</v>
       </c>
-      <c r="G109" s="0" t="str">
-        <f aca="false">CONCATENATE($P109,"_1")</f>
+      <c r="G109" s="14" t="str">
+        <f aca="false">F105</f>
         <v>229_1</v>
+      </c>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14" t="str">
+        <f aca="false">F117</f>
+        <v>232_1</v>
       </c>
       <c r="O109" s="0" t="n">
         <f aca="false">O105+1</f>
@@ -50169,6 +51908,14 @@
         <f aca="false">O109+1</f>
         <v>231</v>
       </c>
+      <c r="R109" s="0" t="n">
+        <f aca="false">O109-2</f>
+        <v>228</v>
+      </c>
+      <c r="S109" s="0" t="n">
+        <f aca="false">O109+2</f>
+        <v>232</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="n">
@@ -50185,15 +51932,21 @@
         <v>10</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>1535</v>
+        <v>1541</v>
       </c>
       <c r="F110" s="0" t="str">
         <f aca="false">CONCATENATE($O110,"_1")</f>
         <v>230_1</v>
       </c>
-      <c r="G110" s="0" t="str">
-        <f aca="false">CONCATENATE($P110,"_1")</f>
+      <c r="G110" s="14" t="str">
+        <f aca="false">F106</f>
         <v>229_1</v>
+      </c>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="14" t="str">
+        <f aca="false">F118</f>
+        <v>232_1</v>
       </c>
       <c r="O110" s="0" t="n">
         <f aca="false">O106+1</f>
@@ -50207,6 +51960,14 @@
         <f aca="false">O110+1</f>
         <v>231</v>
       </c>
+      <c r="R110" s="0" t="n">
+        <f aca="false">O110-2</f>
+        <v>228</v>
+      </c>
+      <c r="S110" s="0" t="n">
+        <f aca="false">O110+2</f>
+        <v>232</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="n">
@@ -50223,15 +51984,21 @@
         <v>10</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>1535</v>
+        <v>1541</v>
       </c>
       <c r="F111" s="0" t="str">
         <f aca="false">CONCATENATE($O111,"_1")</f>
         <v>230_1</v>
       </c>
-      <c r="G111" s="0" t="str">
-        <f aca="false">CONCATENATE($P111,"_1")</f>
+      <c r="G111" s="14" t="str">
+        <f aca="false">F107</f>
         <v>229_1</v>
+      </c>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14" t="str">
+        <f aca="false">F119</f>
+        <v>232_1</v>
       </c>
       <c r="O111" s="0" t="n">
         <f aca="false">O107+1</f>
@@ -50245,6 +52012,14 @@
         <f aca="false">O111+1</f>
         <v>231</v>
       </c>
+      <c r="R111" s="0" t="n">
+        <f aca="false">O111-2</f>
+        <v>228</v>
+      </c>
+      <c r="S111" s="0" t="n">
+        <f aca="false">O111+2</f>
+        <v>232</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="n">
@@ -50261,15 +52036,21 @@
         <v>10</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>1535</v>
+        <v>1541</v>
       </c>
       <c r="F112" s="0" t="str">
         <f aca="false">CONCATENATE($O112,"_1")</f>
         <v>230_1</v>
       </c>
-      <c r="G112" s="0" t="str">
-        <f aca="false">CONCATENATE($P112,"_1")</f>
+      <c r="G112" s="14" t="str">
+        <f aca="false">F108</f>
         <v>229_1</v>
+      </c>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="14" t="str">
+        <f aca="false">F120</f>
+        <v>232_1</v>
       </c>
       <c r="O112" s="0" t="n">
         <f aca="false">O108+1</f>
@@ -50283,6 +52064,14 @@
         <f aca="false">O112+1</f>
         <v>231</v>
       </c>
+      <c r="R112" s="0" t="n">
+        <f aca="false">O112-2</f>
+        <v>228</v>
+      </c>
+      <c r="S112" s="0" t="n">
+        <f aca="false">O112+2</f>
+        <v>232</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="n">
@@ -50299,11 +52088,23 @@
         <v>11</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>1535</v>
-      </c>
-      <c r="G113" s="0" t="str">
-        <f aca="false">CONCATENATE($P113,"_1")</f>
+        <v>1541</v>
+      </c>
+      <c r="G113" s="14" t="str">
+        <f aca="false">F109</f>
         <v>230_1</v>
+      </c>
+      <c r="H113" s="14" t="str">
+        <f aca="false">F117</f>
+        <v>232_1</v>
+      </c>
+      <c r="I113" s="14" t="str">
+        <f aca="false">F105</f>
+        <v>229_1</v>
+      </c>
+      <c r="J113" s="14" t="str">
+        <f aca="false">F121</f>
+        <v>233_1</v>
       </c>
       <c r="O113" s="0" t="n">
         <f aca="false">O109+1</f>
@@ -50317,6 +52118,14 @@
         <f aca="false">O113+1</f>
         <v>232</v>
       </c>
+      <c r="R113" s="0" t="n">
+        <f aca="false">O113-2</f>
+        <v>229</v>
+      </c>
+      <c r="S113" s="0" t="n">
+        <f aca="false">O113+2</f>
+        <v>233</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="n">
@@ -50333,11 +52142,23 @@
         <v>11</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>1535</v>
-      </c>
-      <c r="G114" s="0" t="str">
-        <f aca="false">CONCATENATE($P114,"_1")</f>
+        <v>1541</v>
+      </c>
+      <c r="G114" s="14" t="str">
+        <f aca="false">F110</f>
         <v>230_1</v>
+      </c>
+      <c r="H114" s="14" t="str">
+        <f aca="false">F118</f>
+        <v>232_1</v>
+      </c>
+      <c r="I114" s="14" t="str">
+        <f aca="false">F106</f>
+        <v>229_1</v>
+      </c>
+      <c r="J114" s="14" t="str">
+        <f aca="false">F122</f>
+        <v>233_1</v>
       </c>
       <c r="O114" s="0" t="n">
         <f aca="false">O110+1</f>
@@ -50351,6 +52172,14 @@
         <f aca="false">O114+1</f>
         <v>232</v>
       </c>
+      <c r="R114" s="0" t="n">
+        <f aca="false">O114-2</f>
+        <v>229</v>
+      </c>
+      <c r="S114" s="0" t="n">
+        <f aca="false">O114+2</f>
+        <v>233</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="n">
@@ -50367,11 +52196,23 @@
         <v>11</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>1535</v>
-      </c>
-      <c r="G115" s="0" t="str">
-        <f aca="false">CONCATENATE($P115,"_1")</f>
+        <v>1541</v>
+      </c>
+      <c r="G115" s="14" t="str">
+        <f aca="false">F111</f>
         <v>230_1</v>
+      </c>
+      <c r="H115" s="14" t="str">
+        <f aca="false">F119</f>
+        <v>232_1</v>
+      </c>
+      <c r="I115" s="14" t="str">
+        <f aca="false">F107</f>
+        <v>229_1</v>
+      </c>
+      <c r="J115" s="14" t="str">
+        <f aca="false">F123</f>
+        <v>233_1</v>
       </c>
       <c r="O115" s="0" t="n">
         <f aca="false">O111+1</f>
@@ -50385,6 +52226,14 @@
         <f aca="false">O115+1</f>
         <v>232</v>
       </c>
+      <c r="R115" s="0" t="n">
+        <f aca="false">O115-2</f>
+        <v>229</v>
+      </c>
+      <c r="S115" s="0" t="n">
+        <f aca="false">O115+2</f>
+        <v>233</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="n">
@@ -50401,11 +52250,23 @@
         <v>11</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>1535</v>
-      </c>
-      <c r="G116" s="0" t="str">
-        <f aca="false">CONCATENATE($P116,"_1")</f>
+        <v>1541</v>
+      </c>
+      <c r="G116" s="14" t="str">
+        <f aca="false">F112</f>
         <v>230_1</v>
+      </c>
+      <c r="H116" s="14" t="str">
+        <f aca="false">F120</f>
+        <v>232_1</v>
+      </c>
+      <c r="I116" s="14" t="str">
+        <f aca="false">F108</f>
+        <v>229_1</v>
+      </c>
+      <c r="J116" s="14" t="str">
+        <f aca="false">F124</f>
+        <v>233_1</v>
       </c>
       <c r="O116" s="0" t="n">
         <f aca="false">O112+1</f>
@@ -50419,6 +52280,14 @@
         <f aca="false">O116+1</f>
         <v>232</v>
       </c>
+      <c r="R116" s="0" t="n">
+        <f aca="false">O116-2</f>
+        <v>229</v>
+      </c>
+      <c r="S116" s="0" t="n">
+        <f aca="false">O116+2</f>
+        <v>233</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="n">
@@ -50435,16 +52304,25 @@
         <v>12</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="F117" s="0" t="str">
         <f aca="false">CONCATENATE($O117,"_1")</f>
         <v>232_1</v>
       </c>
-      <c r="H117" s="0" t="str">
-        <f aca="false">CONCATENATE($Q117,"_1")</f>
+      <c r="G117" s="14" t="n">
+        <f aca="false">F113</f>
+        <v>0</v>
+      </c>
+      <c r="H117" s="14" t="str">
+        <f aca="false">F121</f>
         <v>233_1</v>
       </c>
+      <c r="I117" s="14" t="str">
+        <f aca="false">F109</f>
+        <v>230_1</v>
+      </c>
+      <c r="J117" s="14"/>
       <c r="O117" s="0" t="n">
         <f aca="false">O113+1</f>
         <v>232</v>
@@ -50457,6 +52335,14 @@
         <f aca="false">O117+1</f>
         <v>233</v>
       </c>
+      <c r="R117" s="0" t="n">
+        <f aca="false">O117-2</f>
+        <v>230</v>
+      </c>
+      <c r="S117" s="0" t="n">
+        <f aca="false">O117+2</f>
+        <v>234</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="n">
@@ -50473,16 +52359,25 @@
         <v>12</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="F118" s="0" t="str">
         <f aca="false">CONCATENATE($O118,"_1")</f>
         <v>232_1</v>
       </c>
-      <c r="H118" s="0" t="str">
-        <f aca="false">CONCATENATE($Q118,"_1")</f>
+      <c r="G118" s="14" t="n">
+        <f aca="false">F114</f>
+        <v>0</v>
+      </c>
+      <c r="H118" s="14" t="str">
+        <f aca="false">F122</f>
         <v>233_1</v>
       </c>
+      <c r="I118" s="14" t="str">
+        <f aca="false">F110</f>
+        <v>230_1</v>
+      </c>
+      <c r="J118" s="14"/>
       <c r="O118" s="0" t="n">
         <f aca="false">O114+1</f>
         <v>232</v>
@@ -50495,6 +52390,14 @@
         <f aca="false">O118+1</f>
         <v>233</v>
       </c>
+      <c r="R118" s="0" t="n">
+        <f aca="false">O118-2</f>
+        <v>230</v>
+      </c>
+      <c r="S118" s="0" t="n">
+        <f aca="false">O118+2</f>
+        <v>234</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="n">
@@ -50511,16 +52414,25 @@
         <v>12</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="F119" s="0" t="str">
         <f aca="false">CONCATENATE($O119,"_1")</f>
         <v>232_1</v>
       </c>
-      <c r="H119" s="0" t="str">
-        <f aca="false">CONCATENATE($Q119,"_1")</f>
+      <c r="G119" s="14" t="n">
+        <f aca="false">F115</f>
+        <v>0</v>
+      </c>
+      <c r="H119" s="14" t="str">
+        <f aca="false">F123</f>
         <v>233_1</v>
       </c>
+      <c r="I119" s="14" t="str">
+        <f aca="false">F111</f>
+        <v>230_1</v>
+      </c>
+      <c r="J119" s="14"/>
       <c r="O119" s="0" t="n">
         <f aca="false">O115+1</f>
         <v>232</v>
@@ -50533,6 +52445,14 @@
         <f aca="false">O119+1</f>
         <v>233</v>
       </c>
+      <c r="R119" s="0" t="n">
+        <f aca="false">O119-2</f>
+        <v>230</v>
+      </c>
+      <c r="S119" s="0" t="n">
+        <f aca="false">O119+2</f>
+        <v>234</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="n">
@@ -50549,16 +52469,25 @@
         <v>12</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="F120" s="0" t="str">
         <f aca="false">CONCATENATE($O120,"_1")</f>
         <v>232_1</v>
       </c>
-      <c r="H120" s="0" t="str">
-        <f aca="false">CONCATENATE($Q120,"_1")</f>
+      <c r="G120" s="14" t="n">
+        <f aca="false">F116</f>
+        <v>0</v>
+      </c>
+      <c r="H120" s="14" t="str">
+        <f aca="false">F124</f>
         <v>233_1</v>
       </c>
+      <c r="I120" s="14" t="str">
+        <f aca="false">F112</f>
+        <v>230_1</v>
+      </c>
+      <c r="J120" s="14"/>
       <c r="O120" s="0" t="n">
         <f aca="false">O116+1</f>
         <v>232</v>
@@ -50571,6 +52500,14 @@
         <f aca="false">O120+1</f>
         <v>233</v>
       </c>
+      <c r="R120" s="0" t="n">
+        <f aca="false">O120-2</f>
+        <v>230</v>
+      </c>
+      <c r="S120" s="0" t="n">
+        <f aca="false">O120+2</f>
+        <v>234</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="n">
@@ -50587,16 +52524,19 @@
         <v>13</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="F121" s="0" t="str">
         <f aca="false">CONCATENATE($O121,"_1")</f>
         <v>233_1</v>
       </c>
-      <c r="G121" s="0" t="str">
-        <f aca="false">CONCATENATE($P121,"_1")</f>
+      <c r="G121" s="14" t="str">
+        <f aca="false">F117</f>
         <v>232_1</v>
       </c>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
       <c r="O121" s="0" t="n">
         <f aca="false">O117+1</f>
         <v>233</v>
@@ -50609,6 +52549,14 @@
         <f aca="false">O121+1</f>
         <v>234</v>
       </c>
+      <c r="R121" s="0" t="n">
+        <f aca="false">O121-2</f>
+        <v>231</v>
+      </c>
+      <c r="S121" s="0" t="n">
+        <f aca="false">O121+2</f>
+        <v>235</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="n">
@@ -50625,16 +52573,19 @@
         <v>13</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="F122" s="0" t="str">
         <f aca="false">CONCATENATE($O122,"_1")</f>
         <v>233_1</v>
       </c>
-      <c r="G122" s="0" t="str">
-        <f aca="false">CONCATENATE($P122,"_1")</f>
+      <c r="G122" s="14" t="str">
+        <f aca="false">F118</f>
         <v>232_1</v>
       </c>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
       <c r="O122" s="0" t="n">
         <f aca="false">O118+1</f>
         <v>233</v>
@@ -50647,6 +52598,14 @@
         <f aca="false">O122+1</f>
         <v>234</v>
       </c>
+      <c r="R122" s="0" t="n">
+        <f aca="false">O122-2</f>
+        <v>231</v>
+      </c>
+      <c r="S122" s="0" t="n">
+        <f aca="false">O122+2</f>
+        <v>235</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="n">
@@ -50663,16 +52622,19 @@
         <v>13</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="F123" s="0" t="str">
         <f aca="false">CONCATENATE($O123,"_1")</f>
         <v>233_1</v>
       </c>
-      <c r="G123" s="0" t="str">
-        <f aca="false">CONCATENATE($P123,"_1")</f>
+      <c r="G123" s="14" t="str">
+        <f aca="false">F119</f>
         <v>232_1</v>
       </c>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
       <c r="O123" s="0" t="n">
         <f aca="false">O119+1</f>
         <v>233</v>
@@ -50685,6 +52647,14 @@
         <f aca="false">O123+1</f>
         <v>234</v>
       </c>
+      <c r="R123" s="0" t="n">
+        <f aca="false">O123-2</f>
+        <v>231</v>
+      </c>
+      <c r="S123" s="0" t="n">
+        <f aca="false">O123+2</f>
+        <v>235</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="n">
@@ -50701,16 +52671,19 @@
         <v>13</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="F124" s="0" t="str">
         <f aca="false">CONCATENATE($O124,"_1")</f>
         <v>233_1</v>
       </c>
-      <c r="G124" s="0" t="str">
-        <f aca="false">CONCATENATE($P124,"_1")</f>
+      <c r="G124" s="14" t="str">
+        <f aca="false">F120</f>
         <v>232_1</v>
       </c>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
       <c r="O124" s="0" t="n">
         <f aca="false">O120+1</f>
         <v>233</v>
@@ -50723,6 +52696,14 @@
         <f aca="false">O124+1</f>
         <v>234</v>
       </c>
+      <c r="R124" s="0" t="n">
+        <f aca="false">O124-2</f>
+        <v>231</v>
+      </c>
+      <c r="S124" s="0" t="n">
+        <f aca="false">O124+2</f>
+        <v>235</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="n">
@@ -50739,12 +52720,18 @@
         <v>14</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>1537</v>
-      </c>
-      <c r="G125" s="0" t="str">
-        <f aca="false">CONCATENATE($P125,"_1")</f>
+        <v>1543</v>
+      </c>
+      <c r="G125" s="14" t="str">
+        <f aca="false">F121</f>
         <v>233_1</v>
       </c>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14" t="str">
+        <f aca="false">F117</f>
+        <v>232_1</v>
+      </c>
+      <c r="J125" s="14"/>
       <c r="O125" s="0" t="n">
         <f aca="false">O121+1</f>
         <v>234</v>
@@ -50757,6 +52744,10 @@
         <f aca="false">O125+1</f>
         <v>235</v>
       </c>
+      <c r="R125" s="0" t="n">
+        <f aca="false">O125-2</f>
+        <v>232</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="n">
@@ -50773,12 +52764,18 @@
         <v>14</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>1537</v>
-      </c>
-      <c r="G126" s="0" t="str">
-        <f aca="false">CONCATENATE($P126,"_1")</f>
+        <v>1543</v>
+      </c>
+      <c r="G126" s="14" t="str">
+        <f aca="false">F122</f>
         <v>233_1</v>
       </c>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14" t="str">
+        <f aca="false">F118</f>
+        <v>232_1</v>
+      </c>
+      <c r="J126" s="14"/>
       <c r="O126" s="0" t="n">
         <f aca="false">O122+1</f>
         <v>234</v>
@@ -50791,6 +52788,10 @@
         <f aca="false">O126+1</f>
         <v>235</v>
       </c>
+      <c r="R126" s="0" t="n">
+        <f aca="false">O126-2</f>
+        <v>232</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="n">
@@ -50807,12 +52808,18 @@
         <v>14</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>1537</v>
-      </c>
-      <c r="G127" s="0" t="str">
-        <f aca="false">CONCATENATE($P127,"_1")</f>
+        <v>1543</v>
+      </c>
+      <c r="G127" s="14" t="str">
+        <f aca="false">F123</f>
         <v>233_1</v>
       </c>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14" t="str">
+        <f aca="false">F119</f>
+        <v>232_1</v>
+      </c>
+      <c r="J127" s="14"/>
       <c r="O127" s="0" t="n">
         <f aca="false">O123+1</f>
         <v>234</v>
@@ -50825,6 +52832,10 @@
         <f aca="false">O127+1</f>
         <v>235</v>
       </c>
+      <c r="R127" s="0" t="n">
+        <f aca="false">O127-2</f>
+        <v>232</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="n">
@@ -50841,12 +52852,18 @@
         <v>14</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>1537</v>
-      </c>
-      <c r="G128" s="0" t="str">
-        <f aca="false">CONCATENATE($P128,"_1")</f>
+        <v>1543</v>
+      </c>
+      <c r="G128" s="14" t="str">
+        <f aca="false">F124</f>
         <v>233_1</v>
       </c>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14" t="str">
+        <f aca="false">F120</f>
+        <v>232_1</v>
+      </c>
+      <c r="J128" s="14"/>
       <c r="O128" s="0" t="n">
         <f aca="false">O124+1</f>
         <v>234</v>
@@ -50859,6 +52876,10 @@
         <f aca="false">O128+1</f>
         <v>235</v>
       </c>
+      <c r="R128" s="0" t="n">
+        <f aca="false">O128-2</f>
+        <v>232</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="n">
@@ -50875,8 +52896,15 @@
         <v>15</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>1537</v>
-      </c>
+        <v>1543</v>
+      </c>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14" t="str">
+        <f aca="false">F121</f>
+        <v>233_1</v>
+      </c>
+      <c r="J129" s="14"/>
       <c r="O129" s="0" t="n">
         <f aca="false">O125+1</f>
         <v>235</v>
@@ -50885,6 +52913,10 @@
         <f aca="false">O129-1</f>
         <v>234</v>
       </c>
+      <c r="R129" s="0" t="n">
+        <f aca="false">O129-2</f>
+        <v>233</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="n">
@@ -50901,8 +52933,15 @@
         <v>15</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>1537</v>
-      </c>
+        <v>1543</v>
+      </c>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14" t="str">
+        <f aca="false">F122</f>
+        <v>233_1</v>
+      </c>
+      <c r="J130" s="14"/>
       <c r="O130" s="0" t="n">
         <f aca="false">O126+1</f>
         <v>235</v>
@@ -50911,6 +52950,10 @@
         <f aca="false">O130-1</f>
         <v>234</v>
       </c>
+      <c r="R130" s="0" t="n">
+        <f aca="false">O130-2</f>
+        <v>233</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="n">
@@ -50927,8 +52970,15 @@
         <v>15</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>1537</v>
-      </c>
+        <v>1543</v>
+      </c>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14" t="str">
+        <f aca="false">F123</f>
+        <v>233_1</v>
+      </c>
+      <c r="J131" s="14"/>
       <c r="O131" s="0" t="n">
         <f aca="false">O127+1</f>
         <v>235</v>
@@ -50937,6 +52987,10 @@
         <f aca="false">O131-1</f>
         <v>234</v>
       </c>
+      <c r="R131" s="0" t="n">
+        <f aca="false">O131-2</f>
+        <v>233</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="n">
@@ -50953,8 +53007,15 @@
         <v>15</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>1537</v>
-      </c>
+        <v>1543</v>
+      </c>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14" t="str">
+        <f aca="false">F124</f>
+        <v>233_1</v>
+      </c>
+      <c r="J132" s="14"/>
       <c r="O132" s="0" t="n">
         <f aca="false">O128+1</f>
         <v>235</v>
@@ -50963,8 +53024,15 @@
         <f aca="false">O132-1</f>
         <v>234</v>
       </c>
+      <c r="R132" s="0" t="n">
+        <f aca="false">O132-2</f>
+        <v>233</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O3:S3"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -51007,7 +53075,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1538</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51020,307 +53088,307 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1539</v>
+        <v>1545</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1540</v>
+        <v>1546</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1541</v>
+        <v>1547</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>843</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>1543</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1544</v>
+        <v>1550</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1545</v>
+        <v>1551</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1546</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1544</v>
+        <v>1550</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1547</v>
+        <v>1553</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1546</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1544</v>
+        <v>1550</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1548</v>
+        <v>1554</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1546</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1544</v>
+        <v>1550</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1549</v>
+        <v>1555</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1546</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1545</v>
+        <v>1551</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1551</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1547</v>
+        <v>1553</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1551</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1548</v>
+        <v>1554</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1551</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1549</v>
+        <v>1555</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1551</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1545</v>
+        <v>1551</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1547</v>
+        <v>1553</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1548</v>
+        <v>1554</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1549</v>
+        <v>1555</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1554</v>
+        <v>1560</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>1545</v>
+        <v>1551</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1555</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1554</v>
+        <v>1560</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1547</v>
+        <v>1553</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>1555</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>1554</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>1548</v>
-      </c>
       <c r="C19" s="0" t="s">
-        <v>1555</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1554</v>
+        <v>1560</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>1549</v>
+        <v>1555</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1555</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1556</v>
+        <v>1562</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1557</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1558</v>
+        <v>1564</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>1557</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1559</v>
+        <v>1565</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>1560</v>
+        <v>1566</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>1561</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1562</v>
+        <v>1568</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1545</v>
+        <v>1551</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>1563</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1562</v>
+        <v>1568</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1547</v>
+        <v>1553</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>1564</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1562</v>
+        <v>1568</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1548</v>
+        <v>1554</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>1565</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1562</v>
+        <v>1568</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1549</v>
+        <v>1555</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>1566</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1567</v>
+        <v>1573</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>1568</v>
+        <v>1574</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>1569</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1570</v>
+        <v>1576</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>1562</v>
+        <v>1568</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>1569</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1571</v>
+        <v>1577</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>1557</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1572</v>
+        <v>1578</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>1557</v>
+        <v>1563</v>
       </c>
     </row>
   </sheetData>
@@ -51341,7 +53409,7 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -51366,7 +53434,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1573</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51379,213 +53447,213 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1574</v>
+        <v>1580</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1575</v>
+        <v>1581</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1543</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1576</v>
+        <v>1582</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1577</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1578</v>
+        <v>1584</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1579</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1581</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1583</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1584</v>
+        <v>1590</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>64</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1585</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="B10" s="5" t="n">
         <f aca="false">B8</f>
         <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1587</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1588</v>
+        <v>1594</v>
       </c>
       <c r="B11" s="5" t="n">
         <f aca="false">B9/B5</f>
         <v>16</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1589</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1590</v>
+        <v>1596</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>528</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1591</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1592</v>
+        <v>1598</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>871</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1593</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1594</v>
+        <v>1600</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1595</v>
+        <v>1601</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1596</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1597</v>
+        <v>1603</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1598</v>
+        <v>1604</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1599</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1600</v>
+        <v>1606</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1602</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>823</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1604</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1605</v>
+        <v>1611</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>732</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>1606</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1607</v>
+        <v>1613</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>798</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>661</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>717</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1613</v>
+        <v>1619</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>646</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
+++ b/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="US+_GTY_tx_rx" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7238" uniqueCount="1649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7240" uniqueCount="1649">
   <si>
     <t xml:space="preserve">// path</t>
   </si>
@@ -12127,8 +12127,8 @@
   </sheetPr>
   <dimension ref="A1:M292"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12463,11 +12463,14 @@
       <c r="B16" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="C16" s="4" t="n">
-        <v>0</v>
+      <c r="C16" s="4" t="s">
+        <v>847</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>850</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="5"/>
@@ -41854,7 +41857,7 @@
   </sheetPr>
   <dimension ref="A1:S132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
+++ b/examples/vu13p_25g_all/src/xcvu13p-fsga2577.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7242" uniqueCount="1651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7243" uniqueCount="1651">
   <si>
     <t xml:space="preserve">// path</t>
   </si>
@@ -12129,8 +12129,8 @@
   </sheetPr>
   <dimension ref="A1:M292"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H206" activeCellId="0" sqref="H206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16092,6 +16092,9 @@
       </c>
       <c r="E205" s="4" t="n">
         <v>1</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19054,8 +19057,8 @@
   </sheetPr>
   <dimension ref="A1:G901"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A262" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D278" activeCellId="0" sqref="D278"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A694" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F722" activeCellId="0" sqref="F722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
